--- a/TOC/Day-wise ToC.xlsx
+++ b/TOC/Day-wise ToC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="2144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="2140">
   <si>
     <t>Topic</t>
   </si>
@@ -4319,6 +4319,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Hands On Assignments</t>
     </r>
     <r>
@@ -5894,18 +5902,6 @@
   </si>
   <si>
     <t>File and Buffered Streams</t>
-  </si>
-  <si>
-    <t>Accessing Files with the java.nio.file Package</t>
-  </si>
-  <si>
-    <t>Using Default File System and Zip File Systems</t>
-  </si>
-  <si>
-    <t>Demo: Creating a Zip File System</t>
-  </si>
-  <si>
-    <t>Demo: Copying and Writing Files to Zip File System</t>
   </si>
   <si>
     <t>Java Serialization Overview</t>
@@ -8832,9 +8828,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -9022,6 +9018,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -9029,7 +9032,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9044,14 +9063,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -9060,14 +9071,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9082,22 +9101,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -9105,10 +9108,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9120,7 +9124,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9129,21 +9140,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9188,7 +9184,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9200,73 +9334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9278,79 +9346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9362,7 +9358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9443,17 +9439,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9473,17 +9480,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9492,7 +9517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9511,39 +9536,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9564,127 +9560,127 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10265,8 +10261,8 @@
   <sheetPr/>
   <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -25056,9 +25052,9 @@
   <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26655,12 +26651,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1420"/>
+  <dimension ref="A1:L1416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1408" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L3"/>
+      <selection pane="bottomLeft" activeCell="F379" sqref="F379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28788,90 +28784,90 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="3" t="s">
+    <row r="378" spans="1:2">
+      <c r="A378" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="13"/>
+      <c r="B379" s="14" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="12" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="14" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="3" t="s">
+    <row r="382" spans="2:2">
+      <c r="B382" s="3" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="3" t="s">
+    <row r="383" spans="2:2">
+      <c r="B383" s="3" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="3" t="s">
+    <row r="384" spans="2:2">
+      <c r="B384" s="3" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="13" t="s">
+    <row r="385" spans="2:2">
+      <c r="B385" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="B382" s="12" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="13"/>
-      <c r="B383" s="14" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="12" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="14" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="13"/>
+      <c r="B387" s="14" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="388" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B388" s="21" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="389" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B389" s="3" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="3" t="s">
+    <row r="390" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B390" s="3" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="3" t="s">
+    <row r="391" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B391" s="3" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="3" t="s">
+    <row r="392" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B392" s="3" t="s">
         <v>1521</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B390" s="12" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="13"/>
-      <c r="B391" s="14" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="392" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A392" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B392" s="21" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="2:2">
@@ -28886,27 +28882,27 @@
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="2:2">
       <c r="B395" s="3" t="s">
-        <v>1524</v>
+        <v>88</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="2:2">
       <c r="B396" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="2:2">
       <c r="B397" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="2:2">
       <c r="B398" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="2:2">
       <c r="B399" s="3" t="s">
-        <v>88</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="2:2">
@@ -28930,7 +28926,7 @@
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="21" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -28950,7 +28946,7 @@
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B408" s="21" t="s">
+      <c r="B408" s="3" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -28976,27 +28972,27 @@
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="2:2">
       <c r="B413" s="3" t="s">
-        <v>1541</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="2:2">
       <c r="B414" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="2:2">
       <c r="B415" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="2:2">
       <c r="B416" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="2:2">
       <c r="B417" s="3" t="s">
-        <v>1528</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="2:2">
@@ -29015,7 +29011,7 @@
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="21" t="s">
         <v>1548</v>
       </c>
     </row>
@@ -29035,7 +29031,7 @@
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B425" s="21" t="s">
+      <c r="B425" s="3" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -29069,150 +29065,150 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B432" s="3" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="433" ht="15.75" customHeight="1" spans="2:2">
+    <row r="432" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A432" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="433" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A433" s="13"/>
       <c r="B433" s="3" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="434" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B434" s="3" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="435" ht="15.75" customHeight="1" spans="2:2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="434" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A434" s="13"/>
+      <c r="B434" s="12" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="435" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A435" s="13"/>
       <c r="B435" s="3" t="s">
-        <v>1562</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A436" s="13" t="s">
-        <v>995</v>
-      </c>
+      <c r="A436" s="13"/>
       <c r="B436" s="12" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="1:2">
       <c r="A437" s="13"/>
       <c r="B437" s="3" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="438" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A438" s="13"/>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>1015</v>
+      </c>
       <c r="B438" s="12" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="439" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A439" s="13"/>
-      <c r="B439" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="440" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A440" s="13"/>
-      <c r="B440" s="12" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="441" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A441" s="13"/>
-      <c r="B441" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B442" s="12" t="s">
         <v>1060</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="2" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="2" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="443" spans="2:2">
       <c r="B443" s="2" t="s">
-        <v>588</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="444" spans="2:2">
-      <c r="B444" s="2" t="s">
-        <v>1126</v>
+      <c r="B444" s="17" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="2" t="s">
-        <v>1563</v>
+      <c r="B445" s="17" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" s="2" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="2" t="s">
         <v>1565</v>
-      </c>
-    </row>
-    <row r="448" spans="2:2">
-      <c r="B448" s="17" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="449" spans="2:2">
       <c r="B449" s="17" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="22" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="22" t="s">
         <v>1567</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="2" t="s">
+    <row r="452" spans="2:2">
+      <c r="B452" s="22" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="2" t="s">
-        <v>1569</v>
-      </c>
-    </row>
     <row r="453" spans="2:2">
-      <c r="B453" s="17" t="s">
-        <v>1062</v>
+      <c r="B453" s="12" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" s="22" t="s">
-        <v>1570</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="455" spans="2:2">
       <c r="B455" s="22" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" s="22" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="12" t="s">
-        <v>1063</v>
+      <c r="B457" s="22" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="458" spans="2:2">
       <c r="B458" s="22" t="s">
-        <v>1126</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="459" spans="2:2">
@@ -29236,166 +29232,166 @@
       </c>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="22" t="s">
+      <c r="B463" s="12" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="23" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="22" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="22" t="s">
-        <v>1579</v>
-      </c>
-    </row>
     <row r="466" spans="2:2">
-      <c r="B466" s="22" t="s">
-        <v>1580</v>
+      <c r="B466" s="23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="467" spans="2:2">
       <c r="B467" s="12" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="468" spans="2:2">
-      <c r="B468" s="23" t="s">
-        <v>260</v>
+      <c r="B468" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="469" spans="2:2">
       <c r="B469" s="23" t="s">
-        <v>1581</v>
+        <v>265</v>
       </c>
     </row>
     <row r="470" spans="2:2">
       <c r="B470" s="23" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" s="12" t="s">
-        <v>1065</v>
+      <c r="B471" s="23" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="472" spans="2:2">
-      <c r="B472" s="3" t="s">
-        <v>264</v>
+      <c r="B472" s="23" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="473" spans="2:2">
       <c r="B473" s="23" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="474" spans="2:2">
       <c r="B474" s="23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="475" spans="2:2">
       <c r="B475" s="23" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="476" spans="2:2">
       <c r="B476" s="23" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="477" spans="2:2">
       <c r="B477" s="23" t="s">
-        <v>269</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="478" spans="2:2">
       <c r="B478" s="23" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="479" spans="2:2">
       <c r="B479" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="23" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="480" ht="15.75" spans="1:2">
+      <c r="A480" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B480" s="11"/>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B481" s="12" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="17" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="18" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="14" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
-      <c r="B481" s="23" t="s">
+    <row r="485" spans="2:2">
+      <c r="B485" s="15" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="482" spans="2:2">
-      <c r="B482" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="23" t="s">
+    <row r="486" spans="2:2">
+      <c r="B486" s="15" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="484" ht="15.75" spans="1:2">
-      <c r="A484" s="10" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B484" s="11"/>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B485" s="12" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="17" t="s">
+    <row r="487" spans="2:2">
+      <c r="B487" s="15" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="18" t="s">
-        <v>1586</v>
-      </c>
-    </row>
     <row r="488" spans="2:2">
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="3" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="489" spans="2:2">
-      <c r="B489" s="15" t="s">
-        <v>1588</v>
+      <c r="B489" s="17" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="490" spans="2:2">
       <c r="B490" s="15" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="3" t="s">
         <v>1589</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="15" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="492" spans="2:2">
       <c r="B492" s="3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="3" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="493" spans="2:2">
-      <c r="B493" s="17" t="s">
-        <v>1068</v>
-      </c>
-    </row>
     <row r="494" spans="2:2">
-      <c r="B494" s="15" t="s">
+      <c r="B494" s="3" t="s">
         <v>1592</v>
       </c>
     </row>
@@ -29405,7 +29401,7 @@
       </c>
     </row>
     <row r="496" spans="2:2">
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="15" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -29420,37 +29416,37 @@
       </c>
     </row>
     <row r="499" spans="2:2">
-      <c r="B499" s="3" t="s">
-        <v>1597</v>
+      <c r="B499" s="17" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="500" spans="2:2">
       <c r="B500" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="501" spans="2:2">
       <c r="B501" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="502" spans="2:2">
       <c r="B502" s="3" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="15" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="503" spans="2:2">
-      <c r="B503" s="17" t="s">
-        <v>1069</v>
-      </c>
-    </row>
     <row r="504" spans="2:2">
-      <c r="B504" s="15" t="s">
+      <c r="B504" s="14" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="505" spans="2:2">
-      <c r="B505" s="3" t="s">
+      <c r="B505" s="15" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -29460,43 +29456,43 @@
       </c>
     </row>
     <row r="507" spans="2:2">
-      <c r="B507" s="15" t="s">
+      <c r="B507" s="3" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="508" spans="2:2">
-      <c r="B508" s="14" t="s">
+      <c r="B508" s="15" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="509" spans="2:2">
-      <c r="B509" s="15" t="s">
+      <c r="B509" s="16" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="510" spans="2:2">
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="17" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="14" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="511" spans="2:2">
-      <c r="B511" s="3" t="s">
+    <row r="512" spans="2:2">
+      <c r="B512" s="14" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="512" spans="2:2">
-      <c r="B512" s="15" t="s">
+    <row r="513" spans="2:2">
+      <c r="B513" s="14" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="513" spans="2:2">
-      <c r="B513" s="16" t="s">
+    <row r="514" spans="2:2">
+      <c r="B514" s="14" t="s">
         <v>1610</v>
-      </c>
-    </row>
-    <row r="514" spans="2:2">
-      <c r="B514" s="17" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="515" spans="2:2">
@@ -29520,80 +29516,80 @@
       </c>
     </row>
     <row r="519" spans="2:2">
-      <c r="B519" s="14" t="s">
-        <v>1615</v>
+      <c r="B519" s="17" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" s="14" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" s="14" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" s="14" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="14" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="523" spans="2:2">
-      <c r="B523" s="17" t="s">
-        <v>1071</v>
-      </c>
-    </row>
     <row r="524" spans="2:2">
-      <c r="B524" s="14" t="s">
+      <c r="B524" s="17" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="2" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="525" spans="2:2">
-      <c r="B525" s="14" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2">
-      <c r="B526" s="14" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="527" spans="2:2">
-      <c r="B527" s="14" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="528" spans="2:2">
-      <c r="B528" s="17" t="s">
-        <v>1072</v>
+    <row r="526" spans="1:2">
+      <c r="A526" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="13"/>
+      <c r="B527" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B528" s="24" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="2" t="s">
         <v>1623</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B530" s="12" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" s="13"/>
-      <c r="B531" s="3" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B532" s="24" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="533" spans="2:2">
@@ -29602,93 +29598,93 @@
       </c>
     </row>
     <row r="534" spans="2:2">
-      <c r="B534" s="2" t="s">
-        <v>1625</v>
+      <c r="B534" s="24" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" s="2" t="s">
-        <v>1626</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" s="2" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="538" spans="2:2">
-      <c r="B538" s="24" t="s">
-        <v>1076</v>
+      <c r="B538" s="2" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" s="2" t="s">
-        <v>1126</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="540" spans="2:2">
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="25" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="12" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="3" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="3" t="s">
         <v>1629</v>
-      </c>
-    </row>
-    <row r="541" spans="2:2">
-      <c r="B541" s="2" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="542" spans="2:2">
-      <c r="B542" s="2" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="543" spans="2:2">
-      <c r="B543" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="544" spans="2:2">
       <c r="B544" s="25" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="545" spans="2:2">
-      <c r="B545" s="12" t="s">
-        <v>1078</v>
+      <c r="B545" s="3" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" s="3" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="3" t="s">
         <v>1632</v>
-      </c>
-    </row>
-    <row r="547" spans="2:2">
-      <c r="B547" s="3" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="548" spans="2:2">
-      <c r="B548" s="25" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" s="3" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="3" t="s">
         <v>1635</v>
-      </c>
-    </row>
-    <row r="551" spans="2:2">
-      <c r="B551" s="12" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="552" spans="2:2">
@@ -29702,141 +29698,141 @@
       </c>
     </row>
     <row r="554" spans="2:2">
-      <c r="B554" s="3" t="s">
-        <v>1638</v>
+      <c r="B554" s="12" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="558" spans="2:2">
       <c r="B558" s="12" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="560" spans="2:2">
       <c r="B560" s="3" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="12" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="3" t="s">
         <v>1643</v>
-      </c>
-    </row>
-    <row r="561" spans="2:2">
-      <c r="B561" s="3" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="562" spans="2:2">
-      <c r="B562" s="12" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" s="3" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="565" spans="2:2">
-      <c r="B565" s="12" t="s">
-        <v>1083</v>
+      <c r="B565" s="3" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="567" spans="2:2">
-      <c r="B567" s="3" t="s">
-        <v>1648</v>
+      <c r="B567" s="12" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" s="3" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" s="12" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="572" spans="2:2">
-      <c r="B572" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B572" s="12" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="13"/>
+      <c r="B573" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="13"/>
+      <c r="B574" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B575" s="12" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="3" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="3" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="573" spans="2:2">
-      <c r="B573" s="3" t="s">
+    <row r="578" spans="2:2">
+      <c r="B578" s="3" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="574" spans="2:2">
-      <c r="B574" s="3" t="s">
+    <row r="579" spans="2:2">
+      <c r="B579" s="3" t="s">
         <v>1653</v>
-      </c>
-    </row>
-    <row r="575" spans="2:2">
-      <c r="B575" s="12" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B576" s="12" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="13"/>
-      <c r="B577" s="3" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" s="13"/>
-      <c r="B578" s="3" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B579" s="12" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="580" spans="2:2">
@@ -29899,8 +29895,8 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="592" spans="2:2">
-      <c r="B592" s="3" t="s">
+    <row r="592" ht="30" spans="2:2">
+      <c r="B592" s="5" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -29919,93 +29915,93 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="596" ht="30" spans="2:2">
-      <c r="B596" s="5" t="s">
-        <v>1670</v>
+    <row r="596" spans="2:2">
+      <c r="B596" s="12" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="597" spans="2:2">
-      <c r="B597" s="3" t="s">
-        <v>1671</v>
+      <c r="B597" s="5" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="598" spans="2:2">
-      <c r="B598" s="3" t="s">
-        <v>1672</v>
+      <c r="B598" s="5" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="599" spans="2:2">
-      <c r="B599" s="3" t="s">
-        <v>1673</v>
+      <c r="B599" s="5" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="600" spans="2:2">
-      <c r="B600" s="12" t="s">
-        <v>710</v>
+      <c r="B600" s="5" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="601" spans="2:2">
       <c r="B601" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="602" spans="2:2">
       <c r="B602" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="603" spans="2:2">
       <c r="B603" s="5" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="604" spans="2:2">
       <c r="B604" s="5" t="s">
-        <v>714</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="605" spans="2:2">
       <c r="B605" s="5" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="606" spans="2:2">
-      <c r="B606" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="607" spans="2:2">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B606" s="12" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="13"/>
       <c r="B607" s="5" t="s">
-        <v>717</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="608" spans="2:2">
-      <c r="B608" s="5" t="s">
+      <c r="B608" s="12" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="3" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="3" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="609" spans="2:2">
-      <c r="B609" s="5" t="s">
+    <row r="612" spans="2:2">
+      <c r="B612" s="3" t="s">
         <v>1675</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B610" s="12" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" s="13"/>
-      <c r="B611" s="5" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="612" spans="2:2">
-      <c r="B612" s="12" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="613" spans="2:2">
@@ -30058,85 +30054,85 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="623" spans="2:2">
-      <c r="B623" s="3" t="s">
+    <row r="623" spans="1:2">
+      <c r="A623" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B623" s="12" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="13"/>
+      <c r="B624" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B625" s="21" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" s="23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" s="23" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" s="21" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="624" spans="2:2">
-      <c r="B624" s="3" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="625" spans="2:2">
-      <c r="B625" s="3" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="626" spans="2:2">
-      <c r="B626" s="3" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B627" s="12" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="13"/>
-      <c r="B628" s="3" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" s="1" t="s">
-        <v>1010</v>
-      </c>
+    <row r="629" spans="2:2">
       <c r="B629" s="21" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="630" spans="2:2">
-      <c r="B630" s="23" t="s">
-        <v>1096</v>
+      <c r="B630" s="21" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="631" spans="2:2">
-      <c r="B631" s="23" t="s">
-        <v>1097</v>
+      <c r="B631" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="632" spans="2:2">
       <c r="B632" s="21" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" s="3" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" s="5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" s="5" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="633" spans="2:2">
-      <c r="B633" s="21" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="634" spans="2:2">
-      <c r="B634" s="21" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="635" spans="2:2">
-      <c r="B635" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="636" spans="2:2">
-      <c r="B636" s="21" t="s">
-        <v>1100</v>
-      </c>
-    </row>
     <row r="637" spans="2:2">
-      <c r="B637" s="3" t="s">
+      <c r="B637" s="5" t="s">
         <v>1691</v>
       </c>
     </row>
@@ -30152,37 +30148,37 @@
     </row>
     <row r="640" spans="2:2">
       <c r="B640" s="5" t="s">
-        <v>1694</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="641" spans="2:2">
-      <c r="B641" s="5" t="s">
-        <v>1695</v>
+      <c r="B641" s="21" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="642" spans="2:2">
-      <c r="B642" s="5" t="s">
-        <v>1696</v>
+      <c r="B642" s="3" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="643" spans="2:2">
       <c r="B643" s="5" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="644" spans="2:2">
       <c r="B644" s="5" t="s">
-        <v>1628</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="645" spans="2:2">
-      <c r="B645" s="21" t="s">
-        <v>1101</v>
+      <c r="B645" s="5" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="646" spans="2:2">
-      <c r="B646" s="3" t="s">
-        <v>1101</v>
+      <c r="B646" s="5" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="647" spans="2:2">
@@ -30207,72 +30203,72 @@
     </row>
     <row r="651" spans="2:2">
       <c r="B651" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" s="21" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="3" t="s">
         <v>1702</v>
-      </c>
-    </row>
-    <row r="652" spans="2:2">
-      <c r="B652" s="5" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="653" spans="2:2">
-      <c r="B653" s="5" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="654" spans="2:2">
       <c r="B654" s="5" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="655" spans="2:2">
       <c r="B655" s="5" t="s">
-        <v>1628</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="656" spans="2:2">
-      <c r="B656" s="21" t="s">
-        <v>1102</v>
+      <c r="B656" s="5" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="657" spans="2:2">
-      <c r="B657" s="3" t="s">
+      <c r="B657" s="5" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="658" spans="2:2">
       <c r="B658" s="5" t="s">
-        <v>1707</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="659" spans="2:2">
-      <c r="B659" s="5" t="s">
-        <v>1708</v>
+      <c r="B659" s="21" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="660" spans="2:2">
-      <c r="B660" s="5" t="s">
-        <v>1709</v>
+      <c r="B660" s="3" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="661" spans="2:2">
       <c r="B661" s="5" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="662" spans="2:2">
       <c r="B662" s="5" t="s">
-        <v>1628</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="663" spans="2:2">
-      <c r="B663" s="21" t="s">
-        <v>1103</v>
+      <c r="B663" s="5" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="664" spans="2:2">
-      <c r="B664" s="3" t="s">
-        <v>1126</v>
+      <c r="B664" s="5" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="665" spans="2:2">
@@ -30282,36 +30278,36 @@
     </row>
     <row r="666" spans="2:2">
       <c r="B666" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2">
+      <c r="B667" s="20" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2">
+      <c r="B668" s="3" t="s">
         <v>1712</v>
-      </c>
-    </row>
-    <row r="667" spans="2:2">
-      <c r="B667" s="5" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="668" spans="2:2">
-      <c r="B668" s="5" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="669" spans="2:2">
       <c r="B669" s="5" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="670" spans="2:2">
       <c r="B670" s="5" t="s">
-        <v>1628</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="671" spans="2:2">
-      <c r="B671" s="20" t="s">
-        <v>1104</v>
+      <c r="B671" s="5" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="672" spans="2:2">
-      <c r="B672" s="3" t="s">
+      <c r="B672" s="5" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -30327,36 +30323,36 @@
     </row>
     <row r="675" spans="2:2">
       <c r="B675" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="20" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="3" t="s">
         <v>1719</v>
-      </c>
-    </row>
-    <row r="676" spans="2:2">
-      <c r="B676" s="5" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="677" spans="2:2">
-      <c r="B677" s="5" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="678" spans="2:2">
       <c r="B678" s="5" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="679" spans="2:2">
       <c r="B679" s="5" t="s">
-        <v>1628</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="680" spans="2:2">
-      <c r="B680" s="20" t="s">
-        <v>1105</v>
+      <c r="B680" s="5" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="681" spans="2:2">
-      <c r="B681" s="3" t="s">
+      <c r="B681" s="5" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -30367,61 +30363,61 @@
     </row>
     <row r="683" spans="2:2">
       <c r="B683" s="5" t="s">
-        <v>1725</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="684" spans="2:2">
-      <c r="B684" s="5" t="s">
-        <v>1726</v>
+      <c r="B684" s="20" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="685" spans="2:2">
-      <c r="B685" s="5" t="s">
-        <v>1727</v>
+      <c r="B685" s="3" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" s="5" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" s="5" t="s">
-        <v>1628</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="688" spans="2:2">
-      <c r="B688" s="20" t="s">
-        <v>1106</v>
+      <c r="B688" s="5" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="689" spans="2:2">
-      <c r="B689" s="3" t="s">
-        <v>1106</v>
+      <c r="B689" s="20" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="690" spans="2:2">
-      <c r="B690" s="5" t="s">
-        <v>1729</v>
+      <c r="B690" s="3" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="691" spans="2:2">
       <c r="B691" s="5" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="692" spans="2:2">
       <c r="B692" s="5" t="s">
-        <v>1628</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="693" spans="2:2">
-      <c r="B693" s="20" t="s">
-        <v>1107</v>
+      <c r="B693" s="5" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="694" spans="2:2">
-      <c r="B694" s="3" t="s">
+      <c r="B694" s="5" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -30432,40 +30428,40 @@
     </row>
     <row r="696" spans="2:2">
       <c r="B696" s="5" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="697" spans="2:2">
-      <c r="B697" s="5" t="s">
-        <v>1734</v>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B697" s="20" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="698" spans="2:2">
       <c r="B698" s="5" t="s">
-        <v>1735</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="699" spans="2:2">
       <c r="B699" s="5" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="700" spans="2:2">
       <c r="B700" s="5" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2">
-      <c r="A701" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B701" s="20" t="s">
-        <v>1108</v>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" s="5" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="702" spans="2:2">
       <c r="B702" s="5" t="s">
-        <v>1126</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="703" spans="2:2">
@@ -30490,36 +30486,36 @@
     </row>
     <row r="707" spans="2:2">
       <c r="B707" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2">
+      <c r="B708" s="20" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" s="3" t="s">
         <v>1741</v>
-      </c>
-    </row>
-    <row r="708" spans="2:2">
-      <c r="B708" s="5" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="709" spans="2:2">
-      <c r="B709" s="5" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="710" spans="2:2">
       <c r="B710" s="5" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="711" spans="2:2">
       <c r="B711" s="5" t="s">
-        <v>1628</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="712" spans="2:2">
-      <c r="B712" s="20" t="s">
-        <v>1109</v>
+      <c r="B712" s="5" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="713" spans="2:2">
-      <c r="B713" s="3" t="s">
+      <c r="B713" s="5" t="s">
         <v>1745</v>
       </c>
     </row>
@@ -30559,33 +30555,33 @@
       </c>
     </row>
     <row r="721" spans="2:2">
-      <c r="B721" s="5" t="s">
-        <v>1753</v>
+      <c r="B721" s="20" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="722" spans="2:2">
-      <c r="B722" s="5" t="s">
-        <v>1754</v>
+      <c r="B722" s="3" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="723" spans="2:2">
       <c r="B723" s="5" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="724" spans="2:2">
       <c r="B724" s="5" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" s="5" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2">
+      <c r="B726" s="5" t="s">
         <v>1756</v>
-      </c>
-    </row>
-    <row r="725" spans="2:2">
-      <c r="B725" s="20" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="726" spans="2:2">
-      <c r="B726" s="3" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="727" spans="2:2">
@@ -30610,37 +30606,37 @@
     </row>
     <row r="731" spans="2:2">
       <c r="B731" s="5" t="s">
-        <v>1761</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="732" spans="2:2">
-      <c r="B732" s="5" t="s">
-        <v>1762</v>
+      <c r="B732" s="20" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="733" spans="2:2">
-      <c r="B733" s="5" t="s">
-        <v>1763</v>
+      <c r="B733" s="3" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="734" spans="2:2">
       <c r="B734" s="5" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="735" spans="2:2">
       <c r="B735" s="5" t="s">
-        <v>1628</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="736" spans="2:2">
-      <c r="B736" s="20" t="s">
-        <v>1111</v>
+      <c r="B736" s="5" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="737" spans="2:2">
-      <c r="B737" s="3" t="s">
-        <v>1126</v>
+      <c r="B737" s="5" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="738" spans="2:2">
@@ -30669,33 +30665,33 @@
       </c>
     </row>
     <row r="743" spans="2:2">
-      <c r="B743" s="5" t="s">
-        <v>1770</v>
+      <c r="B743" s="20" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="744" spans="2:2">
-      <c r="B744" s="5" t="s">
-        <v>1771</v>
+      <c r="B744" s="3" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="745" spans="2:2">
       <c r="B745" s="5" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="746" spans="2:2">
       <c r="B746" s="5" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2">
+      <c r="B747" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2">
+      <c r="B748" s="5" t="s">
         <v>1773</v>
-      </c>
-    </row>
-    <row r="747" spans="2:2">
-      <c r="B747" s="20" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="748" spans="2:2">
-      <c r="B748" s="3" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="749" spans="2:2">
@@ -30710,36 +30706,36 @@
     </row>
     <row r="751" spans="2:2">
       <c r="B751" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2">
+      <c r="B752" s="20" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" s="3" t="s">
         <v>1776</v>
-      </c>
-    </row>
-    <row r="752" spans="2:2">
-      <c r="B752" s="5" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="753" spans="2:2">
-      <c r="B753" s="5" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="754" spans="2:2">
       <c r="B754" s="5" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="755" spans="2:2">
       <c r="B755" s="5" t="s">
-        <v>1628</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="756" spans="2:2">
-      <c r="B756" s="20" t="s">
-        <v>1113</v>
+      <c r="B756" s="5" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="757" spans="2:2">
-      <c r="B757" s="3" t="s">
+      <c r="B757" s="5" t="s">
         <v>1780</v>
       </c>
     </row>
@@ -30754,33 +30750,33 @@
       </c>
     </row>
     <row r="760" spans="2:2">
-      <c r="B760" s="5" t="s">
-        <v>1783</v>
+      <c r="B760" s="20" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="761" spans="2:2">
       <c r="B761" s="5" t="s">
-        <v>1784</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="762" spans="2:2">
       <c r="B762" s="5" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="763" spans="2:2">
       <c r="B763" s="5" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="764" spans="2:2">
-      <c r="B764" s="20" t="s">
-        <v>1114</v>
+      <c r="B764" s="5" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="765" spans="2:2">
       <c r="B765" s="5" t="s">
-        <v>1745</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="766" spans="2:2">
@@ -30795,37 +30791,37 @@
     </row>
     <row r="768" spans="2:2">
       <c r="B768" s="5" t="s">
-        <v>1789</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="769" spans="2:2">
-      <c r="B769" s="5" t="s">
-        <v>1790</v>
+      <c r="B769" s="20" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="770" spans="2:2">
       <c r="B770" s="5" t="s">
-        <v>1791</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="771" spans="2:2">
       <c r="B771" s="5" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="772" spans="2:2">
       <c r="B772" s="5" t="s">
-        <v>1628</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="773" spans="2:2">
-      <c r="B773" s="20" t="s">
-        <v>1115</v>
+      <c r="B773" s="5" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="774" spans="2:2">
       <c r="B774" s="5" t="s">
-        <v>1745</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="775" spans="2:2">
@@ -30835,37 +30831,37 @@
     </row>
     <row r="776" spans="2:2">
       <c r="B776" s="5" t="s">
-        <v>1794</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="777" spans="2:2">
-      <c r="B777" s="5" t="s">
-        <v>1795</v>
+      <c r="B777" s="20" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="778" spans="2:2">
       <c r="B778" s="5" t="s">
-        <v>1796</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="779" spans="2:2">
       <c r="B779" s="5" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="780" spans="2:2">
       <c r="B780" s="5" t="s">
-        <v>1628</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="781" spans="2:2">
-      <c r="B781" s="20" t="s">
-        <v>1116</v>
+      <c r="B781" s="5" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="782" spans="2:2">
       <c r="B782" s="5" t="s">
-        <v>1745</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="783" spans="2:2">
@@ -30879,22 +30875,22 @@
       </c>
     </row>
     <row r="785" spans="2:2">
-      <c r="B785" s="5" t="s">
+      <c r="B785" s="14" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="786" spans="2:2">
-      <c r="B786" s="5" t="s">
+      <c r="B786" s="14" t="s">
         <v>1801</v>
       </c>
     </row>
     <row r="787" spans="2:2">
-      <c r="B787" s="5" t="s">
+      <c r="B787" s="14" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="788" spans="2:2">
-      <c r="B788" s="5" t="s">
+      <c r="B788" s="14" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -30903,108 +30899,108 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="790" spans="2:2">
-      <c r="B790" s="14" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="791" spans="2:2">
-      <c r="B791" s="14" t="s">
-        <v>1806</v>
+    <row r="790" ht="15.75" spans="1:2">
+      <c r="A790" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B790" s="11"/>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B791" s="26" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="792" spans="2:2">
-      <c r="B792" s="14" t="s">
-        <v>1807</v>
+      <c r="B792" s="27" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="793" spans="2:2">
-      <c r="B793" s="14" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="794" ht="15.75" spans="1:2">
-      <c r="A794" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B794" s="11"/>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B795" s="26" t="s">
-        <v>421</v>
+      <c r="B793" s="27" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2">
+      <c r="B794" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2">
+      <c r="B795" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="796" spans="2:2">
       <c r="B796" s="27" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="797" spans="2:2">
-      <c r="B797" s="27" t="s">
-        <v>423</v>
+      <c r="B797" s="26" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="798" spans="2:2">
       <c r="B798" s="27" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="799" spans="2:2">
       <c r="B799" s="27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="800" spans="2:2">
       <c r="B800" s="27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="801" spans="2:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="801" ht="30" spans="2:2">
       <c r="B801" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="802" spans="2:2">
       <c r="B802" s="27" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="803" spans="2:2">
       <c r="B803" s="27" t="s">
-        <v>430</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="804" spans="2:2">
       <c r="B804" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="805" ht="30" spans="2:2">
-      <c r="B805" s="26" t="s">
-        <v>432</v>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2">
+      <c r="B805" s="27" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="806" spans="2:2">
       <c r="B806" s="27" t="s">
-        <v>433</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="807" spans="2:2">
       <c r="B807" s="27" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="808" spans="2:2">
       <c r="B808" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="809" spans="2:2">
       <c r="B809" s="27" t="s">
-        <v>436</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="810" spans="2:2">
@@ -31014,77 +31010,77 @@
     </row>
     <row r="811" spans="2:2">
       <c r="B811" s="27" t="s">
-        <v>1812</v>
+        <v>442</v>
       </c>
     </row>
     <row r="812" spans="2:2">
-      <c r="B812" s="27" t="s">
-        <v>1813</v>
+      <c r="B812" s="26" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="813" spans="2:2">
       <c r="B813" s="27" t="s">
-        <v>1814</v>
+        <v>444</v>
       </c>
     </row>
     <row r="814" spans="2:2">
       <c r="B814" s="27" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="815" spans="2:2">
       <c r="B815" s="27" t="s">
-        <v>442</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="816" spans="2:2">
-      <c r="B816" s="26" t="s">
-        <v>443</v>
+      <c r="B816" s="27" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="817" spans="2:2">
-      <c r="B817" s="27" t="s">
-        <v>444</v>
+      <c r="B817" s="26" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="818" spans="2:2">
       <c r="B818" s="27" t="s">
-        <v>1816</v>
+        <v>449</v>
       </c>
     </row>
     <row r="819" spans="2:2">
       <c r="B819" s="27" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="820" spans="2:2">
       <c r="B820" s="27" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="821" spans="2:2">
-      <c r="B821" s="26" t="s">
-        <v>448</v>
+      <c r="B821" s="27" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="822" spans="2:2">
       <c r="B822" s="27" t="s">
-        <v>449</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="823" spans="2:2">
       <c r="B823" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="824" spans="2:2">
       <c r="B824" s="27" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="825" spans="2:2">
       <c r="B825" s="27" t="s">
-        <v>452</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="826" spans="2:2">
@@ -31094,362 +31090,362 @@
     </row>
     <row r="827" spans="2:2">
       <c r="B827" s="27" t="s">
-        <v>1822</v>
+        <v>458</v>
       </c>
     </row>
     <row r="828" spans="2:2">
       <c r="B828" s="27" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="829" spans="2:2">
       <c r="B829" s="27" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="830" spans="2:2">
       <c r="B830" s="27" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="831" spans="2:2">
-      <c r="B831" s="27" t="s">
-        <v>458</v>
+      <c r="B831" s="26" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="832" spans="2:2">
       <c r="B832" s="27" t="s">
-        <v>1826</v>
+        <v>463</v>
       </c>
     </row>
     <row r="833" spans="2:2">
       <c r="B833" s="27" t="s">
-        <v>1827</v>
+        <v>464</v>
       </c>
     </row>
     <row r="834" spans="2:2">
       <c r="B834" s="27" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="835" spans="2:2">
-      <c r="B835" s="26" t="s">
-        <v>462</v>
+      <c r="B835" s="27" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="836" spans="2:2">
       <c r="B836" s="27" t="s">
-        <v>463</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="837" spans="2:2">
       <c r="B837" s="27" t="s">
-        <v>464</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="838" spans="2:2">
       <c r="B838" s="27" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="839" spans="2:2">
       <c r="B839" s="27" t="s">
-        <v>466</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="840" spans="2:2">
-      <c r="B840" s="27" t="s">
-        <v>1830</v>
+      <c r="B840" s="26" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="841" spans="2:2">
-      <c r="B841" s="27" t="s">
-        <v>1831</v>
+      <c r="B841" s="26" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="842" spans="2:2">
       <c r="B842" s="27" t="s">
-        <v>1832</v>
+        <v>473</v>
       </c>
     </row>
     <row r="843" spans="2:2">
       <c r="B843" s="27" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="844" spans="2:2">
-      <c r="B844" s="26" t="s">
-        <v>471</v>
+      <c r="B844" s="27" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="845" spans="2:2">
-      <c r="B845" s="26" t="s">
-        <v>472</v>
+      <c r="B845" s="27" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="846" spans="2:2">
       <c r="B846" s="27" t="s">
-        <v>473</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="847" spans="2:2">
-      <c r="B847" s="27" t="s">
-        <v>1834</v>
+      <c r="B847" s="26" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="848" spans="2:2">
       <c r="B848" s="27" t="s">
-        <v>1835</v>
+        <v>483</v>
       </c>
     </row>
     <row r="849" spans="2:2">
       <c r="B849" s="27" t="s">
-        <v>1836</v>
+        <v>484</v>
       </c>
     </row>
     <row r="850" spans="2:2">
       <c r="B850" s="27" t="s">
-        <v>1837</v>
+        <v>485</v>
       </c>
     </row>
     <row r="851" spans="2:2">
-      <c r="B851" s="26" t="s">
-        <v>482</v>
+      <c r="B851" s="27" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="852" spans="2:2">
       <c r="B852" s="27" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="853" spans="2:2">
       <c r="B853" s="27" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="854" spans="2:2">
       <c r="B854" s="27" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="855" spans="2:2">
-      <c r="B855" s="27" t="s">
-        <v>486</v>
+      <c r="B855" s="26" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="856" spans="2:2">
       <c r="B856" s="27" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="857" spans="2:2">
       <c r="B857" s="27" t="s">
-        <v>488</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="858" spans="2:2">
       <c r="B858" s="27" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="859" spans="2:2">
       <c r="B859" s="26" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="860" spans="2:2">
       <c r="B860" s="27" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="861" spans="2:2">
       <c r="B861" s="27" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="862" spans="2:2">
       <c r="B862" s="27" t="s">
-        <v>493</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="863" spans="2:2">
-      <c r="B863" s="26" t="s">
-        <v>494</v>
+      <c r="B863" s="27" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="864" spans="2:2">
       <c r="B864" s="27" t="s">
-        <v>495</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="865" spans="2:2">
-      <c r="B865" s="27" t="s">
-        <v>1839</v>
+      <c r="B865" s="26" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="866" spans="2:2">
       <c r="B866" s="27" t="s">
-        <v>1840</v>
+        <v>501</v>
       </c>
     </row>
     <row r="867" spans="2:2">
       <c r="B867" s="27" t="s">
-        <v>1841</v>
+        <v>502</v>
       </c>
     </row>
     <row r="868" spans="2:2">
       <c r="B868" s="27" t="s">
-        <v>1842</v>
+        <v>503</v>
       </c>
     </row>
     <row r="869" spans="2:2">
       <c r="B869" s="26" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="870" spans="2:2">
       <c r="B870" s="27" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="871" spans="2:2">
       <c r="B871" s="27" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="872" spans="2:2">
       <c r="B872" s="27" t="s">
-        <v>503</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="873" spans="2:2">
-      <c r="B873" s="26" t="s">
-        <v>504</v>
+      <c r="B873" s="27" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="874" spans="2:2">
       <c r="B874" s="27" t="s">
-        <v>505</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="875" spans="2:2">
       <c r="B875" s="27" t="s">
-        <v>506</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="876" spans="2:2">
       <c r="B876" s="27" t="s">
-        <v>1843</v>
+        <v>511</v>
       </c>
     </row>
     <row r="877" spans="2:2">
       <c r="B877" s="27" t="s">
-        <v>1844</v>
+        <v>512</v>
       </c>
     </row>
     <row r="878" spans="2:2">
       <c r="B878" s="27" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="879" spans="2:2">
       <c r="B879" s="27" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="880" spans="2:2">
       <c r="B880" s="27" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="881" spans="2:2">
       <c r="B881" s="27" t="s">
-        <v>512</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="882" spans="2:2">
       <c r="B882" s="27" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="883" spans="2:2">
-      <c r="B883" s="27" t="s">
-        <v>1848</v>
+      <c r="B883" s="28" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="884" spans="2:2">
       <c r="B884" s="27" t="s">
-        <v>516</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="885" spans="2:2">
       <c r="B885" s="27" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="886" spans="2:2">
       <c r="B886" s="27" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2">
+      <c r="B887" s="27" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="887" spans="2:2">
-      <c r="B887" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
     <row r="888" spans="2:2">
-      <c r="B888" s="27" t="s">
-        <v>1851</v>
+      <c r="B888" s="26" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="889" spans="2:2">
       <c r="B889" s="27" t="s">
-        <v>1852</v>
+        <v>525</v>
       </c>
     </row>
     <row r="890" spans="2:2">
       <c r="B890" s="27" t="s">
-        <v>1853</v>
+        <v>531</v>
       </c>
     </row>
     <row r="891" spans="2:2">
       <c r="B891" s="27" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="892" spans="2:2">
-      <c r="B892" s="26" t="s">
-        <v>524</v>
+      <c r="B892" s="27" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="893" spans="2:2">
       <c r="B893" s="27" t="s">
-        <v>525</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="894" spans="2:2">
       <c r="B894" s="27" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="895" spans="2:2">
       <c r="B895" s="27" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="896" spans="2:2">
       <c r="B896" s="27" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="897" spans="2:2">
       <c r="B897" s="27" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="898" spans="2:2">
       <c r="B898" s="27" t="s">
-        <v>535</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="899" spans="2:2">
@@ -31459,205 +31455,205 @@
     </row>
     <row r="900" spans="2:2">
       <c r="B900" s="27" t="s">
-        <v>1859</v>
+        <v>545</v>
       </c>
     </row>
     <row r="901" spans="2:2">
       <c r="B901" s="27" t="s">
-        <v>1860</v>
+        <v>548</v>
       </c>
     </row>
     <row r="902" spans="2:2">
       <c r="B902" s="27" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="903" spans="2:2">
       <c r="B903" s="27" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="904" spans="2:2">
       <c r="B904" s="27" t="s">
-        <v>545</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="905" spans="2:2">
-      <c r="B905" s="27" t="s">
-        <v>548</v>
+      <c r="B905" s="26" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="906" spans="2:2">
       <c r="B906" s="27" t="s">
-        <v>1863</v>
+        <v>555</v>
       </c>
     </row>
     <row r="907" spans="2:2">
       <c r="B907" s="27" t="s">
-        <v>1864</v>
+        <v>560</v>
       </c>
     </row>
     <row r="908" spans="2:2">
       <c r="B908" s="27" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="909" spans="2:2">
-      <c r="B909" s="26" t="s">
-        <v>554</v>
+      <c r="B909" s="27" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="910" spans="2:2">
       <c r="B910" s="27" t="s">
-        <v>555</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="911" spans="2:2">
       <c r="B911" s="27" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="912" spans="2:2">
       <c r="B912" s="27" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="913" spans="2:2">
       <c r="B913" s="27" t="s">
-        <v>1867</v>
+        <v>568</v>
       </c>
     </row>
     <row r="914" spans="2:2">
       <c r="B914" s="27" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="915" spans="2:2">
       <c r="B915" s="27" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="916" spans="2:2">
-      <c r="B916" s="27" t="s">
-        <v>1869</v>
+      <c r="B916" s="26" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="917" spans="2:2">
       <c r="B917" s="27" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="918" spans="2:2">
-      <c r="B918" s="27" t="s">
-        <v>1870</v>
+      <c r="B918" s="26" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="919" spans="2:2">
       <c r="B919" s="27" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="920" spans="2:2">
-      <c r="B920" s="26" t="s">
-        <v>494</v>
+      <c r="B920" s="27" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="921" spans="2:2">
       <c r="B921" s="27" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="922" spans="2:2">
       <c r="B922" s="26" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="923" spans="2:2">
       <c r="B923" s="27" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="924" spans="2:2">
-      <c r="B924" s="27" t="s">
-        <v>583</v>
+      <c r="B924" s="26" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="925" spans="2:2">
       <c r="B925" s="27" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="926" spans="2:2">
-      <c r="B926" s="26" t="s">
-        <v>585</v>
+      <c r="B926" s="27" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="927" spans="2:2">
-      <c r="B927" s="27" t="s">
-        <v>586</v>
+      <c r="B927" s="26" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="928" spans="2:2">
-      <c r="B928" s="26" t="s">
-        <v>587</v>
+      <c r="B928" s="27" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="929" spans="2:2">
       <c r="B929" s="27" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="930" spans="2:2">
-      <c r="B930" s="27" t="s">
-        <v>592</v>
+      <c r="B930" s="26" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="931" spans="2:2">
       <c r="B931" s="26" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="932" spans="2:2">
       <c r="B932" s="27" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="933" spans="2:2">
-      <c r="B933" s="27" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="934" spans="2:2">
-      <c r="B934" s="26" t="s">
-        <v>600</v>
+      <c r="B933" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B934" s="29" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="935" spans="2:2">
-      <c r="B935" s="26" t="s">
-        <v>604</v>
+      <c r="B935" s="29" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="936" spans="2:2">
-      <c r="B936" s="27" t="s">
-        <v>605</v>
+      <c r="B936" s="3" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="937" spans="2:2">
-      <c r="B937" s="26" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B938" s="29" t="s">
-        <v>1118</v>
+      <c r="B937" s="3" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="938" spans="2:2">
+      <c r="B938" s="3" t="s">
+        <v>1869</v>
       </c>
     </row>
     <row r="939" spans="2:2">
-      <c r="B939" s="29" t="s">
-        <v>1119</v>
+      <c r="B939" s="3" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="940" spans="2:2">
@@ -31691,28 +31687,28 @@
       </c>
     </row>
     <row r="946" spans="2:2">
-      <c r="B946" s="3" t="s">
-        <v>1877</v>
+      <c r="B946" s="29" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="947" spans="2:2">
       <c r="B947" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="948" spans="2:2">
       <c r="B948" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="949" spans="2:2">
       <c r="B949" s="3" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2">
+      <c r="B950" s="3" t="s">
         <v>1880</v>
-      </c>
-    </row>
-    <row r="950" spans="2:2">
-      <c r="B950" s="29" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="951" spans="2:2">
@@ -31761,28 +31757,28 @@
       </c>
     </row>
     <row r="960" spans="2:2">
-      <c r="B960" s="3" t="s">
-        <v>1890</v>
+      <c r="B960" s="12" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="961" spans="2:2">
       <c r="B961" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="962" spans="2:2">
       <c r="B962" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="963" spans="2:2">
       <c r="B963" s="3" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2">
+      <c r="B964" s="3" t="s">
         <v>1893</v>
-      </c>
-    </row>
-    <row r="964" spans="2:2">
-      <c r="B964" s="12" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="965" spans="2:2">
@@ -31801,28 +31797,28 @@
       </c>
     </row>
     <row r="968" spans="2:2">
-      <c r="B968" s="3" t="s">
-        <v>1897</v>
+      <c r="B968" s="12" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="969" spans="2:2">
       <c r="B969" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="970" spans="2:2">
       <c r="B970" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="971" spans="2:2">
       <c r="B971" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2">
+      <c r="B972" s="3" t="s">
         <v>1900</v>
-      </c>
-    </row>
-    <row r="972" spans="2:2">
-      <c r="B972" s="12" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="973" spans="2:2">
@@ -31851,33 +31847,33 @@
       </c>
     </row>
     <row r="978" spans="2:2">
-      <c r="B978" s="3" t="s">
-        <v>1906</v>
+      <c r="B978" s="12" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="979" spans="2:2">
       <c r="B979" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="980" spans="2:2">
       <c r="B980" s="3" t="s">
-        <v>1908</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="981" spans="2:2">
       <c r="B981" s="3" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="982" spans="2:2">
-      <c r="B982" s="12" t="s">
-        <v>1123</v>
+      <c r="B982" s="3" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="983" spans="2:2">
       <c r="B983" s="3" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="984" spans="2:2">
@@ -31887,71 +31883,71 @@
     </row>
     <row r="985" spans="2:2">
       <c r="B985" s="3" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="986" spans="2:2">
       <c r="B986" s="3" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="987" spans="2:2">
       <c r="B987" s="3" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="988" spans="2:2">
       <c r="B988" s="3" t="s">
-        <v>1899</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="989" spans="2:2">
-      <c r="B989" s="3" t="s">
-        <v>1900</v>
+      <c r="B989" s="12" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="990" spans="2:2">
       <c r="B990" s="3" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="991" spans="2:2">
       <c r="B991" s="3" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="992" spans="2:2">
       <c r="B992" s="3" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="993" spans="2:2">
-      <c r="B993" s="12" t="s">
-        <v>1124</v>
+      <c r="B993" s="3" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="994" spans="2:2">
       <c r="B994" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="995" spans="2:2">
       <c r="B995" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="996" spans="2:2">
       <c r="B996" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="997" spans="2:2">
       <c r="B997" s="3" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="998" spans="2:2">
-      <c r="B998" s="3" t="s">
+      <c r="B998" s="5" t="s">
         <v>1919</v>
       </c>
     </row>
@@ -31961,159 +31957,159 @@
       </c>
     </row>
     <row r="1000" spans="2:2">
-      <c r="B1000" s="3" t="s">
+      <c r="B1000" s="20" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2">
+      <c r="B1001" s="20" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2">
+      <c r="B1002" s="3" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="1001" spans="2:2">
-      <c r="B1001" s="3" t="s">
+    <row r="1003" spans="2:2">
+      <c r="B1003" s="20" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2">
+      <c r="B1004" s="3" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="1002" spans="2:2">
-      <c r="B1002" s="5" t="s">
+    <row r="1005" spans="2:2">
+      <c r="B1005" s="3" t="s">
         <v>1923</v>
-      </c>
-    </row>
-    <row r="1003" spans="2:2">
-      <c r="B1003" s="3" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1004" spans="2:2">
-      <c r="B1004" s="20" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1005" spans="2:2">
-      <c r="B1005" s="20" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="1006" spans="2:2">
       <c r="B1006" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1007" spans="2:2">
       <c r="B1007" s="20" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1008" spans="2:2">
       <c r="B1008" s="3" t="s">
-        <v>1926</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1009" spans="2:2">
       <c r="B1009" s="3" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1010" spans="2:2">
       <c r="B1010" s="3" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1011" spans="2:2">
-      <c r="B1011" s="20" t="s">
-        <v>1128</v>
+      <c r="B1011" s="12" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="1012" spans="2:2">
       <c r="B1012" s="3" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1013" spans="2:2">
       <c r="B1013" s="3" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1014" spans="2:2">
       <c r="B1014" s="3" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1015" spans="2:2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="13" t="s">
+        <v>995</v>
+      </c>
       <c r="B1015" s="12" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1016" spans="2:2">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="13"/>
       <c r="B1016" s="3" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1017" spans="2:2">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="13"/>
       <c r="B1017" s="3" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="1018" spans="2:2">
-      <c r="B1018" s="3" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:2">
-      <c r="A1019" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1019" s="12" t="s">
-        <v>1130</v>
-      </c>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="13"/>
+      <c r="B1018" s="30" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1019" ht="2" customHeight="1" spans="1:2">
+      <c r="A1019" s="13"/>
+      <c r="B1019" s="30"/>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="13"/>
-      <c r="B1020" s="3" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2">
+      <c r="B1020" s="30" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1021" ht="15.75" spans="1:2">
       <c r="A1021" s="13"/>
-      <c r="B1021" s="3" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:2">
+      <c r="B1021" s="12" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1022" ht="30" customHeight="1" spans="1:2">
       <c r="A1022" s="13"/>
-      <c r="B1022" s="30" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1023" ht="2" customHeight="1" spans="1:2">
-      <c r="A1023" s="13"/>
-      <c r="B1023" s="30"/>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="A1024" s="13"/>
-      <c r="B1024" s="30" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1025" ht="15.75" spans="1:2">
-      <c r="A1025" s="13"/>
-      <c r="B1025" s="12" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1026" ht="30" customHeight="1" spans="1:2">
-      <c r="A1026" s="13"/>
-      <c r="B1026" s="31" t="s">
+      <c r="B1022" s="31" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1027" spans="1:2">
-      <c r="A1027" s="1" t="s">
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B1027" s="12" t="s">
+      <c r="B1023" s="12" t="s">
         <v>1136</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2">
+      <c r="B1024" s="3" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2">
+      <c r="B1025" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2">
+      <c r="B1026" s="3" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2">
+      <c r="B1027" s="3" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="1028" spans="2:2">
       <c r="B1028" s="3" t="s">
-        <v>1871</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1029" spans="2:2">
@@ -32122,33 +32118,33 @@
       </c>
     </row>
     <row r="1030" spans="2:2">
-      <c r="B1030" s="3" t="s">
-        <v>1934</v>
+      <c r="B1030" s="12" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="1031" spans="2:2">
       <c r="B1031" s="3" t="s">
-        <v>1935</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1032" spans="2:2">
       <c r="B1032" s="3" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1033" spans="2:2">
       <c r="B1033" s="3" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1034" spans="2:2">
-      <c r="B1034" s="12" t="s">
-        <v>1137</v>
+      <c r="B1034" s="3" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="1035" spans="2:2">
       <c r="B1035" s="3" t="s">
-        <v>1871</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1036" spans="2:2">
@@ -32158,67 +32154,67 @@
     </row>
     <row r="1037" spans="2:2">
       <c r="B1037" s="3" t="s">
-        <v>1939</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1038" spans="2:2">
-      <c r="B1038" s="3" t="s">
-        <v>1940</v>
+      <c r="B1038" s="12" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="1039" spans="2:2">
       <c r="B1039" s="3" t="s">
-        <v>1941</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1040" spans="2:2">
       <c r="B1040" s="3" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1041" spans="2:2">
       <c r="B1041" s="3" t="s">
-        <v>1786</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1042" spans="2:2">
-      <c r="B1042" s="12" t="s">
-        <v>1138</v>
+      <c r="B1042" s="3" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="1043" spans="2:2">
       <c r="B1043" s="3" t="s">
-        <v>1871</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1044" spans="2:2">
-      <c r="B1044" s="3" t="s">
-        <v>1943</v>
+      <c r="B1044" s="12" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="1045" spans="2:2">
       <c r="B1045" s="3" t="s">
-        <v>1944</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1046" spans="2:2">
       <c r="B1046" s="3" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1047" spans="2:2">
       <c r="B1047" s="3" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1048" spans="2:2">
-      <c r="B1048" s="12" t="s">
-        <v>1139</v>
+      <c r="B1048" s="3" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="1049" spans="2:2">
       <c r="B1049" s="3" t="s">
-        <v>1871</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1050" spans="2:2">
@@ -32243,137 +32239,137 @@
     </row>
     <row r="1054" spans="2:2">
       <c r="B1054" s="3" t="s">
-        <v>1951</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1055" spans="2:2">
-      <c r="B1055" s="3" t="s">
-        <v>1952</v>
+      <c r="B1055" s="29" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1056" spans="2:2">
       <c r="B1056" s="3" t="s">
-        <v>1953</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1057" spans="2:2">
       <c r="B1057" s="3" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1058" spans="2:2">
       <c r="B1058" s="3" t="s">
-        <v>1880</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1059" spans="2:2">
-      <c r="B1059" s="29" t="s">
-        <v>1140</v>
+      <c r="B1059" s="3" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="1060" spans="2:2">
       <c r="B1060" s="3" t="s">
-        <v>1871</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1061" spans="2:2">
       <c r="B1061" s="3" t="s">
-        <v>1955</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1062" spans="2:2">
-      <c r="B1062" s="3" t="s">
-        <v>1956</v>
+      <c r="B1062" s="29" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1063" spans="2:2">
-      <c r="B1063" s="3" t="s">
-        <v>1957</v>
+      <c r="B1063" s="2" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="1064" spans="2:2">
       <c r="B1064" s="3" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1065" spans="2:2">
       <c r="B1065" s="3" t="s">
-        <v>1937</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1066" spans="2:2">
-      <c r="B1066" s="29" t="s">
-        <v>1141</v>
+      <c r="B1066" s="3" t="s">
+        <v>1957</v>
       </c>
     </row>
     <row r="1067" spans="2:2">
-      <c r="B1067" s="2" t="s">
-        <v>1871</v>
+      <c r="B1067" s="3" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="1068" spans="2:2">
-      <c r="B1068" s="3" t="s">
-        <v>1959</v>
+      <c r="B1068" s="29" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="1069" spans="2:2">
-      <c r="B1069" s="3" t="s">
-        <v>1960</v>
+      <c r="B1069" s="2" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="1070" spans="2:2">
       <c r="B1070" s="3" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1071" spans="2:2">
       <c r="B1071" s="3" t="s">
-        <v>1946</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1072" spans="2:2">
-      <c r="B1072" s="29" t="s">
-        <v>1142</v>
+      <c r="B1072" s="3" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="1073" spans="2:2">
-      <c r="B1073" s="2" t="s">
-        <v>1871</v>
+      <c r="B1073" s="3" t="s">
+        <v>1961</v>
       </c>
     </row>
     <row r="1074" spans="2:2">
       <c r="B1074" s="3" t="s">
-        <v>1962</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1075" spans="2:2">
-      <c r="B1075" s="3" t="s">
-        <v>1963</v>
+      <c r="B1075" s="29" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="1076" spans="2:2">
       <c r="B1076" s="3" t="s">
-        <v>1964</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1077" spans="2:2">
       <c r="B1077" s="3" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1078" spans="2:2">
       <c r="B1078" s="3" t="s">
-        <v>1937</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1079" spans="2:2">
-      <c r="B1079" s="29" t="s">
-        <v>1143</v>
+      <c r="B1079" s="3" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="1080" spans="2:2">
       <c r="B1080" s="3" t="s">
-        <v>1871</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1081" spans="2:2">
@@ -32383,65 +32379,65 @@
     </row>
     <row r="1082" spans="2:2">
       <c r="B1082" s="3" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1083" s="12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="13"/>
+      <c r="B1084" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="13"/>
+      <c r="B1085" s="14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1086" s="29" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:2">
+      <c r="B1087" s="29" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1088" ht="18.75" spans="2:2">
+      <c r="B1088" s="32" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1089" ht="18.75" spans="2:2">
+      <c r="B1089" s="32" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="1083" spans="2:2">
-      <c r="B1083" s="3" t="s">
+    <row r="1090" ht="18.75" spans="2:2">
+      <c r="B1090" s="32" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="1084" spans="2:2">
-      <c r="B1084" s="3" t="s">
+    <row r="1091" ht="18.75" spans="2:2">
+      <c r="B1091" s="32" t="s">
         <v>1969</v>
-      </c>
-    </row>
-    <row r="1085" spans="2:2">
-      <c r="B1085" s="3" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="1086" spans="2:2">
-      <c r="B1086" s="3" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="A1087" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1087" s="12" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:2">
-      <c r="A1088" s="13"/>
-      <c r="B1088" s="5" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:2">
-      <c r="A1089" s="13"/>
-      <c r="B1089" s="14" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1090" s="29" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1091" spans="2:2">
-      <c r="B1091" s="29" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="1092" ht="18.75" spans="2:2">
       <c r="B1092" s="32" t="s">
-        <v>1871</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1093" ht="18.75" spans="2:2">
@@ -32494,34 +32490,34 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="1103" ht="18.75" spans="2:2">
-      <c r="B1103" s="32" t="s">
-        <v>1981</v>
+    <row r="1103" spans="2:2">
+      <c r="B1103" s="29" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="1104" ht="18.75" spans="2:2">
       <c r="B1104" s="32" t="s">
-        <v>1982</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1105" ht="18.75" spans="2:2">
       <c r="B1105" s="32" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1106" ht="18.75" spans="2:2">
       <c r="B1106" s="32" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="1107" spans="2:2">
-      <c r="B1107" s="29" t="s">
-        <v>1148</v>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1107" ht="18.75" spans="2:2">
+      <c r="B1107" s="32" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="1108" ht="18.75" spans="2:2">
       <c r="B1108" s="32" t="s">
-        <v>1871</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1109" ht="18.75" spans="2:2">
@@ -32536,37 +32532,37 @@
     </row>
     <row r="1111" ht="18.75" spans="2:2">
       <c r="B1111" s="32" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1112" ht="18.75" spans="2:2">
-      <c r="B1112" s="32" t="s">
-        <v>1988</v>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:2">
+      <c r="B1112" s="29" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="1113" ht="18.75" spans="2:2">
       <c r="B1113" s="32" t="s">
-        <v>1989</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1114" ht="18.75" spans="2:2">
       <c r="B1114" s="32" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1115" ht="18.75" spans="2:2">
       <c r="B1115" s="32" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1116" spans="2:2">
-      <c r="B1116" s="29" t="s">
-        <v>1149</v>
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1116" ht="18.75" spans="2:2">
+      <c r="B1116" s="32" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="1117" ht="18.75" spans="2:2">
       <c r="B1117" s="32" t="s">
-        <v>1871</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1118" ht="18.75" spans="2:2">
@@ -32670,33 +32666,33 @@
       </c>
     </row>
     <row r="1138" ht="18.75" spans="2:2">
-      <c r="B1138" s="32" t="s">
-        <v>2011</v>
+      <c r="B1138" s="33" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="1139" ht="18.75" spans="2:2">
       <c r="B1139" s="32" t="s">
-        <v>2012</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1140" ht="18.75" spans="2:2">
       <c r="B1140" s="32" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1141" ht="18.75" spans="2:2">
       <c r="B1141" s="32" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1142" ht="18.75" spans="2:2">
-      <c r="B1142" s="33" t="s">
-        <v>1150</v>
+      <c r="B1142" s="32" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="1143" ht="18.75" spans="2:2">
       <c r="B1143" s="32" t="s">
-        <v>1871</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1144" ht="18.75" spans="2:2">
@@ -32746,76 +32742,80 @@
     </row>
     <row r="1153" ht="18.75" spans="2:2">
       <c r="B1153" s="32" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="1154" ht="18.75" spans="2:2">
-      <c r="B1154" s="32" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="1155" ht="18.75" spans="2:2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1154" ht="18.75" spans="1:2">
+      <c r="A1154" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1154" s="33" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1155" ht="18.75" spans="1:2">
+      <c r="A1155" s="13"/>
       <c r="B1155" s="32" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1156" ht="18.75" spans="2:2">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1156" ht="18.75" spans="1:2">
+      <c r="A1156" s="13"/>
       <c r="B1156" s="32" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="1157" ht="18.75" spans="2:2">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1157" ht="18.75" spans="1:2">
+      <c r="A1157" s="13"/>
       <c r="B1157" s="32" t="s">
-        <v>1984</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1158" ht="18.75" spans="1:2">
-      <c r="A1158" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1158" s="33" t="s">
-        <v>1151</v>
+      <c r="A1158" s="13"/>
+      <c r="B1158" s="32" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1159" ht="18.75" spans="1:2">
       <c r="A1159" s="13"/>
-      <c r="B1159" s="32" t="s">
-        <v>1152</v>
+      <c r="B1159" s="33" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="1160" ht="18.75" spans="1:2">
       <c r="A1160" s="13"/>
-      <c r="B1160" s="32" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="1161" ht="18.75" spans="1:2">
+      <c r="B1160" s="33" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1161" ht="15.75" spans="1:2">
       <c r="A1161" s="13"/>
-      <c r="B1161" s="32" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="1162" ht="18.75" spans="1:2">
+      <c r="B1161" s="3" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1162" ht="15.75" spans="1:2">
       <c r="A1162" s="13"/>
-      <c r="B1162" s="32" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1163" ht="18.75" spans="1:2">
+      <c r="B1162" s="5" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1163" ht="30" spans="1:2">
       <c r="A1163" s="13"/>
-      <c r="B1163" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="1164" ht="18.75" spans="1:2">
+      <c r="B1163" s="5" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1164" ht="15.75" spans="1:2">
       <c r="A1164" s="13"/>
-      <c r="B1164" s="33" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="1165" ht="15.75" spans="1:2">
+      <c r="B1164" s="5" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1165" ht="30" spans="1:2">
       <c r="A1165" s="13"/>
-      <c r="B1165" s="3" t="s">
+      <c r="B1165" s="5" t="s">
         <v>2028</v>
       </c>
     </row>
@@ -32825,7 +32825,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="1167" ht="30" spans="1:2">
+    <row r="1167" ht="15.75" spans="1:2">
       <c r="A1167" s="13"/>
       <c r="B1167" s="5" t="s">
         <v>2030</v>
@@ -32843,69 +32843,69 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="1170" ht="15.75" spans="1:2">
+    <row r="1170" ht="18.75" spans="1:2">
       <c r="A1170" s="13"/>
-      <c r="B1170" s="5" t="s">
-        <v>2033</v>
+      <c r="B1170" s="33" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="1171" ht="15.75" spans="1:2">
       <c r="A1171" s="13"/>
       <c r="B1171" s="5" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="1172" ht="15.75" spans="1:2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1172" ht="30" spans="1:2">
       <c r="A1172" s="13"/>
       <c r="B1172" s="5" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1173" ht="30" spans="1:2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1173" ht="15.75" spans="1:2">
       <c r="A1173" s="13"/>
       <c r="B1173" s="5" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1174" ht="15.75" spans="1:2">
+      <c r="A1174" s="13"/>
+      <c r="B1174" s="5" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="1174" ht="18.75" spans="1:2">
-      <c r="A1174" s="13"/>
-      <c r="B1174" s="33" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1175" ht="15.75" spans="1:2">
+    <row r="1175" ht="30" spans="1:2">
       <c r="A1175" s="13"/>
       <c r="B1175" s="5" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="1176" ht="30" spans="1:2">
+    <row r="1176" ht="15.75" spans="1:2">
       <c r="A1176" s="13"/>
       <c r="B1176" s="5" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="1177" ht="15.75" spans="1:2">
+    <row r="1177" ht="25.5" spans="1:2">
       <c r="A1177" s="13"/>
-      <c r="B1177" s="5" t="s">
+      <c r="B1177" s="16" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="1178" ht="15.75" spans="1:2">
+    <row r="1178" ht="25.5" spans="1:2">
       <c r="A1178" s="13"/>
-      <c r="B1178" s="5" t="s">
+      <c r="B1178" s="16" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="1179" ht="30" spans="1:2">
+    <row r="1179" ht="25.5" spans="1:2">
       <c r="A1179" s="13"/>
-      <c r="B1179" s="5" t="s">
+      <c r="B1179" s="16" t="s">
         <v>2041</v>
       </c>
     </row>
-    <row r="1180" ht="15.75" spans="1:2">
+    <row r="1180" ht="25.5" spans="1:2">
       <c r="A1180" s="13"/>
-      <c r="B1180" s="5" t="s">
+      <c r="B1180" s="16" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -32915,39 +32915,39 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="1182" ht="25.5" spans="1:2">
+    <row r="1182" ht="15.75" spans="1:2">
       <c r="A1182" s="13"/>
       <c r="B1182" s="16" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="1183" ht="25.5" spans="1:2">
+    <row r="1183" ht="15.75" spans="1:2">
       <c r="A1183" s="13"/>
-      <c r="B1183" s="16" t="s">
+      <c r="B1183" s="31" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="1184" ht="25.5" spans="1:2">
+    <row r="1184" ht="15.75" spans="1:2">
       <c r="A1184" s="13"/>
-      <c r="B1184" s="16" t="s">
+      <c r="B1184" s="5" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="1185" ht="25.5" spans="1:2">
+    <row r="1185" ht="15.75" spans="1:2">
       <c r="A1185" s="13"/>
-      <c r="B1185" s="16" t="s">
+      <c r="B1185" s="5" t="s">
         <v>2047</v>
       </c>
     </row>
-    <row r="1186" ht="15.75" spans="1:2">
+    <row r="1186" ht="30" spans="1:2">
       <c r="A1186" s="13"/>
-      <c r="B1186" s="16" t="s">
+      <c r="B1186" s="5" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="1187" ht="15.75" spans="1:2">
+    <row r="1187" ht="30" spans="1:2">
       <c r="A1187" s="13"/>
-      <c r="B1187" s="31" t="s">
+      <c r="B1187" s="5" t="s">
         <v>2049</v>
       </c>
     </row>
@@ -32963,13 +32963,13 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="1190" ht="30" spans="1:2">
+    <row r="1190" ht="15.75" spans="1:2">
       <c r="A1190" s="13"/>
       <c r="B1190" s="5" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="1191" ht="30" spans="1:2">
+    <row r="1191" ht="15.75" spans="1:2">
       <c r="A1191" s="13"/>
       <c r="B1191" s="5" t="s">
         <v>2053</v>
@@ -32981,489 +32981,485 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="1193" ht="15.75" spans="1:2">
+    <row r="1193" ht="30" spans="1:2">
       <c r="A1193" s="13"/>
       <c r="B1193" s="5" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="1194" ht="15.75" spans="1:2">
-      <c r="A1194" s="13"/>
-      <c r="B1194" s="5" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="1195" ht="15.75" spans="1:2">
+    <row r="1194" spans="1:2">
+      <c r="A1194" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1194" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
       <c r="A1195" s="13"/>
       <c r="B1195" s="5" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="1196" ht="15.75" spans="1:2">
-      <c r="A1196" s="13"/>
-      <c r="B1196" s="5" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="1197" ht="30" spans="1:2">
-      <c r="A1197" s="13"/>
-      <c r="B1197" s="5" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:2">
-      <c r="A1198" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1198" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:2">
-      <c r="A1199" s="13"/>
-      <c r="B1199" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1200" spans="1:2">
-      <c r="A1200" s="1" t="s">
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B1200" s="34" t="s">
+      <c r="B1196" s="34" t="s">
         <v>1159</v>
       </c>
     </row>
+    <row r="1197" spans="2:2">
+      <c r="B1197" s="35" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:2">
+      <c r="B1198" s="23" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:2">
+      <c r="B1199" s="23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:2">
+      <c r="B1200" s="23" t="s">
+        <v>811</v>
+      </c>
+    </row>
     <row r="1201" spans="2:2">
-      <c r="B1201" s="35" t="s">
-        <v>808</v>
+      <c r="B1201" s="23" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="1202" spans="2:2">
-      <c r="B1202" s="23" t="s">
-        <v>809</v>
+      <c r="B1202" s="35" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="1203" spans="2:2">
       <c r="B1203" s="23" t="s">
-        <v>810</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1204" spans="2:2">
       <c r="B1204" s="23" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1205" spans="2:2">
       <c r="B1205" s="23" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1206" spans="2:2">
-      <c r="B1206" s="35" t="s">
-        <v>813</v>
+      <c r="B1206" s="23" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="1207" spans="2:2">
       <c r="B1207" s="23" t="s">
-        <v>2060</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1208" spans="2:2">
-      <c r="B1208" s="23" t="s">
-        <v>815</v>
+      <c r="B1208" s="35" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="1209" spans="2:2">
       <c r="B1209" s="23" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1210" spans="2:2">
       <c r="B1210" s="23" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1211" spans="2:2">
       <c r="B1211" s="23" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1212" spans="2:2">
-      <c r="B1212" s="35" t="s">
-        <v>819</v>
+      <c r="B1212" s="23" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="1213" spans="2:2">
       <c r="B1213" s="23" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1214" spans="2:2">
       <c r="B1214" s="23" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="1215" spans="2:2">
-      <c r="B1215" s="23" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="1216" spans="2:2">
-      <c r="B1216" s="23" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="1217" spans="2:2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1215" ht="15.75" spans="1:2">
+      <c r="A1215" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1215" s="11"/>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" s="36" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1216" s="34" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="37"/>
       <c r="B1217" s="23" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="1218" spans="2:2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="37"/>
       <c r="B1218" s="23" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="1219" ht="15.75" spans="1:2">
-      <c r="A1219" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B1219" s="11"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="37"/>
+      <c r="B1219" s="23" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="1220" spans="1:2">
-      <c r="A1220" s="36" t="s">
-        <v>994</v>
-      </c>
-      <c r="B1220" s="34" t="s">
-        <v>826</v>
+      <c r="A1220" s="37"/>
+      <c r="B1220" s="23" t="s">
+        <v>2057</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" s="37"/>
-      <c r="B1221" s="23" t="s">
-        <v>827</v>
+      <c r="B1221" s="35" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="37"/>
       <c r="B1222" s="23" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="37"/>
       <c r="B1223" s="23" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
       <c r="A1224" s="37"/>
       <c r="B1224" s="23" t="s">
-        <v>2061</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
       <c r="A1225" s="37"/>
-      <c r="B1225" s="35" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:2">
-      <c r="A1226" s="37"/>
-      <c r="B1226" s="23" t="s">
-        <v>832</v>
+      <c r="B1225" s="23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:2">
+      <c r="B1226" s="38" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
       <c r="A1227" s="37"/>
-      <c r="B1227" s="23" t="s">
-        <v>833</v>
+      <c r="B1227" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
       <c r="A1228" s="37"/>
-      <c r="B1228" s="23" t="s">
-        <v>834</v>
+      <c r="B1228" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="37"/>
-      <c r="B1229" s="23" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="1230" spans="2:2">
-      <c r="B1230" s="38" t="s">
-        <v>837</v>
+      <c r="B1229" s="27" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="A1230" s="37"/>
+      <c r="B1230" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231" s="37"/>
       <c r="B1231" s="27" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="37"/>
       <c r="B1232" s="27" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="37"/>
       <c r="B1233" s="27" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="37"/>
       <c r="B1234" s="27" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="37"/>
       <c r="B1235" s="27" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="37"/>
       <c r="B1236" s="27" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="37"/>
       <c r="B1237" s="27" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="37"/>
       <c r="B1238" s="27" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="37"/>
       <c r="B1239" s="27" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="37"/>
-      <c r="B1240" s="27" t="s">
-        <v>847</v>
+      <c r="B1240" s="26" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="37"/>
       <c r="B1241" s="27" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
-      <c r="A1242" s="37"/>
-      <c r="B1242" s="27" t="s">
-        <v>849</v>
+      <c r="A1242" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1242" s="34" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="37"/>
-      <c r="B1243" s="27" t="s">
-        <v>850</v>
+      <c r="B1243" s="23" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="37"/>
-      <c r="B1244" s="26" t="s">
-        <v>851</v>
+      <c r="B1244" s="23" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="37"/>
-      <c r="B1245" s="27" t="s">
-        <v>852</v>
+      <c r="B1245" s="23" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
-      <c r="A1246" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1246" s="34" t="s">
-        <v>856</v>
+      <c r="A1246" s="37"/>
+      <c r="B1246" s="23" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="37"/>
       <c r="B1247" s="23" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="37"/>
       <c r="B1248" s="23" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="37"/>
       <c r="B1249" s="23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="37"/>
       <c r="B1250" s="23" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="37"/>
       <c r="B1251" s="23" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="37"/>
       <c r="B1252" s="23" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="37"/>
       <c r="B1253" s="23" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="37"/>
       <c r="B1254" s="23" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="37"/>
       <c r="B1255" s="23" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="37"/>
       <c r="B1256" s="23" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="37"/>
       <c r="B1257" s="23" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="37"/>
       <c r="B1258" s="23" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="37"/>
       <c r="B1259" s="23" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="37"/>
       <c r="B1260" s="23" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="37"/>
       <c r="B1261" s="23" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="37"/>
       <c r="B1262" s="23" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
-      <c r="A1263" s="37"/>
-      <c r="B1263" s="23" t="s">
-        <v>875</v>
+      <c r="A1263" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1263" s="12" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
-      <c r="A1264" s="37"/>
-      <c r="B1264" s="23" t="s">
-        <v>876</v>
+      <c r="A1264" s="13"/>
+      <c r="B1264" s="3" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
-      <c r="A1265" s="37"/>
-      <c r="B1265" s="23" t="s">
-        <v>877</v>
+      <c r="A1265" s="13"/>
+      <c r="B1265" s="14" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
-      <c r="A1266" s="37"/>
-      <c r="B1266" s="23" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:2">
-      <c r="A1267" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1267" s="12" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:2">
-      <c r="A1268" s="13"/>
-      <c r="B1268" s="3" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:2">
-      <c r="A1269" s="13"/>
-      <c r="B1269" s="14" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:2">
-      <c r="A1270" s="1" t="s">
+      <c r="A1266" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B1270" s="17" t="s">
+      <c r="B1266" s="17" t="s">
         <v>1164</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2">
+      <c r="B1267" s="5" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:2">
+      <c r="B1268" s="5" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:2">
+      <c r="B1269" s="20" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:2">
+      <c r="B1270" s="3" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="1271" spans="2:2">
       <c r="B1271" s="5" t="s">
-        <v>1871</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1272" spans="2:2">
       <c r="B1272" s="5" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:2">
+      <c r="B1273" s="5" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2">
+      <c r="B1274" s="5" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="1273" spans="2:2">
-      <c r="B1273" s="20" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="1274" spans="2:2">
-      <c r="B1274" s="3" t="s">
-        <v>1871</v>
-      </c>
-    </row>
     <row r="1275" spans="2:2">
-      <c r="B1275" s="5" t="s">
+      <c r="B1275" s="3" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -33483,7 +33479,7 @@
       </c>
     </row>
     <row r="1279" spans="2:2">
-      <c r="B1279" s="3" t="s">
+      <c r="B1279" s="5" t="s">
         <v>2067</v>
       </c>
     </row>
@@ -33498,28 +33494,28 @@
       </c>
     </row>
     <row r="1282" spans="2:2">
-      <c r="B1282" s="5" t="s">
+      <c r="B1282" s="17" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:2">
+      <c r="B1283" s="3" t="s">
         <v>2070</v>
       </c>
     </row>
-    <row r="1283" spans="2:2">
-      <c r="B1283" s="5" t="s">
+    <row r="1284" spans="2:2">
+      <c r="B1284" s="3" t="s">
         <v>2071</v>
       </c>
     </row>
-    <row r="1284" spans="2:2">
-      <c r="B1284" s="5" t="s">
+    <row r="1285" spans="2:2">
+      <c r="B1285" s="3" t="s">
         <v>2072</v>
       </c>
     </row>
-    <row r="1285" spans="2:2">
-      <c r="B1285" s="5" t="s">
+    <row r="1286" spans="2:2">
+      <c r="B1286" s="3" t="s">
         <v>2073</v>
-      </c>
-    </row>
-    <row r="1286" spans="2:2">
-      <c r="B1286" s="17" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="1287" spans="2:2">
@@ -33559,82 +33555,82 @@
     </row>
     <row r="1294" spans="2:2">
       <c r="B1294" s="3" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1295" spans="2:2">
-      <c r="B1295" s="3" t="s">
-        <v>2082</v>
+      <c r="B1295" s="17" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="1296" spans="2:2">
       <c r="B1296" s="3" t="s">
-        <v>2083</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1297" spans="2:2">
       <c r="B1297" s="3" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1298" spans="2:2">
       <c r="B1298" s="3" t="s">
-        <v>2073</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1299" spans="2:2">
-      <c r="B1299" s="17" t="s">
-        <v>1167</v>
+      <c r="B1299" s="3" t="s">
+        <v>2083</v>
       </c>
     </row>
     <row r="1300" spans="2:2">
       <c r="B1300" s="3" t="s">
-        <v>2074</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1301" spans="2:2">
       <c r="B1301" s="3" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1302" spans="2:2">
       <c r="B1302" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1303" spans="2:2">
       <c r="B1303" s="3" t="s">
-        <v>2087</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1304" spans="2:2">
-      <c r="B1304" s="3" t="s">
-        <v>2088</v>
+      <c r="B1304" s="12" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="1305" spans="2:2">
       <c r="B1305" s="3" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1306" spans="2:2">
       <c r="B1306" s="3" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1307" spans="2:2">
       <c r="B1307" s="3" t="s">
-        <v>1924</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1308" spans="2:2">
-      <c r="B1308" s="12" t="s">
-        <v>1168</v>
+      <c r="B1308" s="3" t="s">
+        <v>2088</v>
       </c>
     </row>
     <row r="1309" spans="2:2">
       <c r="B1309" s="3" t="s">
-        <v>2074</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1310" spans="2:2">
@@ -33654,37 +33650,37 @@
     </row>
     <row r="1313" spans="2:2">
       <c r="B1313" s="3" t="s">
-        <v>2093</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1314" spans="2:2">
-      <c r="B1314" s="3" t="s">
-        <v>2094</v>
+      <c r="B1314" s="39" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="1315" spans="2:2">
       <c r="B1315" s="3" t="s">
-        <v>2095</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1316" spans="2:2">
       <c r="B1316" s="3" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1317" spans="2:2">
       <c r="B1317" s="3" t="s">
-        <v>1909</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1318" spans="2:2">
-      <c r="B1318" s="39" t="s">
-        <v>1169</v>
+      <c r="B1318" s="3" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="1319" spans="2:2">
       <c r="B1319" s="3" t="s">
-        <v>2074</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1320" spans="2:2">
@@ -33752,37 +33748,37 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1333" spans="2:2">
-      <c r="B1333" s="3" t="s">
-        <v>2110</v>
+    <row r="1333" spans="1:2">
+      <c r="A1333" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1333" s="39" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="1334" spans="2:2">
       <c r="B1334" s="3" t="s">
-        <v>2111</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1335" spans="2:2">
       <c r="B1335" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1336" spans="2:2">
       <c r="B1336" s="3" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2">
-      <c r="A1337" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1337" s="39" t="s">
-        <v>1170</v>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:2">
+      <c r="B1337" s="3" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="1338" spans="2:2">
       <c r="B1338" s="3" t="s">
-        <v>2074</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1339" spans="2:2">
@@ -33802,45 +33798,49 @@
     </row>
     <row r="1342" spans="2:2">
       <c r="B1342" s="3" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1343" ht="15.75" spans="1:2">
+      <c r="A1343" s="13"/>
+      <c r="B1343" s="12" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1344" ht="15.75" spans="1:2">
+      <c r="A1344" s="13"/>
+      <c r="B1344" s="12" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1345" ht="15.75" spans="1:2">
+      <c r="A1345" s="13"/>
+      <c r="B1345" s="12" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1346" ht="15.75" spans="1:2">
+      <c r="A1346" s="13"/>
+      <c r="B1346" s="3" t="s">
         <v>2117</v>
-      </c>
-    </row>
-    <row r="1343" spans="2:2">
-      <c r="B1343" s="3" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="1344" spans="2:2">
-      <c r="B1344" s="3" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="1345" spans="2:2">
-      <c r="B1345" s="3" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1346" spans="2:2">
-      <c r="B1346" s="3" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="1347" ht="15.75" spans="1:2">
       <c r="A1347" s="13"/>
-      <c r="B1347" s="12" t="s">
-        <v>1171</v>
+      <c r="B1347" s="3" t="s">
+        <v>2118</v>
       </c>
     </row>
     <row r="1348" ht="15.75" spans="1:2">
       <c r="A1348" s="13"/>
-      <c r="B1348" s="12" t="s">
-        <v>1172</v>
+      <c r="B1348" s="3" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="1349" ht="15.75" spans="1:2">
       <c r="A1349" s="13"/>
-      <c r="B1349" s="12" t="s">
-        <v>1173</v>
+      <c r="B1349" s="5" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="1350" ht="15.75" spans="1:2">
@@ -33863,7 +33863,7 @@
     </row>
     <row r="1353" ht="15.75" spans="1:2">
       <c r="A1353" s="13"/>
-      <c r="B1353" s="5" t="s">
+      <c r="B1353" s="3" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -33875,32 +33875,32 @@
     </row>
     <row r="1355" ht="15.75" spans="1:2">
       <c r="A1355" s="13"/>
-      <c r="B1355" s="3" t="s">
-        <v>2126</v>
+      <c r="B1355" s="12" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="1356" ht="15.75" spans="1:2">
       <c r="A1356" s="13"/>
       <c r="B1356" s="3" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1357" ht="15.75" spans="1:2">
       <c r="A1357" s="13"/>
       <c r="B1357" s="3" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1358" ht="15.75" spans="1:2">
       <c r="A1358" s="13"/>
       <c r="B1358" s="3" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1359" ht="15.75" spans="1:2">
       <c r="A1359" s="13"/>
-      <c r="B1359" s="12" t="s">
-        <v>1174</v>
+      <c r="B1359" s="3" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="1360" ht="15.75" spans="1:2">
@@ -33957,306 +33957,282 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="1369" ht="15.75" spans="1:2">
-      <c r="A1369" s="13"/>
-      <c r="B1369" s="3" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="1370" ht="15.75" spans="1:2">
+    <row r="1369" spans="1:2">
+      <c r="A1369" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1369" s="12" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2">
       <c r="A1370" s="13"/>
       <c r="B1370" s="3" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="1371" ht="15.75" spans="1:2">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2">
       <c r="A1371" s="13"/>
       <c r="B1371" s="3" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="1372" ht="15.75" spans="1:2">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2">
       <c r="A1372" s="13"/>
       <c r="B1372" s="3" t="s">
-        <v>2142</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
-      <c r="A1373" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1373" s="12" t="s">
-        <v>1175</v>
+      <c r="A1373" s="13"/>
+      <c r="B1373" s="3" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="13"/>
       <c r="B1374" s="3" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="13"/>
-      <c r="B1375" s="3" t="s">
-        <v>1177</v>
+      <c r="B1375" s="5" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="13"/>
       <c r="B1376" s="3" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="13"/>
       <c r="B1377" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="13"/>
       <c r="B1378" s="3" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="13"/>
-      <c r="B1379" s="5" t="s">
-        <v>1181</v>
+      <c r="B1379" s="3" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="13"/>
       <c r="B1380" s="3" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="13"/>
       <c r="B1381" s="3" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="13"/>
       <c r="B1382" s="3" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="13"/>
       <c r="B1383" s="3" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="13"/>
       <c r="B1384" s="3" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="13"/>
       <c r="B1385" s="3" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="13"/>
       <c r="B1386" s="3" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="13"/>
       <c r="B1387" s="3" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="13"/>
       <c r="B1388" s="3" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="13"/>
       <c r="B1389" s="3" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="13"/>
       <c r="B1390" s="3" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="13"/>
       <c r="B1391" s="3" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
-      <c r="A1392" s="13"/>
-      <c r="B1392" s="3" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:2">
-      <c r="A1393" s="13"/>
+      <c r="A1392" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1392" s="12" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:2">
       <c r="B1393" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:2">
-      <c r="A1394" s="13"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1394" spans="2:2">
       <c r="B1394" s="3" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:2">
-      <c r="A1395" s="13"/>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:2">
       <c r="B1395" s="3" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:2">
-      <c r="A1396" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1396" s="12" t="s">
-        <v>961</v>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1396" spans="2:2">
+      <c r="B1396" s="3" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="1397" spans="2:2">
       <c r="B1397" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1398" spans="2:2">
-      <c r="B1398" s="3" t="s">
-        <v>963</v>
+      <c r="B1398" s="35" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="1399" spans="2:2">
       <c r="B1399" s="3" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1400" spans="2:2">
       <c r="B1400" s="3" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1401" spans="2:2">
       <c r="B1401" s="3" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1402" spans="2:2">
       <c r="B1402" s="35" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1403" spans="2:2">
       <c r="B1403" s="3" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1404" spans="2:2">
       <c r="B1404" s="3" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1405" spans="2:2">
       <c r="B1405" s="3" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1406" spans="2:2">
       <c r="B1406" s="35" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1407" spans="2:2">
       <c r="B1407" s="3" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1408" spans="2:2">
       <c r="B1408" s="3" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1409" spans="2:2">
-      <c r="B1409" s="3" t="s">
-        <v>980</v>
+      <c r="B1409" s="35" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="1410" spans="2:2">
       <c r="B1410" s="35" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="1411" spans="2:2">
-      <c r="B1411" s="3" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="1412" spans="2:2">
-      <c r="B1412" s="3" t="s">
-        <v>988</v>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1411" ht="60" spans="2:2">
+      <c r="B1411" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1412" ht="30" spans="2:2">
+      <c r="B1412" s="5" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="1413" spans="2:2">
-      <c r="B1413" s="35" t="s">
-        <v>952</v>
+      <c r="B1413" s="5" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="1414" spans="2:2">
-      <c r="B1414" s="35" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1415" ht="60" spans="2:2">
+      <c r="B1414" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1415" ht="30" spans="2:2">
       <c r="B1415" s="5" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="1416" ht="30" spans="2:2">
-      <c r="B1416" s="5" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="1417" spans="2:2">
-      <c r="B1417" s="5" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="1418" spans="2:2">
-      <c r="B1418" s="5" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="1419" ht="30" spans="2:2">
-      <c r="B1419" s="5" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="1420" ht="15.75" spans="1:2">
-      <c r="A1420" s="10"/>
-      <c r="B1420" s="11"/>
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1416" ht="15.75" spans="1:2">
+      <c r="A1416" s="10"/>
+      <c r="B1416" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="A794:B794"/>
-    <mergeCell ref="A1219:B1219"/>
-    <mergeCell ref="A1420:B1420"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="A790:B790"/>
+    <mergeCell ref="A1215:B1215"/>
+    <mergeCell ref="A1416:B1416"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A136:A137"/>
@@ -34267,25 +34243,25 @@
     <mergeCell ref="A317:A318"/>
     <mergeCell ref="A342:A346"/>
     <mergeCell ref="A361:A367"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="A436:A441"/>
-    <mergeCell ref="A530:A531"/>
-    <mergeCell ref="A576:A578"/>
-    <mergeCell ref="A610:A611"/>
-    <mergeCell ref="A627:A628"/>
-    <mergeCell ref="A1019:A1024"/>
-    <mergeCell ref="A1087:A1089"/>
-    <mergeCell ref="A1158:A1162"/>
-    <mergeCell ref="A1198:A1199"/>
-    <mergeCell ref="A1267:A1269"/>
-    <mergeCell ref="A1373:A1395"/>
-    <mergeCell ref="B1022:B1023"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="A432:A437"/>
+    <mergeCell ref="A526:A527"/>
+    <mergeCell ref="A572:A574"/>
+    <mergeCell ref="A606:A607"/>
+    <mergeCell ref="A623:A624"/>
+    <mergeCell ref="A1015:A1020"/>
+    <mergeCell ref="A1083:A1085"/>
+    <mergeCell ref="A1154:A1158"/>
+    <mergeCell ref="A1194:A1195"/>
+    <mergeCell ref="A1263:A1265"/>
+    <mergeCell ref="A1369:A1391"/>
+    <mergeCell ref="B1018:B1019"/>
     <mergeCell ref="G1:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" display="Basic Building Blocks" tooltip="https://app.pluralsight.com/course-player?clipId=abdf4eca-8803-4d0e-bc73-d537babaddff"/>
-    <hyperlink ref="B406" r:id="rId2" display="New Patterns: The Predicate Interface Example"/>
+    <hyperlink ref="B402" r:id="rId2" display="New Patterns: The Predicate Interface Example"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/TOC/Day-wise ToC.xlsx
+++ b/TOC/Day-wise ToC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Full Stack" sheetId="1" r:id="rId1"/>
@@ -8947,10 +8947,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -9153,7 +9153,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9169,21 +9191,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9222,14 +9229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9238,20 +9238,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9266,12 +9252,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Futura Next Book"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9304,7 +9304,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9316,7 +9394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9328,43 +9454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9376,115 +9472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9628,6 +9622,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9645,15 +9648,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -9665,13 +9659,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9686,127 +9680,127 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9921,65 +9915,65 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -10445,7 +10439,7 @@
   <sheetPr/>
   <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A555" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -10493,7 +10487,7 @@
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="3" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
         <v>5</v>
@@ -10508,7 +10502,7 @@
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
     </row>
-    <row r="4" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="4" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A4" s="66"/>
       <c r="B4" s="69" t="s">
         <v>6</v>
@@ -10523,7 +10517,7 @@
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
     </row>
-    <row r="5" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="5" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A5" s="66"/>
       <c r="B5" s="69" t="s">
         <v>7</v>
@@ -10538,7 +10532,7 @@
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
     </row>
-    <row r="6" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="6" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A6" s="66"/>
       <c r="B6" s="69" t="s">
         <v>8</v>
@@ -10553,7 +10547,7 @@
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
     </row>
-    <row r="7" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="7" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A7" s="66"/>
       <c r="B7" s="69" t="s">
         <v>9</v>
@@ -10568,7 +10562,7 @@
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
     </row>
-    <row r="8" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="8" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A8" s="66"/>
       <c r="B8" s="69" t="s">
         <v>10</v>
@@ -10583,7 +10577,7 @@
       <c r="J8" s="68"/>
       <c r="K8" s="68"/>
     </row>
-    <row r="9" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="9" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A9" s="66"/>
       <c r="B9" s="69" t="s">
         <v>11</v>
@@ -10598,7 +10592,7 @@
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
     </row>
-    <row r="10" s="63" customFormat="1" ht="17" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="10" s="63" customFormat="1" ht="17" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A10" s="66"/>
       <c r="B10" s="69" t="s">
         <v>12</v>
@@ -10613,7 +10607,7 @@
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="11" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A11" s="66"/>
       <c r="B11" s="69" t="s">
         <v>13</v>
@@ -10628,7 +10622,7 @@
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
     </row>
-    <row r="12" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="12" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A12" s="66"/>
       <c r="B12" s="67" t="s">
         <v>14</v>
@@ -10643,7 +10637,7 @@
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
     </row>
-    <row r="13" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="13" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A13" s="66"/>
       <c r="B13" s="69" t="s">
         <v>15</v>
@@ -10658,7 +10652,7 @@
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
     </row>
-    <row r="14" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="14" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A14" s="66"/>
       <c r="B14" s="69" t="s">
         <v>16</v>
@@ -10673,7 +10667,7 @@
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
     </row>
-    <row r="15" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="15" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A15" s="66"/>
       <c r="B15" s="69" t="s">
         <v>17</v>
@@ -10688,7 +10682,7 @@
       <c r="J15" s="68"/>
       <c r="K15" s="68"/>
     </row>
-    <row r="16" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="16" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A16" s="66"/>
       <c r="B16" s="69" t="s">
         <v>18</v>
@@ -10703,7 +10697,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="17" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A17" s="66"/>
       <c r="B17" s="69" t="s">
         <v>19</v>
@@ -10718,7 +10712,7 @@
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
     </row>
-    <row r="18" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="18" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A18" s="66"/>
       <c r="B18" s="69" t="s">
         <v>20</v>
@@ -10733,7 +10727,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="19" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A19" s="66"/>
       <c r="B19" s="69" t="s">
         <v>21</v>
@@ -10748,7 +10742,7 @@
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
     </row>
-    <row r="20" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="20" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A20" s="66"/>
       <c r="B20" s="69" t="s">
         <v>22</v>
@@ -10763,7 +10757,7 @@
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
     </row>
-    <row r="21" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="21" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A21" s="66"/>
       <c r="B21" s="69" t="s">
         <v>23</v>
@@ -10778,7 +10772,7 @@
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
     </row>
-    <row r="22" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="22" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A22" s="66"/>
       <c r="B22" s="69" t="s">
         <v>24</v>
@@ -10793,7 +10787,7 @@
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
     </row>
-    <row r="23" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="23" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A23" s="66"/>
       <c r="B23" s="69" t="s">
         <v>25</v>
@@ -10808,7 +10802,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="24" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A24" s="66"/>
       <c r="B24" s="69" t="s">
         <v>26</v>
@@ -10823,7 +10817,7 @@
       <c r="J24" s="68"/>
       <c r="K24" s="68"/>
     </row>
-    <row r="25" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="25" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A25" s="66" t="s">
         <v>27</v>
       </c>
@@ -10840,7 +10834,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="26" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A26" s="66"/>
       <c r="B26" s="69" t="s">
         <v>29</v>
@@ -10855,7 +10849,7 @@
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
     </row>
-    <row r="27" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="27" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A27" s="66"/>
       <c r="B27" s="69" t="s">
         <v>30</v>
@@ -10870,7 +10864,7 @@
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
     </row>
-    <row r="28" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="28" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A28" s="66"/>
       <c r="B28" s="69" t="s">
         <v>31</v>
@@ -10885,7 +10879,7 @@
       <c r="J28" s="68"/>
       <c r="K28" s="68"/>
     </row>
-    <row r="29" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="29" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A29" s="66"/>
       <c r="B29" s="69" t="s">
         <v>32</v>
@@ -10900,7 +10894,7 @@
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
     </row>
-    <row r="30" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="30" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A30" s="66"/>
       <c r="B30" s="69" t="s">
         <v>33</v>
@@ -10915,7 +10909,7 @@
       <c r="J30" s="68"/>
       <c r="K30" s="68"/>
     </row>
-    <row r="31" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="31" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A31" s="66"/>
       <c r="B31" s="69" t="s">
         <v>34</v>
@@ -10930,7 +10924,7 @@
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
     </row>
-    <row r="32" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="32" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A32" s="66"/>
       <c r="B32" s="69" t="s">
         <v>35</v>
@@ -10945,7 +10939,7 @@
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
     </row>
-    <row r="33" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="33" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A33" s="66"/>
       <c r="B33" s="69" t="s">
         <v>36</v>
@@ -10960,7 +10954,7 @@
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
     </row>
-    <row r="34" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="34" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A34" s="66"/>
       <c r="B34" s="69" t="s">
         <v>37</v>
@@ -10975,7 +10969,7 @@
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
     </row>
-    <row r="35" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="35" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A35" s="66"/>
       <c r="B35" s="69" t="s">
         <v>38</v>
@@ -10990,7 +10984,7 @@
       <c r="J35" s="68"/>
       <c r="K35" s="68"/>
     </row>
-    <row r="36" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="36" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A36" s="66"/>
       <c r="B36" s="69" t="s">
         <v>39</v>
@@ -11005,7 +10999,7 @@
       <c r="J36" s="68"/>
       <c r="K36" s="68"/>
     </row>
-    <row r="37" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="37" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A37" s="66"/>
       <c r="B37" s="69" t="s">
         <v>40</v>
@@ -11020,7 +11014,7 @@
       <c r="J37" s="68"/>
       <c r="K37" s="68"/>
     </row>
-    <row r="38" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="38" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A38" s="66"/>
       <c r="B38" s="69" t="s">
         <v>41</v>
@@ -11035,7 +11029,7 @@
       <c r="J38" s="68"/>
       <c r="K38" s="68"/>
     </row>
-    <row r="39" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="39" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A39" s="66"/>
       <c r="B39" s="69" t="s">
         <v>42</v>
@@ -11050,7 +11044,7 @@
       <c r="J39" s="68"/>
       <c r="K39" s="68"/>
     </row>
-    <row r="40" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="40" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A40" s="66"/>
       <c r="B40" s="69" t="s">
         <v>43</v>
@@ -11065,7 +11059,7 @@
       <c r="J40" s="68"/>
       <c r="K40" s="68"/>
     </row>
-    <row r="41" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="41" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A41" s="66"/>
       <c r="B41" s="69" t="s">
         <v>44</v>
@@ -11080,7 +11074,7 @@
       <c r="J41" s="68"/>
       <c r="K41" s="68"/>
     </row>
-    <row r="42" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="42" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A42" s="66"/>
       <c r="B42" s="69" t="s">
         <v>45</v>
@@ -11095,7 +11089,7 @@
       <c r="J42" s="68"/>
       <c r="K42" s="68"/>
     </row>
-    <row r="43" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="43" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A43" s="66" t="s">
         <v>46</v>
       </c>
@@ -11112,7 +11106,7 @@
       <c r="J43" s="68"/>
       <c r="K43" s="68"/>
     </row>
-    <row r="44" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="44" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A44" s="66"/>
       <c r="B44" s="69" t="s">
         <v>48</v>
@@ -11127,7 +11121,7 @@
       <c r="J44" s="68"/>
       <c r="K44" s="68"/>
     </row>
-    <row r="45" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="45" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A45" s="66"/>
       <c r="B45" s="69" t="s">
         <v>49</v>
@@ -11142,7 +11136,7 @@
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
     </row>
-    <row r="46" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="46" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A46" s="66"/>
       <c r="B46" s="69" t="s">
         <v>50</v>
@@ -11157,7 +11151,7 @@
       <c r="J46" s="68"/>
       <c r="K46" s="68"/>
     </row>
-    <row r="47" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="47" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A47" s="66"/>
       <c r="B47" s="69" t="s">
         <v>51</v>
@@ -11172,7 +11166,7 @@
       <c r="J47" s="68"/>
       <c r="K47" s="68"/>
     </row>
-    <row r="48" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="48" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A48" s="66"/>
       <c r="B48" s="69" t="s">
         <v>52</v>
@@ -11187,7 +11181,7 @@
       <c r="J48" s="68"/>
       <c r="K48" s="68"/>
     </row>
-    <row r="49" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="49" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A49" s="66"/>
       <c r="B49" s="69" t="s">
         <v>53</v>
@@ -11202,7 +11196,7 @@
       <c r="J49" s="68"/>
       <c r="K49" s="68"/>
     </row>
-    <row r="50" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="50" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A50" s="66"/>
       <c r="B50" s="69" t="s">
         <v>54</v>
@@ -11217,7 +11211,7 @@
       <c r="J50" s="68"/>
       <c r="K50" s="68"/>
     </row>
-    <row r="51" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="51" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A51" s="66"/>
       <c r="B51" s="69" t="s">
         <v>55</v>
@@ -11232,7 +11226,7 @@
       <c r="J51" s="68"/>
       <c r="K51" s="68"/>
     </row>
-    <row r="52" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="52" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A52" s="66"/>
       <c r="B52" s="69" t="s">
         <v>56</v>
@@ -11247,7 +11241,7 @@
       <c r="J52" s="68"/>
       <c r="K52" s="68"/>
     </row>
-    <row r="53" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="53" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A53" s="66"/>
       <c r="B53" s="69" t="s">
         <v>57</v>
@@ -11262,7 +11256,7 @@
       <c r="J53" s="68"/>
       <c r="K53" s="68"/>
     </row>
-    <row r="54" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="54" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A54" s="66"/>
       <c r="B54" s="69" t="s">
         <v>58</v>
@@ -11277,7 +11271,7 @@
       <c r="J54" s="68"/>
       <c r="K54" s="68"/>
     </row>
-    <row r="55" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="55" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A55" s="66"/>
       <c r="B55" s="69" t="s">
         <v>59</v>
@@ -11292,7 +11286,7 @@
       <c r="J55" s="68"/>
       <c r="K55" s="68"/>
     </row>
-    <row r="56" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="56" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A56" s="66"/>
       <c r="B56" s="69" t="s">
         <v>60</v>
@@ -11307,7 +11301,7 @@
       <c r="J56" s="68"/>
       <c r="K56" s="68"/>
     </row>
-    <row r="57" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="57" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A57" s="66"/>
       <c r="B57" s="69" t="s">
         <v>61</v>
@@ -11322,7 +11316,7 @@
       <c r="J57" s="68"/>
       <c r="K57" s="68"/>
     </row>
-    <row r="58" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="58" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A58" s="66"/>
       <c r="B58" s="69" t="s">
         <v>62</v>
@@ -11337,7 +11331,7 @@
       <c r="J58" s="68"/>
       <c r="K58" s="68"/>
     </row>
-    <row r="59" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="59" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A59" s="66"/>
       <c r="B59" s="69" t="s">
         <v>63</v>
@@ -11352,7 +11346,7 @@
       <c r="J59" s="68"/>
       <c r="K59" s="68"/>
     </row>
-    <row r="60" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="60" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A60" s="66"/>
       <c r="B60" s="69" t="s">
         <v>64</v>
@@ -11367,7 +11361,7 @@
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
     </row>
-    <row r="61" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="61" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A61" s="66"/>
       <c r="B61" s="69" t="s">
         <v>65</v>
@@ -11382,7 +11376,7 @@
       <c r="J61" s="68"/>
       <c r="K61" s="68"/>
     </row>
-    <row r="62" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="62" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A62" s="66"/>
       <c r="B62" s="69" t="s">
         <v>66</v>
@@ -11397,7 +11391,7 @@
       <c r="J62" s="68"/>
       <c r="K62" s="68"/>
     </row>
-    <row r="63" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="63" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A63" s="66"/>
       <c r="B63" s="69" t="s">
         <v>67</v>
@@ -11412,7 +11406,7 @@
       <c r="J63" s="68"/>
       <c r="K63" s="68"/>
     </row>
-    <row r="64" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="64" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A64" s="66"/>
       <c r="B64" s="69" t="s">
         <v>68</v>
@@ -11427,7 +11421,7 @@
       <c r="J64" s="68"/>
       <c r="K64" s="68"/>
     </row>
-    <row r="65" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="65" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A65" s="66"/>
       <c r="B65" s="69" t="s">
         <v>69</v>
@@ -11442,7 +11436,7 @@
       <c r="J65" s="68"/>
       <c r="K65" s="68"/>
     </row>
-    <row r="66" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="66" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A66" s="66"/>
       <c r="B66" s="69" t="s">
         <v>70</v>
@@ -11457,7 +11451,7 @@
       <c r="J66" s="68"/>
       <c r="K66" s="68"/>
     </row>
-    <row r="67" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="67" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A67" s="66"/>
       <c r="B67" s="69" t="s">
         <v>71</v>
@@ -11472,7 +11466,7 @@
       <c r="J67" s="68"/>
       <c r="K67" s="68"/>
     </row>
-    <row r="68" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="68" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A68" s="66"/>
       <c r="B68" s="69" t="s">
         <v>72</v>
@@ -11487,7 +11481,7 @@
       <c r="J68" s="68"/>
       <c r="K68" s="68"/>
     </row>
-    <row r="69" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="69" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A69" s="66"/>
       <c r="B69" s="69" t="s">
         <v>73</v>
@@ -11502,7 +11496,7 @@
       <c r="J69" s="68"/>
       <c r="K69" s="68"/>
     </row>
-    <row r="70" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="70" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A70" s="66"/>
       <c r="B70" s="69" t="s">
         <v>74</v>
@@ -11517,7 +11511,7 @@
       <c r="J70" s="68"/>
       <c r="K70" s="68"/>
     </row>
-    <row r="71" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="71" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A71" s="66"/>
       <c r="B71" s="69" t="s">
         <v>75</v>
@@ -11532,7 +11526,7 @@
       <c r="J71" s="68"/>
       <c r="K71" s="68"/>
     </row>
-    <row r="72" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="72" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A72" s="66"/>
       <c r="B72" s="69" t="s">
         <v>76</v>
@@ -11547,7 +11541,7 @@
       <c r="J72" s="68"/>
       <c r="K72" s="68"/>
     </row>
-    <row r="73" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="73" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A73" s="66"/>
       <c r="B73" s="69" t="s">
         <v>77</v>
@@ -11562,7 +11556,7 @@
       <c r="J73" s="68"/>
       <c r="K73" s="68"/>
     </row>
-    <row r="74" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="74" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A74" s="66"/>
       <c r="B74" s="69" t="s">
         <v>78</v>
@@ -11577,7 +11571,7 @@
       <c r="J74" s="68"/>
       <c r="K74" s="68"/>
     </row>
-    <row r="75" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="75" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A75" s="66"/>
       <c r="B75" s="69" t="s">
         <v>79</v>
@@ -11592,7 +11586,7 @@
       <c r="J75" s="68"/>
       <c r="K75" s="68"/>
     </row>
-    <row r="76" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="76" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A76" s="66"/>
       <c r="B76" s="69" t="s">
         <v>80</v>
@@ -11607,7 +11601,7 @@
       <c r="J76" s="68"/>
       <c r="K76" s="68"/>
     </row>
-    <row r="77" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="77" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A77" s="66"/>
       <c r="B77" s="69" t="s">
         <v>81</v>
@@ -11622,7 +11616,7 @@
       <c r="J77" s="68"/>
       <c r="K77" s="68"/>
     </row>
-    <row r="78" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="78" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A78" s="66"/>
       <c r="B78" s="69" t="s">
         <v>82</v>
@@ -11637,7 +11631,7 @@
       <c r="J78" s="68"/>
       <c r="K78" s="68"/>
     </row>
-    <row r="79" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="79" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A79" s="66"/>
       <c r="B79" s="69" t="s">
         <v>83</v>
@@ -11652,7 +11646,7 @@
       <c r="J79" s="68"/>
       <c r="K79" s="68"/>
     </row>
-    <row r="80" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="80" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A80" s="66"/>
       <c r="B80" s="69" t="s">
         <v>84</v>
@@ -11667,7 +11661,7 @@
       <c r="J80" s="68"/>
       <c r="K80" s="68"/>
     </row>
-    <row r="81" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="81" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A81" s="66"/>
       <c r="B81" s="69" t="s">
         <v>85</v>
@@ -11682,7 +11676,7 @@
       <c r="J81" s="68"/>
       <c r="K81" s="68"/>
     </row>
-    <row r="82" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="82" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A82" s="66"/>
       <c r="B82" s="69" t="s">
         <v>86</v>
@@ -11697,7 +11691,7 @@
       <c r="J82" s="68"/>
       <c r="K82" s="68"/>
     </row>
-    <row r="83" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="83" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A83" s="66"/>
       <c r="B83" s="69" t="s">
         <v>87</v>
@@ -11712,7 +11706,7 @@
       <c r="J83" s="68"/>
       <c r="K83" s="68"/>
     </row>
-    <row r="84" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="84" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A84" s="66"/>
       <c r="B84" s="69" t="s">
         <v>88</v>
@@ -11727,7 +11721,7 @@
       <c r="J84" s="68"/>
       <c r="K84" s="68"/>
     </row>
-    <row r="85" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="85" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A85" s="66"/>
       <c r="B85" s="69" t="s">
         <v>89</v>
@@ -11742,7 +11736,7 @@
       <c r="J85" s="68"/>
       <c r="K85" s="68"/>
     </row>
-    <row r="86" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="86" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A86" s="66"/>
       <c r="B86" s="69" t="s">
         <v>90</v>
@@ -11757,7 +11751,7 @@
       <c r="J86" s="68"/>
       <c r="K86" s="68"/>
     </row>
-    <row r="87" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="87" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A87" s="66"/>
       <c r="B87" s="69" t="s">
         <v>91</v>
@@ -11772,7 +11766,7 @@
       <c r="J87" s="68"/>
       <c r="K87" s="68"/>
     </row>
-    <row r="88" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="88" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A88" s="66"/>
       <c r="B88" s="69" t="s">
         <v>92</v>
@@ -11787,7 +11781,7 @@
       <c r="J88" s="68"/>
       <c r="K88" s="68"/>
     </row>
-    <row r="89" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="89" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A89" s="66"/>
       <c r="B89" s="69" t="s">
         <v>93</v>
@@ -11802,7 +11796,7 @@
       <c r="J89" s="68"/>
       <c r="K89" s="68"/>
     </row>
-    <row r="90" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="90" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A90" s="66"/>
       <c r="B90" s="69" t="s">
         <v>94</v>
@@ -11817,7 +11811,7 @@
       <c r="J90" s="68"/>
       <c r="K90" s="68"/>
     </row>
-    <row r="91" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="91" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A91" s="66"/>
       <c r="B91" s="69" t="s">
         <v>95</v>
@@ -11832,7 +11826,7 @@
       <c r="J91" s="68"/>
       <c r="K91" s="68"/>
     </row>
-    <row r="92" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="92" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A92" s="66"/>
       <c r="B92" s="69" t="s">
         <v>96</v>
@@ -11847,7 +11841,7 @@
       <c r="J92" s="68"/>
       <c r="K92" s="68"/>
     </row>
-    <row r="93" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="93" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A93" s="66"/>
       <c r="B93" s="69" t="s">
         <v>97</v>
@@ -11862,7 +11856,7 @@
       <c r="J93" s="68"/>
       <c r="K93" s="68"/>
     </row>
-    <row r="94" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="94" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A94" s="66"/>
       <c r="B94" s="69" t="s">
         <v>98</v>
@@ -11877,7 +11871,7 @@
       <c r="J94" s="68"/>
       <c r="K94" s="68"/>
     </row>
-    <row r="95" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="95" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A95" s="66"/>
       <c r="B95" s="69" t="s">
         <v>99</v>
@@ -11892,7 +11886,7 @@
       <c r="J95" s="68"/>
       <c r="K95" s="68"/>
     </row>
-    <row r="96" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="96" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A96" s="66"/>
       <c r="B96" s="69" t="s">
         <v>100</v>
@@ -11907,7 +11901,7 @@
       <c r="J96" s="68"/>
       <c r="K96" s="68"/>
     </row>
-    <row r="97" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="97" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A97" s="66"/>
       <c r="B97" s="69" t="s">
         <v>101</v>
@@ -11922,7 +11916,7 @@
       <c r="J97" s="68"/>
       <c r="K97" s="68"/>
     </row>
-    <row r="98" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="98" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A98" s="66"/>
       <c r="B98" s="69" t="s">
         <v>102</v>
@@ -11937,7 +11931,7 @@
       <c r="J98" s="68"/>
       <c r="K98" s="68"/>
     </row>
-    <row r="99" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="99" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A99" s="66"/>
       <c r="B99" s="69" t="s">
         <v>103</v>
@@ -11952,7 +11946,7 @@
       <c r="J99" s="68"/>
       <c r="K99" s="68"/>
     </row>
-    <row r="100" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="100" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A100" s="66"/>
       <c r="B100" s="69" t="s">
         <v>104</v>
@@ -11967,7 +11961,7 @@
       <c r="J100" s="68"/>
       <c r="K100" s="68"/>
     </row>
-    <row r="101" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="101" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A101" s="66"/>
       <c r="B101" s="69" t="s">
         <v>105</v>
@@ -11982,7 +11976,7 @@
       <c r="J101" s="68"/>
       <c r="K101" s="68"/>
     </row>
-    <row r="102" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="102" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A102" s="66"/>
       <c r="B102" s="69" t="s">
         <v>106</v>
@@ -11997,7 +11991,7 @@
       <c r="J102" s="68"/>
       <c r="K102" s="68"/>
     </row>
-    <row r="103" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="103" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A103" s="66"/>
       <c r="B103" s="69" t="s">
         <v>107</v>
@@ -12012,7 +12006,7 @@
       <c r="J103" s="68"/>
       <c r="K103" s="68"/>
     </row>
-    <row r="104" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="104" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A104" s="66"/>
       <c r="B104" s="69" t="s">
         <v>108</v>
@@ -12027,7 +12021,7 @@
       <c r="J104" s="68"/>
       <c r="K104" s="68"/>
     </row>
-    <row r="105" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="105" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A105" s="66"/>
       <c r="B105" s="69" t="s">
         <v>109</v>
@@ -12042,7 +12036,7 @@
       <c r="J105" s="68"/>
       <c r="K105" s="68"/>
     </row>
-    <row r="106" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="106" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A106" s="66" t="s">
         <v>110</v>
       </c>
@@ -12059,7 +12053,7 @@
       <c r="J106" s="68"/>
       <c r="K106" s="68"/>
     </row>
-    <row r="107" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="107" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A107" s="66"/>
       <c r="B107" s="67" t="s">
         <v>112</v>
@@ -12074,7 +12068,7 @@
       <c r="J107" s="68"/>
       <c r="K107" s="68"/>
     </row>
-    <row r="108" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="108" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A108" s="66"/>
       <c r="B108" s="69" t="s">
         <v>113</v>
@@ -12089,7 +12083,7 @@
       <c r="J108" s="68"/>
       <c r="K108" s="68"/>
     </row>
-    <row r="109" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="109" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A109" s="66"/>
       <c r="B109" s="69" t="s">
         <v>114</v>
@@ -12104,7 +12098,7 @@
       <c r="J109" s="68"/>
       <c r="K109" s="68"/>
     </row>
-    <row r="110" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="110" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A110" s="66"/>
       <c r="B110" s="69" t="s">
         <v>115</v>
@@ -12119,7 +12113,7 @@
       <c r="J110" s="68"/>
       <c r="K110" s="68"/>
     </row>
-    <row r="111" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="111" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A111" s="66"/>
       <c r="B111" s="69" t="s">
         <v>116</v>
@@ -12134,7 +12128,7 @@
       <c r="J111" s="68"/>
       <c r="K111" s="68"/>
     </row>
-    <row r="112" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="112" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A112" s="66"/>
       <c r="B112" s="69"/>
       <c r="C112" s="68"/>
@@ -12147,7 +12141,7 @@
       <c r="J112" s="68"/>
       <c r="K112" s="68"/>
     </row>
-    <row r="113" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="113" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A113" s="66"/>
       <c r="B113" s="67" t="s">
         <v>117</v>
@@ -12162,7 +12156,7 @@
       <c r="J113" s="68"/>
       <c r="K113" s="68"/>
     </row>
-    <row r="114" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="114" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A114" s="66"/>
       <c r="B114" s="69" t="s">
         <v>118</v>
@@ -12177,7 +12171,7 @@
       <c r="J114" s="68"/>
       <c r="K114" s="68"/>
     </row>
-    <row r="115" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="115" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A115" s="66"/>
       <c r="B115" s="69" t="s">
         <v>119</v>
@@ -12192,7 +12186,7 @@
       <c r="J115" s="68"/>
       <c r="K115" s="68"/>
     </row>
-    <row r="116" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="116" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A116" s="66"/>
       <c r="B116" s="69" t="s">
         <v>120</v>
@@ -12207,7 +12201,7 @@
       <c r="J116" s="68"/>
       <c r="K116" s="68"/>
     </row>
-    <row r="117" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="117" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A117" s="66"/>
       <c r="B117" s="69" t="s">
         <v>121</v>
@@ -12222,7 +12216,7 @@
       <c r="J117" s="68"/>
       <c r="K117" s="68"/>
     </row>
-    <row r="118" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="118" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A118" s="66"/>
       <c r="B118" s="69" t="s">
         <v>122</v>
@@ -12237,7 +12231,7 @@
       <c r="J118" s="68"/>
       <c r="K118" s="68"/>
     </row>
-    <row r="119" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="119" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A119" s="66"/>
       <c r="B119" s="69" t="s">
         <v>123</v>
@@ -12252,7 +12246,7 @@
       <c r="J119" s="68"/>
       <c r="K119" s="68"/>
     </row>
-    <row r="120" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="120" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A120" s="66"/>
       <c r="B120" s="69" t="s">
         <v>124</v>
@@ -12267,7 +12261,7 @@
       <c r="J120" s="68"/>
       <c r="K120" s="68"/>
     </row>
-    <row r="121" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="121" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A121" s="66"/>
       <c r="B121" s="69" t="s">
         <v>125</v>
@@ -12282,7 +12276,7 @@
       <c r="J121" s="68"/>
       <c r="K121" s="68"/>
     </row>
-    <row r="122" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="122" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A122" s="66"/>
       <c r="B122" s="69" t="s">
         <v>126</v>
@@ -12297,7 +12291,7 @@
       <c r="J122" s="68"/>
       <c r="K122" s="68"/>
     </row>
-    <row r="123" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="123" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A123" s="66"/>
       <c r="B123" s="69" t="s">
         <v>127</v>
@@ -12312,7 +12306,7 @@
       <c r="J123" s="68"/>
       <c r="K123" s="68"/>
     </row>
-    <row r="124" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="124" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A124" s="66"/>
       <c r="B124" s="69" t="s">
         <v>128</v>
@@ -12327,7 +12321,7 @@
       <c r="J124" s="68"/>
       <c r="K124" s="68"/>
     </row>
-    <row r="125" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="125" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A125" s="66"/>
       <c r="B125" s="69"/>
       <c r="C125" s="68"/>
@@ -12340,7 +12334,7 @@
       <c r="J125" s="68"/>
       <c r="K125" s="68"/>
     </row>
-    <row r="126" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="126" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A126" s="66"/>
       <c r="B126" s="67" t="s">
         <v>129</v>
@@ -12355,7 +12349,7 @@
       <c r="J126" s="68"/>
       <c r="K126" s="68"/>
     </row>
-    <row r="127" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="127" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A127" s="66"/>
       <c r="B127" s="69" t="s">
         <v>130</v>
@@ -12370,7 +12364,7 @@
       <c r="J127" s="68"/>
       <c r="K127" s="68"/>
     </row>
-    <row r="128" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="128" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A128" s="66"/>
       <c r="B128" s="69" t="s">
         <v>131</v>
@@ -12385,7 +12379,7 @@
       <c r="J128" s="68"/>
       <c r="K128" s="68"/>
     </row>
-    <row r="129" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="129" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A129" s="66"/>
       <c r="B129" s="69" t="s">
         <v>132</v>
@@ -12400,7 +12394,7 @@
       <c r="J129" s="68"/>
       <c r="K129" s="68"/>
     </row>
-    <row r="130" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="130" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A130" s="66"/>
       <c r="B130" s="69" t="s">
         <v>133</v>
@@ -12415,7 +12409,7 @@
       <c r="J130" s="68"/>
       <c r="K130" s="68"/>
     </row>
-    <row r="131" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="131" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A131" s="66"/>
       <c r="B131" s="69" t="s">
         <v>134</v>
@@ -12430,7 +12424,7 @@
       <c r="J131" s="68"/>
       <c r="K131" s="68"/>
     </row>
-    <row r="132" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="132" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A132" s="66"/>
       <c r="B132" s="69" t="s">
         <v>135</v>
@@ -12445,7 +12439,7 @@
       <c r="J132" s="68"/>
       <c r="K132" s="68"/>
     </row>
-    <row r="133" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="133" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A133" s="66"/>
       <c r="B133" s="69" t="s">
         <v>136</v>
@@ -12460,7 +12454,7 @@
       <c r="J133" s="68"/>
       <c r="K133" s="68"/>
     </row>
-    <row r="134" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="134" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A134" s="66"/>
       <c r="B134" s="69" t="s">
         <v>137</v>
@@ -12475,7 +12469,7 @@
       <c r="J134" s="68"/>
       <c r="K134" s="68"/>
     </row>
-    <row r="135" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="135" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A135" s="66"/>
       <c r="B135" s="69" t="s">
         <v>138</v>
@@ -12490,7 +12484,7 @@
       <c r="J135" s="68"/>
       <c r="K135" s="68"/>
     </row>
-    <row r="136" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="136" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A136" s="66"/>
       <c r="B136" s="69" t="s">
         <v>139</v>
@@ -12505,7 +12499,7 @@
       <c r="J136" s="68"/>
       <c r="K136" s="68"/>
     </row>
-    <row r="137" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="137" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A137" s="66"/>
       <c r="B137" s="69" t="s">
         <v>140</v>
@@ -12520,7 +12514,7 @@
       <c r="J137" s="68"/>
       <c r="K137" s="68"/>
     </row>
-    <row r="138" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="138" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A138" s="66"/>
       <c r="B138" s="66" t="s">
         <v>141</v>
@@ -12535,7 +12529,7 @@
       <c r="J138" s="68"/>
       <c r="K138" s="68"/>
     </row>
-    <row r="139" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="139" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A139" s="66"/>
       <c r="B139" s="69" t="s">
         <v>142</v>
@@ -12550,7 +12544,7 @@
       <c r="J139" s="68"/>
       <c r="K139" s="68"/>
     </row>
-    <row r="140" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="140" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A140" s="66"/>
       <c r="B140" s="69" t="s">
         <v>143</v>
@@ -12565,7 +12559,7 @@
       <c r="J140" s="68"/>
       <c r="K140" s="68"/>
     </row>
-    <row r="141" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="141" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A141" s="66" t="s">
         <v>144</v>
       </c>
@@ -12582,7 +12576,7 @@
       <c r="J141" s="68"/>
       <c r="K141" s="68"/>
     </row>
-    <row r="142" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="142" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A142" s="66"/>
       <c r="B142" s="69" t="s">
         <v>146</v>
@@ -12597,7 +12591,7 @@
       <c r="J142" s="68"/>
       <c r="K142" s="68"/>
     </row>
-    <row r="143" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="143" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A143" s="66"/>
       <c r="B143" s="69" t="s">
         <v>147</v>
@@ -12612,7 +12606,7 @@
       <c r="J143" s="68"/>
       <c r="K143" s="68"/>
     </row>
-    <row r="144" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="144" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A144" s="66"/>
       <c r="B144" s="69" t="s">
         <v>148</v>
@@ -12627,7 +12621,7 @@
       <c r="J144" s="68"/>
       <c r="K144" s="68"/>
     </row>
-    <row r="145" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="145" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A145" s="66"/>
       <c r="B145" s="69" t="s">
         <v>149</v>
@@ -12642,7 +12636,7 @@
       <c r="J145" s="68"/>
       <c r="K145" s="68"/>
     </row>
-    <row r="146" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="146" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A146" s="66"/>
       <c r="B146" s="69" t="s">
         <v>150</v>
@@ -12657,7 +12651,7 @@
       <c r="J146" s="68"/>
       <c r="K146" s="68"/>
     </row>
-    <row r="147" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="147" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A147" s="66"/>
       <c r="B147" s="69" t="s">
         <v>151</v>
@@ -12672,7 +12666,7 @@
       <c r="J147" s="68"/>
       <c r="K147" s="68"/>
     </row>
-    <row r="148" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="148" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A148" s="66"/>
       <c r="B148" s="69" t="s">
         <v>152</v>
@@ -12687,7 +12681,7 @@
       <c r="J148" s="68"/>
       <c r="K148" s="68"/>
     </row>
-    <row r="149" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="149" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A149" s="66"/>
       <c r="B149" s="69" t="s">
         <v>153</v>
@@ -12702,7 +12696,7 @@
       <c r="J149" s="68"/>
       <c r="K149" s="68"/>
     </row>
-    <row r="150" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="150" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A150" s="66"/>
       <c r="B150" s="69" t="s">
         <v>154</v>
@@ -12717,7 +12711,7 @@
       <c r="J150" s="68"/>
       <c r="K150" s="68"/>
     </row>
-    <row r="151" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="151" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A151" s="66"/>
       <c r="B151" s="69" t="s">
         <v>155</v>
@@ -12732,7 +12726,7 @@
       <c r="J151" s="68"/>
       <c r="K151" s="68"/>
     </row>
-    <row r="152" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="152" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A152" s="66"/>
       <c r="B152" s="69" t="s">
         <v>156</v>
@@ -12747,7 +12741,7 @@
       <c r="J152" s="68"/>
       <c r="K152" s="68"/>
     </row>
-    <row r="153" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="153" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A153" s="66"/>
       <c r="B153" s="69" t="s">
         <v>157</v>
@@ -12762,7 +12756,7 @@
       <c r="J153" s="68"/>
       <c r="K153" s="68"/>
     </row>
-    <row r="154" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="154" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A154" s="66"/>
       <c r="B154" s="69" t="s">
         <v>158</v>
@@ -12777,7 +12771,7 @@
       <c r="J154" s="68"/>
       <c r="K154" s="68"/>
     </row>
-    <row r="155" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="155" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A155" s="66"/>
       <c r="B155" s="69" t="s">
         <v>159</v>
@@ -12792,7 +12786,7 @@
       <c r="J155" s="68"/>
       <c r="K155" s="68"/>
     </row>
-    <row r="156" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="156" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A156" s="66"/>
       <c r="B156" s="69" t="s">
         <v>160</v>
@@ -12807,7 +12801,7 @@
       <c r="J156" s="68"/>
       <c r="K156" s="68"/>
     </row>
-    <row r="157" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="157" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A157" s="66"/>
       <c r="B157" s="69" t="s">
         <v>161</v>
@@ -12822,7 +12816,7 @@
       <c r="J157" s="68"/>
       <c r="K157" s="68"/>
     </row>
-    <row r="158" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="158" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A158" s="66"/>
       <c r="B158" s="69" t="s">
         <v>162</v>
@@ -12837,7 +12831,7 @@
       <c r="J158" s="68"/>
       <c r="K158" s="68"/>
     </row>
-    <row r="159" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="159" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A159" s="66"/>
       <c r="B159" s="69" t="s">
         <v>163</v>
@@ -12852,7 +12846,7 @@
       <c r="J159" s="68"/>
       <c r="K159" s="68"/>
     </row>
-    <row r="160" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="160" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A160" s="66"/>
       <c r="B160" s="69" t="s">
         <v>164</v>
@@ -12867,7 +12861,7 @@
       <c r="J160" s="68"/>
       <c r="K160" s="68"/>
     </row>
-    <row r="161" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="161" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A161" s="66"/>
       <c r="B161" s="69" t="s">
         <v>165</v>
@@ -12882,7 +12876,7 @@
       <c r="J161" s="68"/>
       <c r="K161" s="68"/>
     </row>
-    <row r="162" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="162" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A162" s="66" t="s">
         <v>166</v>
       </c>
@@ -12899,7 +12893,7 @@
       <c r="J162" s="68"/>
       <c r="K162" s="68"/>
     </row>
-    <row r="163" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="163" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A163" s="66"/>
       <c r="B163" s="69" t="s">
         <v>168</v>
@@ -12914,7 +12908,7 @@
       <c r="J163" s="68"/>
       <c r="K163" s="68"/>
     </row>
-    <row r="164" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="164" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A164" s="66"/>
       <c r="B164" s="69" t="s">
         <v>169</v>
@@ -12929,7 +12923,7 @@
       <c r="J164" s="68"/>
       <c r="K164" s="68"/>
     </row>
-    <row r="165" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="165" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A165" s="66"/>
       <c r="B165" s="69" t="s">
         <v>170</v>
@@ -12944,7 +12938,7 @@
       <c r="J165" s="68"/>
       <c r="K165" s="68"/>
     </row>
-    <row r="166" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="166" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A166" s="66"/>
       <c r="B166" s="69" t="s">
         <v>171</v>
@@ -12959,7 +12953,7 @@
       <c r="J166" s="68"/>
       <c r="K166" s="68"/>
     </row>
-    <row r="167" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="167" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A167" s="66"/>
       <c r="B167" s="69" t="s">
         <v>172</v>
@@ -12974,7 +12968,7 @@
       <c r="J167" s="68"/>
       <c r="K167" s="68"/>
     </row>
-    <row r="168" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="168" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A168" s="66"/>
       <c r="B168" s="69" t="s">
         <v>173</v>
@@ -12989,7 +12983,7 @@
       <c r="J168" s="68"/>
       <c r="K168" s="68"/>
     </row>
-    <row r="169" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="169" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A169" s="66"/>
       <c r="B169" s="69" t="s">
         <v>174</v>
@@ -13004,7 +12998,7 @@
       <c r="J169" s="68"/>
       <c r="K169" s="68"/>
     </row>
-    <row r="170" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="170" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A170" s="66"/>
       <c r="B170" s="69" t="s">
         <v>175</v>
@@ -13019,7 +13013,7 @@
       <c r="J170" s="68"/>
       <c r="K170" s="68"/>
     </row>
-    <row r="171" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="171" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A171" s="66"/>
       <c r="B171" s="69" t="s">
         <v>176</v>
@@ -13034,7 +13028,7 @@
       <c r="J171" s="68"/>
       <c r="K171" s="68"/>
     </row>
-    <row r="172" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="172" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A172" s="66"/>
       <c r="B172" s="69" t="s">
         <v>177</v>
@@ -13049,7 +13043,7 @@
       <c r="J172" s="68"/>
       <c r="K172" s="68"/>
     </row>
-    <row r="173" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="173" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A173" s="66"/>
       <c r="B173" s="69" t="s">
         <v>178</v>
@@ -13064,7 +13058,7 @@
       <c r="J173" s="68"/>
       <c r="K173" s="68"/>
     </row>
-    <row r="174" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="174" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A174" s="66"/>
       <c r="B174" s="69" t="s">
         <v>179</v>
@@ -13079,7 +13073,7 @@
       <c r="J174" s="68"/>
       <c r="K174" s="68"/>
     </row>
-    <row r="175" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="175" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A175" s="66"/>
       <c r="B175" s="69" t="s">
         <v>180</v>
@@ -13094,7 +13088,7 @@
       <c r="J175" s="68"/>
       <c r="K175" s="68"/>
     </row>
-    <row r="176" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="176" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A176" s="66"/>
       <c r="B176" s="69" t="s">
         <v>181</v>
@@ -13109,7 +13103,7 @@
       <c r="J176" s="68"/>
       <c r="K176" s="68"/>
     </row>
-    <row r="177" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="177" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A177" s="66" t="s">
         <v>182</v>
       </c>
@@ -13126,7 +13120,7 @@
       <c r="J177" s="68"/>
       <c r="K177" s="68"/>
     </row>
-    <row r="178" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="178" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A178" s="66"/>
       <c r="B178" s="69" t="s">
         <v>184</v>
@@ -13141,7 +13135,7 @@
       <c r="J178" s="68"/>
       <c r="K178" s="68"/>
     </row>
-    <row r="179" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="179" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A179" s="66"/>
       <c r="B179" s="69" t="s">
         <v>185</v>
@@ -13156,7 +13150,7 @@
       <c r="J179" s="68"/>
       <c r="K179" s="68"/>
     </row>
-    <row r="180" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="180" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A180" s="66"/>
       <c r="B180" s="69" t="s">
         <v>186</v>
@@ -13171,7 +13165,7 @@
       <c r="J180" s="68"/>
       <c r="K180" s="68"/>
     </row>
-    <row r="181" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="181" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A181" s="66"/>
       <c r="B181" s="69" t="s">
         <v>187</v>
@@ -13186,7 +13180,7 @@
       <c r="J181" s="68"/>
       <c r="K181" s="68"/>
     </row>
-    <row r="182" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="182" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A182" s="66"/>
       <c r="B182" s="69" t="s">
         <v>188</v>
@@ -13201,7 +13195,7 @@
       <c r="J182" s="68"/>
       <c r="K182" s="68"/>
     </row>
-    <row r="183" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="183" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A183" s="66"/>
       <c r="B183" s="69" t="s">
         <v>189</v>
@@ -13216,7 +13210,7 @@
       <c r="J183" s="68"/>
       <c r="K183" s="68"/>
     </row>
-    <row r="184" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="184" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A184" s="66"/>
       <c r="B184" s="69" t="s">
         <v>190</v>
@@ -13231,7 +13225,7 @@
       <c r="J184" s="68"/>
       <c r="K184" s="68"/>
     </row>
-    <row r="185" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="185" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A185" s="66"/>
       <c r="B185" s="69" t="s">
         <v>191</v>
@@ -13246,7 +13240,7 @@
       <c r="J185" s="68"/>
       <c r="K185" s="68"/>
     </row>
-    <row r="186" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="186" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A186" s="66"/>
       <c r="B186" s="69" t="s">
         <v>192</v>
@@ -13261,7 +13255,7 @@
       <c r="J186" s="68"/>
       <c r="K186" s="68"/>
     </row>
-    <row r="187" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="187" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A187" s="66"/>
       <c r="B187" s="69" t="s">
         <v>193</v>
@@ -13276,7 +13270,7 @@
       <c r="J187" s="68"/>
       <c r="K187" s="68"/>
     </row>
-    <row r="188" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="188" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A188" s="66"/>
       <c r="B188" s="69" t="s">
         <v>194</v>
@@ -13291,7 +13285,7 @@
       <c r="J188" s="68"/>
       <c r="K188" s="68"/>
     </row>
-    <row r="189" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="189" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A189" s="66"/>
       <c r="B189" s="69" t="s">
         <v>195</v>
@@ -13306,7 +13300,7 @@
       <c r="J189" s="68"/>
       <c r="K189" s="68"/>
     </row>
-    <row r="190" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="190" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A190" s="66"/>
       <c r="B190" s="69" t="s">
         <v>196</v>
@@ -13321,7 +13315,7 @@
       <c r="J190" s="68"/>
       <c r="K190" s="68"/>
     </row>
-    <row r="191" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="191" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A191" s="66"/>
       <c r="B191" s="69" t="s">
         <v>197</v>
@@ -13336,7 +13330,7 @@
       <c r="J191" s="68"/>
       <c r="K191" s="68"/>
     </row>
-    <row r="192" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="192" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A192" s="66"/>
       <c r="B192" s="69" t="s">
         <v>198</v>
@@ -13351,7 +13345,7 @@
       <c r="J192" s="68"/>
       <c r="K192" s="68"/>
     </row>
-    <row r="193" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="193" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A193" s="66"/>
       <c r="B193" s="69" t="s">
         <v>199</v>
@@ -13366,7 +13360,7 @@
       <c r="J193" s="68"/>
       <c r="K193" s="68"/>
     </row>
-    <row r="194" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="194" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A194" s="66"/>
       <c r="B194" s="69" t="s">
         <v>200</v>
@@ -13381,7 +13375,7 @@
       <c r="J194" s="68"/>
       <c r="K194" s="68"/>
     </row>
-    <row r="195" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="195" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A195" s="66"/>
       <c r="B195" s="69" t="s">
         <v>201</v>
@@ -13396,7 +13390,7 @@
       <c r="J195" s="68"/>
       <c r="K195" s="68"/>
     </row>
-    <row r="196" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="196" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A196" s="66"/>
       <c r="B196" s="69" t="s">
         <v>202</v>
@@ -13411,7 +13405,7 @@
       <c r="J196" s="68"/>
       <c r="K196" s="68"/>
     </row>
-    <row r="197" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="197" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A197" s="66"/>
       <c r="B197" s="69" t="s">
         <v>203</v>
@@ -13426,7 +13420,7 @@
       <c r="J197" s="68"/>
       <c r="K197" s="68"/>
     </row>
-    <row r="198" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="198" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A198" s="66"/>
       <c r="B198" s="69" t="s">
         <v>204</v>
@@ -13441,7 +13435,7 @@
       <c r="J198" s="68"/>
       <c r="K198" s="68"/>
     </row>
-    <row r="199" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="199" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A199" s="66"/>
       <c r="B199" s="69" t="s">
         <v>205</v>
@@ -13456,7 +13450,7 @@
       <c r="J199" s="68"/>
       <c r="K199" s="68"/>
     </row>
-    <row r="200" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="200" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A200" s="66"/>
       <c r="B200" s="69" t="s">
         <v>206</v>
@@ -13471,7 +13465,7 @@
       <c r="J200" s="68"/>
       <c r="K200" s="68"/>
     </row>
-    <row r="201" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="201" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A201" s="66"/>
       <c r="B201" s="69" t="s">
         <v>207</v>
@@ -13486,7 +13480,7 @@
       <c r="J201" s="68"/>
       <c r="K201" s="68"/>
     </row>
-    <row r="202" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="202" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A202" s="66"/>
       <c r="B202" s="69" t="s">
         <v>208</v>
@@ -13501,7 +13495,7 @@
       <c r="J202" s="68"/>
       <c r="K202" s="68"/>
     </row>
-    <row r="203" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="203" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A203" s="66"/>
       <c r="B203" s="69" t="s">
         <v>209</v>
@@ -13516,7 +13510,7 @@
       <c r="J203" s="68"/>
       <c r="K203" s="68"/>
     </row>
-    <row r="204" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="204" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A204" s="66"/>
       <c r="B204" s="69" t="s">
         <v>210</v>
@@ -13531,7 +13525,7 @@
       <c r="J204" s="68"/>
       <c r="K204" s="68"/>
     </row>
-    <row r="205" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="205" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A205" s="66"/>
       <c r="B205" s="69" t="s">
         <v>211</v>
@@ -13546,7 +13540,7 @@
       <c r="J205" s="68"/>
       <c r="K205" s="68"/>
     </row>
-    <row r="206" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="206" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A206" s="66"/>
       <c r="B206" s="69" t="s">
         <v>212</v>
@@ -13561,7 +13555,7 @@
       <c r="J206" s="68"/>
       <c r="K206" s="68"/>
     </row>
-    <row r="207" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="207" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A207" s="66" t="s">
         <v>213</v>
       </c>
@@ -13578,7 +13572,7 @@
       <c r="J207" s="68"/>
       <c r="K207" s="68"/>
     </row>
-    <row r="208" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="208" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A208" s="66"/>
       <c r="B208" s="66" t="s">
         <v>215</v>
@@ -13593,7 +13587,7 @@
       <c r="J208" s="68"/>
       <c r="K208" s="68"/>
     </row>
-    <row r="209" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="209" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A209" s="66"/>
       <c r="B209" s="66" t="s">
         <v>216</v>
@@ -13608,7 +13602,7 @@
       <c r="J209" s="68"/>
       <c r="K209" s="68"/>
     </row>
-    <row r="210" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="210" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A210" s="66"/>
       <c r="B210" s="66" t="s">
         <v>217</v>
@@ -13623,7 +13617,7 @@
       <c r="J210" s="68"/>
       <c r="K210" s="68"/>
     </row>
-    <row r="211" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="211" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A211" s="66"/>
       <c r="B211" s="66" t="s">
         <v>218</v>
@@ -13638,7 +13632,7 @@
       <c r="J211" s="68"/>
       <c r="K211" s="68"/>
     </row>
-    <row r="212" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="212" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A212" s="66"/>
       <c r="B212" s="66" t="s">
         <v>219</v>
@@ -13653,7 +13647,7 @@
       <c r="J212" s="68"/>
       <c r="K212" s="68"/>
     </row>
-    <row r="213" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="213" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A213" s="66"/>
       <c r="B213" s="66" t="s">
         <v>220</v>
@@ -13668,7 +13662,7 @@
       <c r="J213" s="68"/>
       <c r="K213" s="68"/>
     </row>
-    <row r="214" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="214" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A214" s="66"/>
       <c r="B214" s="66" t="s">
         <v>221</v>
@@ -13683,7 +13677,7 @@
       <c r="J214" s="68"/>
       <c r="K214" s="68"/>
     </row>
-    <row r="215" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="215" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A215" s="66"/>
       <c r="B215" s="66" t="s">
         <v>222</v>
@@ -13698,7 +13692,7 @@
       <c r="J215" s="68"/>
       <c r="K215" s="68"/>
     </row>
-    <row r="216" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="216" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A216" s="66"/>
       <c r="B216" s="66" t="s">
         <v>223</v>
@@ -13713,7 +13707,7 @@
       <c r="J216" s="68"/>
       <c r="K216" s="68"/>
     </row>
-    <row r="217" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="217" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A217" s="66"/>
       <c r="B217" s="66" t="s">
         <v>224</v>
@@ -13728,7 +13722,7 @@
       <c r="J217" s="68"/>
       <c r="K217" s="68"/>
     </row>
-    <row r="218" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="218" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A218" s="66"/>
       <c r="B218" s="66" t="s">
         <v>225</v>
@@ -13743,7 +13737,7 @@
       <c r="J218" s="68"/>
       <c r="K218" s="68"/>
     </row>
-    <row r="219" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="219" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A219" s="66"/>
       <c r="B219" s="66" t="s">
         <v>226</v>
@@ -13758,7 +13752,7 @@
       <c r="J219" s="68"/>
       <c r="K219" s="68"/>
     </row>
-    <row r="220" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="220" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A220" s="66"/>
       <c r="B220" s="66" t="s">
         <v>227</v>
@@ -13773,7 +13767,7 @@
       <c r="J220" s="68"/>
       <c r="K220" s="68"/>
     </row>
-    <row r="221" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="221" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A221" s="66"/>
       <c r="B221" s="66" t="s">
         <v>228</v>
@@ -13788,7 +13782,7 @@
       <c r="J221" s="68"/>
       <c r="K221" s="68"/>
     </row>
-    <row r="222" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="222" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A222" s="66"/>
       <c r="B222" s="66" t="s">
         <v>229</v>
@@ -13803,7 +13797,7 @@
       <c r="J222" s="68"/>
       <c r="K222" s="68"/>
     </row>
-    <row r="223" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="223" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A223" s="66"/>
       <c r="B223" s="66" t="s">
         <v>230</v>
@@ -13818,7 +13812,7 @@
       <c r="J223" s="68"/>
       <c r="K223" s="68"/>
     </row>
-    <row r="224" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="224" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A224" s="66"/>
       <c r="B224" s="66" t="s">
         <v>231</v>
@@ -13833,7 +13827,7 @@
       <c r="J224" s="68"/>
       <c r="K224" s="68"/>
     </row>
-    <row r="225" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="225" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A225" s="66"/>
       <c r="B225" s="66" t="s">
         <v>232</v>
@@ -13848,7 +13842,7 @@
       <c r="J225" s="68"/>
       <c r="K225" s="68"/>
     </row>
-    <row r="226" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="226" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A226" s="66"/>
       <c r="B226" s="66" t="s">
         <v>233</v>
@@ -13863,7 +13857,7 @@
       <c r="J226" s="68"/>
       <c r="K226" s="68"/>
     </row>
-    <row r="227" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="227" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A227" s="66"/>
       <c r="B227" s="66" t="s">
         <v>234</v>
@@ -13878,7 +13872,7 @@
       <c r="J227" s="68"/>
       <c r="K227" s="68"/>
     </row>
-    <row r="228" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="228" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A228" s="66"/>
       <c r="B228" s="69" t="s">
         <v>235</v>
@@ -13893,7 +13887,7 @@
       <c r="J228" s="68"/>
       <c r="K228" s="68"/>
     </row>
-    <row r="229" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="229" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A229" s="66" t="s">
         <v>236</v>
       </c>
@@ -13910,7 +13904,7 @@
       <c r="J229" s="68"/>
       <c r="K229" s="68"/>
     </row>
-    <row r="230" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="230" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A230" s="66"/>
       <c r="B230" s="74" t="s">
         <v>238</v>
@@ -13925,7 +13919,7 @@
       <c r="J230" s="68"/>
       <c r="K230" s="68"/>
     </row>
-    <row r="231" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="231" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A231" s="66"/>
       <c r="B231" s="75" t="s">
         <v>239</v>
@@ -13940,7 +13934,7 @@
       <c r="J231" s="68"/>
       <c r="K231" s="68"/>
     </row>
-    <row r="232" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="232" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A232" s="66"/>
       <c r="B232" s="75" t="s">
         <v>240</v>
@@ -13955,7 +13949,7 @@
       <c r="J232" s="68"/>
       <c r="K232" s="68"/>
     </row>
-    <row r="233" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="233" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A233" s="66"/>
       <c r="B233" s="75" t="s">
         <v>241</v>
@@ -13970,7 +13964,7 @@
       <c r="J233" s="68"/>
       <c r="K233" s="68"/>
     </row>
-    <row r="234" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="234" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A234" s="66"/>
       <c r="B234" s="75" t="s">
         <v>242</v>
@@ -13985,7 +13979,7 @@
       <c r="J234" s="68"/>
       <c r="K234" s="68"/>
     </row>
-    <row r="235" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="235" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A235" s="66"/>
       <c r="B235" s="75" t="s">
         <v>243</v>
@@ -14000,7 +13994,7 @@
       <c r="J235" s="68"/>
       <c r="K235" s="68"/>
     </row>
-    <row r="236" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="236" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A236" s="66"/>
       <c r="B236" s="75" t="s">
         <v>244</v>
@@ -14015,7 +14009,7 @@
       <c r="J236" s="68"/>
       <c r="K236" s="68"/>
     </row>
-    <row r="237" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="237" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A237" s="66"/>
       <c r="B237" s="75" t="s">
         <v>245</v>
@@ -14030,7 +14024,7 @@
       <c r="J237" s="68"/>
       <c r="K237" s="68"/>
     </row>
-    <row r="238" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="238" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A238" s="66"/>
       <c r="B238" s="75" t="s">
         <v>246</v>
@@ -14045,7 +14039,7 @@
       <c r="J238" s="68"/>
       <c r="K238" s="68"/>
     </row>
-    <row r="239" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="239" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A239" s="66"/>
       <c r="B239" s="75" t="s">
         <v>247</v>
@@ -14060,7 +14054,7 @@
       <c r="J239" s="68"/>
       <c r="K239" s="68"/>
     </row>
-    <row r="240" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="240" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A240" s="66"/>
       <c r="B240" s="69" t="s">
         <v>248</v>
@@ -14075,7 +14069,7 @@
       <c r="J240" s="68"/>
       <c r="K240" s="68"/>
     </row>
-    <row r="241" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="241" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A241" s="66"/>
       <c r="B241" s="75" t="s">
         <v>249</v>
@@ -14090,7 +14084,7 @@
       <c r="J241" s="68"/>
       <c r="K241" s="68"/>
     </row>
-    <row r="242" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="242" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A242" s="66"/>
       <c r="B242" s="75" t="s">
         <v>250</v>
@@ -14105,7 +14099,7 @@
       <c r="J242" s="68"/>
       <c r="K242" s="68"/>
     </row>
-    <row r="243" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="243" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A243" s="66"/>
       <c r="B243" s="75" t="s">
         <v>251</v>
@@ -14120,7 +14114,7 @@
       <c r="J243" s="68"/>
       <c r="K243" s="68"/>
     </row>
-    <row r="244" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="244" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A244" s="66"/>
       <c r="B244" s="75" t="s">
         <v>252</v>
@@ -14135,7 +14129,7 @@
       <c r="J244" s="68"/>
       <c r="K244" s="68"/>
     </row>
-    <row r="245" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="245" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A245" s="66"/>
       <c r="B245" s="75" t="s">
         <v>253</v>
@@ -14150,7 +14144,7 @@
       <c r="J245" s="68"/>
       <c r="K245" s="68"/>
     </row>
-    <row r="246" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="246" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A246" s="66"/>
       <c r="B246" s="75" t="s">
         <v>254</v>
@@ -14165,7 +14159,7 @@
       <c r="J246" s="68"/>
       <c r="K246" s="68"/>
     </row>
-    <row r="247" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="247" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A247" s="66"/>
       <c r="B247" s="75" t="s">
         <v>255</v>
@@ -14180,7 +14174,7 @@
       <c r="J247" s="68"/>
       <c r="K247" s="68"/>
     </row>
-    <row r="248" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="248" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A248" s="66"/>
       <c r="B248" s="75" t="s">
         <v>256</v>
@@ -14195,7 +14189,7 @@
       <c r="J248" s="68"/>
       <c r="K248" s="68"/>
     </row>
-    <row r="249" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="249" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A249" s="66" t="s">
         <v>257</v>
       </c>
@@ -14212,7 +14206,7 @@
       <c r="J249" s="68"/>
       <c r="K249" s="68"/>
     </row>
-    <row r="250" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="250" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A250" s="66"/>
       <c r="B250" s="67" t="s">
         <v>259</v>
@@ -14227,7 +14221,7 @@
       <c r="J250" s="68"/>
       <c r="K250" s="68"/>
     </row>
-    <row r="251" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="251" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A251" s="66"/>
       <c r="B251" s="69" t="s">
         <v>260</v>
@@ -14242,7 +14236,7 @@
       <c r="J251" s="68"/>
       <c r="K251" s="68"/>
     </row>
-    <row r="252" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="252" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A252" s="66"/>
       <c r="B252" s="69" t="s">
         <v>261</v>
@@ -14257,7 +14251,7 @@
       <c r="J252" s="68"/>
       <c r="K252" s="68"/>
     </row>
-    <row r="253" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="253" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A253" s="66"/>
       <c r="B253" s="69" t="s">
         <v>262</v>
@@ -14272,7 +14266,7 @@
       <c r="J253" s="68"/>
       <c r="K253" s="68"/>
     </row>
-    <row r="254" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="254" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A254" s="66"/>
       <c r="B254" s="67" t="s">
         <v>263</v>
@@ -14287,7 +14281,7 @@
       <c r="J254" s="68"/>
       <c r="K254" s="68"/>
     </row>
-    <row r="255" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="255" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A255" s="66"/>
       <c r="B255" s="69" t="s">
         <v>264</v>
@@ -14302,7 +14296,7 @@
       <c r="J255" s="68"/>
       <c r="K255" s="68"/>
     </row>
-    <row r="256" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="256" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A256" s="66"/>
       <c r="B256" s="69" t="s">
         <v>265</v>
@@ -14317,7 +14311,7 @@
       <c r="J256" s="68"/>
       <c r="K256" s="68"/>
     </row>
-    <row r="257" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="257" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A257" s="66"/>
       <c r="B257" s="69" t="s">
         <v>266</v>
@@ -14332,7 +14326,7 @@
       <c r="J257" s="68"/>
       <c r="K257" s="68"/>
     </row>
-    <row r="258" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="258" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A258" s="66"/>
       <c r="B258" s="69" t="s">
         <v>267</v>
@@ -14347,7 +14341,7 @@
       <c r="J258" s="68"/>
       <c r="K258" s="68"/>
     </row>
-    <row r="259" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="259" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A259" s="66"/>
       <c r="B259" s="67" t="s">
         <v>268</v>
@@ -14362,7 +14356,7 @@
       <c r="J259" s="68"/>
       <c r="K259" s="68"/>
     </row>
-    <row r="260" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="260" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A260" s="66"/>
       <c r="B260" s="69" t="s">
         <v>269</v>
@@ -14377,7 +14371,7 @@
       <c r="J260" s="68"/>
       <c r="K260" s="68"/>
     </row>
-    <row r="261" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="261" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A261" s="66"/>
       <c r="B261" s="69" t="s">
         <v>270</v>
@@ -14392,7 +14386,7 @@
       <c r="J261" s="68"/>
       <c r="K261" s="68"/>
     </row>
-    <row r="262" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="262" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A262" s="66"/>
       <c r="B262" s="69" t="s">
         <v>271</v>
@@ -14407,7 +14401,7 @@
       <c r="J262" s="68"/>
       <c r="K262" s="68"/>
     </row>
-    <row r="263" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="263" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A263" s="66"/>
       <c r="B263" s="69" t="s">
         <v>272</v>
@@ -14422,7 +14416,7 @@
       <c r="J263" s="68"/>
       <c r="K263" s="68"/>
     </row>
-    <row r="264" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="264" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A264" s="66"/>
       <c r="B264" s="69" t="s">
         <v>273</v>
@@ -14437,7 +14431,7 @@
       <c r="J264" s="68"/>
       <c r="K264" s="68"/>
     </row>
-    <row r="265" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="265" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A265" s="66"/>
       <c r="B265" s="67" t="s">
         <v>274</v>
@@ -14452,7 +14446,7 @@
       <c r="J265" s="68"/>
       <c r="K265" s="68"/>
     </row>
-    <row r="266" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="266" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A266" s="66"/>
       <c r="B266" s="69" t="s">
         <v>275</v>
@@ -14467,7 +14461,7 @@
       <c r="J266" s="68"/>
       <c r="K266" s="68"/>
     </row>
-    <row r="267" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="267" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A267" s="66"/>
       <c r="B267" s="69" t="s">
         <v>276</v>
@@ -14482,7 +14476,7 @@
       <c r="J267" s="68"/>
       <c r="K267" s="68"/>
     </row>
-    <row r="268" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="268" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A268" s="66"/>
       <c r="B268" s="69" t="s">
         <v>277</v>
@@ -14497,7 +14491,7 @@
       <c r="J268" s="68"/>
       <c r="K268" s="68"/>
     </row>
-    <row r="269" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="269" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A269" s="66"/>
       <c r="B269" s="69" t="s">
         <v>278</v>
@@ -14512,7 +14506,7 @@
       <c r="J269" s="68"/>
       <c r="K269" s="68"/>
     </row>
-    <row r="270" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="270" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A270" s="66"/>
       <c r="B270" s="67" t="s">
         <v>279</v>
@@ -14527,7 +14521,7 @@
       <c r="J270" s="68"/>
       <c r="K270" s="68"/>
     </row>
-    <row r="271" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="271" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A271" s="66"/>
       <c r="B271" s="69" t="s">
         <v>280</v>
@@ -14542,7 +14536,7 @@
       <c r="J271" s="68"/>
       <c r="K271" s="68"/>
     </row>
-    <row r="272" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="272" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A272" s="66"/>
       <c r="B272" s="67" t="s">
         <v>281</v>
@@ -14557,7 +14551,7 @@
       <c r="J272" s="68"/>
       <c r="K272" s="68"/>
     </row>
-    <row r="273" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="273" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A273" s="66"/>
       <c r="B273" s="69" t="s">
         <v>280</v>
@@ -14572,7 +14566,7 @@
       <c r="J273" s="68"/>
       <c r="K273" s="68"/>
     </row>
-    <row r="274" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="274" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A274" s="66"/>
       <c r="B274" s="67" t="s">
         <v>282</v>
@@ -14587,7 +14581,7 @@
       <c r="J274" s="68"/>
       <c r="K274" s="68"/>
     </row>
-    <row r="275" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="275" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A275" s="66"/>
       <c r="B275" s="69" t="s">
         <v>283</v>
@@ -14602,7 +14596,7 @@
       <c r="J275" s="68"/>
       <c r="K275" s="68"/>
     </row>
-    <row r="276" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="276" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A276" s="66"/>
       <c r="B276" s="69" t="s">
         <v>284</v>
@@ -14617,7 +14611,7 @@
       <c r="J276" s="68"/>
       <c r="K276" s="68"/>
     </row>
-    <row r="277" s="63" customFormat="1" ht="33" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="277" s="63" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A277" s="66"/>
       <c r="B277" s="69" t="s">
         <v>285</v>
@@ -14632,7 +14626,7 @@
       <c r="J277" s="68"/>
       <c r="K277" s="68"/>
     </row>
-    <row r="278" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="278" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A278" s="66"/>
       <c r="B278" s="69" t="s">
         <v>286</v>
@@ -14647,7 +14641,7 @@
       <c r="J278" s="68"/>
       <c r="K278" s="68"/>
     </row>
-    <row r="279" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="279" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A279" s="66"/>
       <c r="B279" s="69" t="s">
         <v>287</v>
@@ -14662,7 +14656,7 @@
       <c r="J279" s="68"/>
       <c r="K279" s="68"/>
     </row>
-    <row r="280" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="280" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A280" s="66"/>
       <c r="B280" s="69" t="s">
         <v>288</v>
@@ -14677,7 +14671,7 @@
       <c r="J280" s="68"/>
       <c r="K280" s="68"/>
     </row>
-    <row r="281" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="281" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A281" s="66"/>
       <c r="B281" s="69" t="s">
         <v>289</v>
@@ -14692,7 +14686,7 @@
       <c r="J281" s="68"/>
       <c r="K281" s="68"/>
     </row>
-    <row r="282" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="282" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A282" s="66"/>
       <c r="B282" s="69" t="s">
         <v>290</v>
@@ -14707,7 +14701,7 @@
       <c r="J282" s="68"/>
       <c r="K282" s="68"/>
     </row>
-    <row r="283" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="283" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A283" s="66"/>
       <c r="B283" s="69" t="s">
         <v>291</v>
@@ -14722,7 +14716,7 @@
       <c r="J283" s="68"/>
       <c r="K283" s="68"/>
     </row>
-    <row r="284" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="284" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A284" s="66"/>
       <c r="B284" s="69" t="s">
         <v>292</v>
@@ -14737,7 +14731,7 @@
       <c r="J284" s="68"/>
       <c r="K284" s="68"/>
     </row>
-    <row r="285" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="285" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A285" s="66"/>
       <c r="B285" s="69" t="s">
         <v>293</v>
@@ -14752,7 +14746,7 @@
       <c r="J285" s="68"/>
       <c r="K285" s="68"/>
     </row>
-    <row r="286" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="286" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A286" s="66" t="s">
         <v>294</v>
       </c>
@@ -14769,7 +14763,7 @@
       <c r="J286" s="68"/>
       <c r="K286" s="68"/>
     </row>
-    <row r="287" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="287" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A287" s="66"/>
       <c r="B287" s="69" t="s">
         <v>296</v>
@@ -14784,7 +14778,7 @@
       <c r="J287" s="68"/>
       <c r="K287" s="68"/>
     </row>
-    <row r="288" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="288" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A288" s="66"/>
       <c r="B288" s="69" t="s">
         <v>297</v>
@@ -14799,7 +14793,7 @@
       <c r="J288" s="68"/>
       <c r="K288" s="68"/>
     </row>
-    <row r="289" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="289" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A289" s="66"/>
       <c r="B289" s="69" t="s">
         <v>298</v>
@@ -14814,7 +14808,7 @@
       <c r="J289" s="68"/>
       <c r="K289" s="68"/>
     </row>
-    <row r="290" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="290" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A290" s="66"/>
       <c r="B290" s="69" t="s">
         <v>299</v>
@@ -14829,7 +14823,7 @@
       <c r="J290" s="68"/>
       <c r="K290" s="68"/>
     </row>
-    <row r="291" s="63" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+    <row r="291" s="63" customFormat="1" ht="15.75" customHeight="1" collapsed="1" spans="1:11">
       <c r="A291" s="66" t="s">
         <v>300</v>
       </c>
@@ -19976,7 +19970,7 @@
       <c r="J633" s="68"/>
       <c r="K633" s="68"/>
     </row>
-    <row r="634" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="634" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A634" s="66"/>
       <c r="B634" s="69" t="s">
         <v>640</v>
@@ -19991,7 +19985,7 @@
       <c r="J634" s="68"/>
       <c r="K634" s="68"/>
     </row>
-    <row r="635" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="635" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A635" s="66"/>
       <c r="B635" s="69" t="s">
         <v>641</v>
@@ -20006,7 +20000,7 @@
       <c r="J635" s="68"/>
       <c r="K635" s="68"/>
     </row>
-    <row r="636" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="636" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A636" s="66"/>
       <c r="B636" s="69" t="s">
         <v>642</v>
@@ -20021,7 +20015,7 @@
       <c r="J636" s="68"/>
       <c r="K636" s="68"/>
     </row>
-    <row r="637" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="637" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A637" s="66"/>
       <c r="B637" s="69" t="s">
         <v>643</v>
@@ -20036,7 +20030,7 @@
       <c r="J637" s="68"/>
       <c r="K637" s="68"/>
     </row>
-    <row r="638" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="638" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A638" s="66"/>
       <c r="B638" s="69" t="s">
         <v>644</v>
@@ -20051,7 +20045,7 @@
       <c r="J638" s="68"/>
       <c r="K638" s="68"/>
     </row>
-    <row r="639" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="639" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A639" s="66"/>
       <c r="B639" s="69" t="s">
         <v>645</v>
@@ -20066,7 +20060,7 @@
       <c r="J639" s="68"/>
       <c r="K639" s="68"/>
     </row>
-    <row r="640" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="640" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A640" s="66"/>
       <c r="B640" s="69" t="s">
         <v>646</v>
@@ -20081,7 +20075,7 @@
       <c r="J640" s="68"/>
       <c r="K640" s="68"/>
     </row>
-    <row r="641" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="641" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A641" s="66"/>
       <c r="B641" s="69" t="s">
         <v>647</v>
@@ -20096,7 +20090,7 @@
       <c r="J641" s="68"/>
       <c r="K641" s="68"/>
     </row>
-    <row r="642" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="642" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A642" s="66"/>
       <c r="B642" s="69" t="s">
         <v>648</v>
@@ -20111,7 +20105,7 @@
       <c r="J642" s="68"/>
       <c r="K642" s="68"/>
     </row>
-    <row r="643" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="643" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A643" s="66"/>
       <c r="B643" s="69"/>
       <c r="C643" s="68"/>
@@ -20124,7 +20118,7 @@
       <c r="J643" s="68"/>
       <c r="K643" s="68"/>
     </row>
-    <row r="644" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="644" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A644" s="66"/>
       <c r="B644" s="69"/>
       <c r="C644" s="68"/>
@@ -20137,7 +20131,7 @@
       <c r="J644" s="68"/>
       <c r="K644" s="68"/>
     </row>
-    <row r="645" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="645" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A645" s="66"/>
       <c r="B645" s="67" t="s">
         <v>607</v>
@@ -20152,7 +20146,7 @@
       <c r="J645" s="68"/>
       <c r="K645" s="68"/>
     </row>
-    <row r="646" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="646" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A646" s="66"/>
       <c r="B646" s="67" t="s">
         <v>649</v>
@@ -20167,7 +20161,7 @@
       <c r="J646" s="68"/>
       <c r="K646" s="68"/>
     </row>
-    <row r="647" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="647" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A647" s="66"/>
       <c r="B647" s="69" t="s">
         <v>650</v>
@@ -20182,7 +20176,7 @@
       <c r="J647" s="68"/>
       <c r="K647" s="68"/>
     </row>
-    <row r="648" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="648" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A648" s="66"/>
       <c r="B648" s="69" t="s">
         <v>651</v>
@@ -20197,7 +20191,7 @@
       <c r="J648" s="68"/>
       <c r="K648" s="68"/>
     </row>
-    <row r="649" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="649" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A649" s="66"/>
       <c r="B649" s="67" t="s">
         <v>652</v>
@@ -20212,7 +20206,7 @@
       <c r="J649" s="68"/>
       <c r="K649" s="68"/>
     </row>
-    <row r="650" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="650" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A650" s="66"/>
       <c r="B650" s="69" t="s">
         <v>653</v>
@@ -20227,7 +20221,7 @@
       <c r="J650" s="68"/>
       <c r="K650" s="68"/>
     </row>
-    <row r="651" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="651" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A651" s="66"/>
       <c r="B651" s="69" t="s">
         <v>654</v>
@@ -20242,7 +20236,7 @@
       <c r="J651" s="68"/>
       <c r="K651" s="68"/>
     </row>
-    <row r="652" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="652" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A652" s="66"/>
       <c r="B652" s="69" t="s">
         <v>655</v>
@@ -20257,7 +20251,7 @@
       <c r="J652" s="68"/>
       <c r="K652" s="68"/>
     </row>
-    <row r="653" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="653" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A653" s="66"/>
       <c r="B653" s="69" t="s">
         <v>656</v>
@@ -20272,7 +20266,7 @@
       <c r="J653" s="68"/>
       <c r="K653" s="68"/>
     </row>
-    <row r="654" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="654" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A654" s="66"/>
       <c r="B654" s="67" t="s">
         <v>657</v>
@@ -20287,7 +20281,7 @@
       <c r="J654" s="68"/>
       <c r="K654" s="68"/>
     </row>
-    <row r="655" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="655" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A655" s="66"/>
       <c r="B655" s="67" t="s">
         <v>658</v>
@@ -20302,7 +20296,7 @@
       <c r="J655" s="68"/>
       <c r="K655" s="68"/>
     </row>
-    <row r="656" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="656" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A656" s="66"/>
       <c r="B656" s="67" t="s">
         <v>659</v>
@@ -20317,7 +20311,7 @@
       <c r="J656" s="68"/>
       <c r="K656" s="68"/>
     </row>
-    <row r="657" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="657" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A657" s="66"/>
       <c r="B657" s="69" t="s">
         <v>660</v>
@@ -20332,7 +20326,7 @@
       <c r="J657" s="68"/>
       <c r="K657" s="68"/>
     </row>
-    <row r="658" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="658" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A658" s="66"/>
       <c r="B658" s="69" t="s">
         <v>661</v>
@@ -20347,7 +20341,7 @@
       <c r="J658" s="68"/>
       <c r="K658" s="68"/>
     </row>
-    <row r="659" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="659" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A659" s="66"/>
       <c r="B659" s="69" t="s">
         <v>662</v>
@@ -20362,7 +20356,7 @@
       <c r="J659" s="68"/>
       <c r="K659" s="68"/>
     </row>
-    <row r="660" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="660" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A660" s="66"/>
       <c r="B660" s="69" t="s">
         <v>663</v>
@@ -20377,7 +20371,7 @@
       <c r="J660" s="68"/>
       <c r="K660" s="68"/>
     </row>
-    <row r="661" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="661" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A661" s="66"/>
       <c r="B661" s="69" t="s">
         <v>664</v>
@@ -20392,7 +20386,7 @@
       <c r="J661" s="68"/>
       <c r="K661" s="68"/>
     </row>
-    <row r="662" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="662" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A662" s="66"/>
       <c r="B662" s="69" t="s">
         <v>665</v>
@@ -20407,7 +20401,7 @@
       <c r="J662" s="68"/>
       <c r="K662" s="68"/>
     </row>
-    <row r="663" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="663" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A663" s="66"/>
       <c r="B663" s="69" t="s">
         <v>666</v>
@@ -20422,7 +20416,7 @@
       <c r="J663" s="68"/>
       <c r="K663" s="68"/>
     </row>
-    <row r="664" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="664" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A664" s="66"/>
       <c r="B664" s="67" t="s">
         <v>667</v>
@@ -20437,7 +20431,7 @@
       <c r="J664" s="68"/>
       <c r="K664" s="68"/>
     </row>
-    <row r="665" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="665" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A665" s="66"/>
       <c r="B665" s="69" t="s">
         <v>668</v>
@@ -20452,7 +20446,7 @@
       <c r="J665" s="68"/>
       <c r="K665" s="68"/>
     </row>
-    <row r="666" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="666" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A666" s="66"/>
       <c r="B666" s="69" t="s">
         <v>669</v>
@@ -20467,7 +20461,7 @@
       <c r="J666" s="68"/>
       <c r="K666" s="68"/>
     </row>
-    <row r="667" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="667" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A667" s="66"/>
       <c r="B667" s="69" t="s">
         <v>670</v>
@@ -20482,7 +20476,7 @@
       <c r="J667" s="68"/>
       <c r="K667" s="68"/>
     </row>
-    <row r="668" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="668" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A668" s="66"/>
       <c r="B668" s="69" t="s">
         <v>671</v>
@@ -20497,7 +20491,7 @@
       <c r="J668" s="68"/>
       <c r="K668" s="68"/>
     </row>
-    <row r="669" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="669" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A669" s="66"/>
       <c r="B669" s="69" t="s">
         <v>672</v>
@@ -20512,7 +20506,7 @@
       <c r="J669" s="68"/>
       <c r="K669" s="68"/>
     </row>
-    <row r="670" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="670" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A670" s="66"/>
       <c r="B670" s="69" t="s">
         <v>673</v>
@@ -20527,7 +20521,7 @@
       <c r="J670" s="68"/>
       <c r="K670" s="68"/>
     </row>
-    <row r="671" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="671" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A671" s="66"/>
       <c r="B671" s="67" t="s">
         <v>674</v>
@@ -20542,7 +20536,7 @@
       <c r="J671" s="68"/>
       <c r="K671" s="68"/>
     </row>
-    <row r="672" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="672" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A672" s="66"/>
       <c r="B672" s="69" t="s">
         <v>675</v>
@@ -20557,7 +20551,7 @@
       <c r="J672" s="68"/>
       <c r="K672" s="68"/>
     </row>
-    <row r="673" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="673" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A673" s="66"/>
       <c r="B673" s="69" t="s">
         <v>676</v>
@@ -20572,7 +20566,7 @@
       <c r="J673" s="68"/>
       <c r="K673" s="68"/>
     </row>
-    <row r="674" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="674" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A674" s="66"/>
       <c r="B674" s="69" t="s">
         <v>677</v>
@@ -20587,7 +20581,7 @@
       <c r="J674" s="68"/>
       <c r="K674" s="68"/>
     </row>
-    <row r="675" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="675" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A675" s="66"/>
       <c r="B675" s="69" t="s">
         <v>678</v>
@@ -20602,7 +20596,7 @@
       <c r="J675" s="68"/>
       <c r="K675" s="68"/>
     </row>
-    <row r="676" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="676" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A676" s="66"/>
       <c r="B676" s="69" t="s">
         <v>679</v>
@@ -20617,7 +20611,7 @@
       <c r="J676" s="68"/>
       <c r="K676" s="68"/>
     </row>
-    <row r="677" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="677" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A677" s="66"/>
       <c r="B677" s="69" t="s">
         <v>680</v>
@@ -20632,7 +20626,7 @@
       <c r="J677" s="68"/>
       <c r="K677" s="68"/>
     </row>
-    <row r="678" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="678" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A678" s="66"/>
       <c r="B678" s="67" t="s">
         <v>681</v>
@@ -20647,7 +20641,7 @@
       <c r="J678" s="68"/>
       <c r="K678" s="68"/>
     </row>
-    <row r="679" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="679" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A679" s="66"/>
       <c r="B679" s="69" t="s">
         <v>682</v>
@@ -20662,7 +20656,7 @@
       <c r="J679" s="68"/>
       <c r="K679" s="68"/>
     </row>
-    <row r="680" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="680" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A680" s="66"/>
       <c r="B680" s="69" t="s">
         <v>683</v>
@@ -20677,7 +20671,7 @@
       <c r="J680" s="68"/>
       <c r="K680" s="68"/>
     </row>
-    <row r="681" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="681" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A681" s="66"/>
       <c r="B681" s="69" t="s">
         <v>684</v>
@@ -20692,7 +20686,7 @@
       <c r="J681" s="68"/>
       <c r="K681" s="68"/>
     </row>
-    <row r="682" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="682" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A682" s="66" t="s">
         <v>685</v>
       </c>
@@ -20709,7 +20703,7 @@
       <c r="J682" s="68"/>
       <c r="K682" s="68"/>
     </row>
-    <row r="683" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="683" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A683" s="66"/>
       <c r="B683" s="69" t="s">
         <v>687</v>
@@ -20724,7 +20718,7 @@
       <c r="J683" s="68"/>
       <c r="K683" s="68"/>
     </row>
-    <row r="684" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="684" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A684" s="66"/>
       <c r="B684" s="69" t="s">
         <v>688</v>
@@ -20739,7 +20733,7 @@
       <c r="J684" s="68"/>
       <c r="K684" s="68"/>
     </row>
-    <row r="685" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="685" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A685" s="66"/>
       <c r="B685" s="69" t="s">
         <v>689</v>
@@ -20754,7 +20748,7 @@
       <c r="J685" s="68"/>
       <c r="K685" s="68"/>
     </row>
-    <row r="686" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="686" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A686" s="66"/>
       <c r="B686" s="69" t="s">
         <v>690</v>
@@ -20769,7 +20763,7 @@
       <c r="J686" s="68"/>
       <c r="K686" s="68"/>
     </row>
-    <row r="687" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="687" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A687" s="66"/>
       <c r="B687" s="69" t="s">
         <v>691</v>
@@ -20784,7 +20778,7 @@
       <c r="J687" s="68"/>
       <c r="K687" s="68"/>
     </row>
-    <row r="688" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="688" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A688" s="66"/>
       <c r="B688" s="67" t="s">
         <v>692</v>
@@ -20799,7 +20793,7 @@
       <c r="J688" s="68"/>
       <c r="K688" s="68"/>
     </row>
-    <row r="689" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="689" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A689" s="66"/>
       <c r="B689" s="67" t="s">
         <v>693</v>
@@ -20814,7 +20808,7 @@
       <c r="J689" s="68"/>
       <c r="K689" s="68"/>
     </row>
-    <row r="690" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="690" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A690" s="66"/>
       <c r="B690" s="69" t="s">
         <v>694</v>
@@ -20829,7 +20823,7 @@
       <c r="J690" s="68"/>
       <c r="K690" s="68"/>
     </row>
-    <row r="691" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="691" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A691" s="66"/>
       <c r="B691" s="69" t="s">
         <v>695</v>
@@ -20844,7 +20838,7 @@
       <c r="J691" s="68"/>
       <c r="K691" s="68"/>
     </row>
-    <row r="692" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="692" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A692" s="66"/>
       <c r="B692" s="69" t="s">
         <v>696</v>
@@ -20859,7 +20853,7 @@
       <c r="J692" s="68"/>
       <c r="K692" s="68"/>
     </row>
-    <row r="693" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="693" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A693" s="66"/>
       <c r="B693" s="69" t="s">
         <v>697</v>
@@ -20874,7 +20868,7 @@
       <c r="J693" s="68"/>
       <c r="K693" s="68"/>
     </row>
-    <row r="694" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="694" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A694" s="66" t="s">
         <v>698</v>
       </c>
@@ -20891,7 +20885,7 @@
       <c r="J694" s="68"/>
       <c r="K694" s="68"/>
     </row>
-    <row r="695" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="695" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A695" s="66"/>
       <c r="B695" s="67" t="s">
         <v>700</v>
@@ -20906,7 +20900,7 @@
       <c r="J695" s="68"/>
       <c r="K695" s="68"/>
     </row>
-    <row r="696" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="696" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A696" s="66"/>
       <c r="B696" s="69" t="s">
         <v>701</v>
@@ -20921,7 +20915,7 @@
       <c r="J696" s="68"/>
       <c r="K696" s="68"/>
     </row>
-    <row r="697" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="697" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A697" s="66"/>
       <c r="B697" s="69" t="s">
         <v>702</v>
@@ -20936,7 +20930,7 @@
       <c r="J697" s="68"/>
       <c r="K697" s="68"/>
     </row>
-    <row r="698" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="698" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A698" s="66"/>
       <c r="B698" s="69" t="s">
         <v>703</v>
@@ -20951,7 +20945,7 @@
       <c r="J698" s="68"/>
       <c r="K698" s="68"/>
     </row>
-    <row r="699" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="699" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A699" s="66"/>
       <c r="B699" s="67" t="s">
         <v>704</v>
@@ -20966,7 +20960,7 @@
       <c r="J699" s="68"/>
       <c r="K699" s="68"/>
     </row>
-    <row r="700" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="700" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A700" s="66"/>
       <c r="B700" s="69" t="s">
         <v>704</v>
@@ -20981,7 +20975,7 @@
       <c r="J700" s="68"/>
       <c r="K700" s="68"/>
     </row>
-    <row r="701" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="701" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A701" s="66"/>
       <c r="B701" s="69" t="s">
         <v>705</v>
@@ -20996,7 +20990,7 @@
       <c r="J701" s="68"/>
       <c r="K701" s="68"/>
     </row>
-    <row r="702" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="702" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A702" s="66"/>
       <c r="B702" s="69" t="s">
         <v>706</v>
@@ -21011,7 +21005,7 @@
       <c r="J702" s="68"/>
       <c r="K702" s="68"/>
     </row>
-    <row r="703" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="703" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A703" s="66"/>
       <c r="B703" s="69" t="s">
         <v>707</v>
@@ -21026,7 +21020,7 @@
       <c r="J703" s="68"/>
       <c r="K703" s="68"/>
     </row>
-    <row r="704" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="704" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A704" s="66"/>
       <c r="B704" s="69" t="s">
         <v>708</v>
@@ -21041,7 +21035,7 @@
       <c r="J704" s="68"/>
       <c r="K704" s="68"/>
     </row>
-    <row r="705" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="705" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A705" s="66"/>
       <c r="B705" s="69" t="s">
         <v>709</v>
@@ -21056,7 +21050,7 @@
       <c r="J705" s="68"/>
       <c r="K705" s="68"/>
     </row>
-    <row r="706" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="706" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A706" s="66"/>
       <c r="B706" s="67" t="s">
         <v>710</v>
@@ -21071,7 +21065,7 @@
       <c r="J706" s="68"/>
       <c r="K706" s="68"/>
     </row>
-    <row r="707" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="707" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A707" s="66"/>
       <c r="B707" s="69" t="s">
         <v>711</v>
@@ -21086,7 +21080,7 @@
       <c r="J707" s="68"/>
       <c r="K707" s="68"/>
     </row>
-    <row r="708" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="708" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A708" s="66"/>
       <c r="B708" s="69" t="s">
         <v>712</v>
@@ -21101,7 +21095,7 @@
       <c r="J708" s="68"/>
       <c r="K708" s="68"/>
     </row>
-    <row r="709" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="709" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A709" s="66"/>
       <c r="B709" s="69" t="s">
         <v>713</v>
@@ -21116,7 +21110,7 @@
       <c r="J709" s="68"/>
       <c r="K709" s="68"/>
     </row>
-    <row r="710" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="710" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A710" s="66"/>
       <c r="B710" s="69" t="s">
         <v>714</v>
@@ -21131,7 +21125,7 @@
       <c r="J710" s="68"/>
       <c r="K710" s="68"/>
     </row>
-    <row r="711" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="711" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A711" s="66"/>
       <c r="B711" s="69" t="s">
         <v>715</v>
@@ -21146,7 +21140,7 @@
       <c r="J711" s="68"/>
       <c r="K711" s="68"/>
     </row>
-    <row r="712" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="712" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A712" s="66"/>
       <c r="B712" s="69" t="s">
         <v>716</v>
@@ -21161,7 +21155,7 @@
       <c r="J712" s="68"/>
       <c r="K712" s="68"/>
     </row>
-    <row r="713" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="713" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A713" s="66"/>
       <c r="B713" s="69" t="s">
         <v>717</v>
@@ -21176,7 +21170,7 @@
       <c r="J713" s="68"/>
       <c r="K713" s="68"/>
     </row>
-    <row r="714" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="714" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A714" s="66"/>
       <c r="B714" s="69" t="s">
         <v>718</v>
@@ -21191,7 +21185,7 @@
       <c r="J714" s="68"/>
       <c r="K714" s="68"/>
     </row>
-    <row r="715" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="715" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A715" s="66"/>
       <c r="B715" s="69" t="s">
         <v>719</v>
@@ -21206,7 +21200,7 @@
       <c r="J715" s="68"/>
       <c r="K715" s="68"/>
     </row>
-    <row r="716" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="716" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A716" s="66"/>
       <c r="B716" s="69" t="s">
         <v>720</v>
@@ -21221,7 +21215,7 @@
       <c r="J716" s="68"/>
       <c r="K716" s="68"/>
     </row>
-    <row r="717" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="717" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A717" s="66"/>
       <c r="B717" s="69" t="s">
         <v>721</v>
@@ -21236,7 +21230,7 @@
       <c r="J717" s="68"/>
       <c r="K717" s="68"/>
     </row>
-    <row r="718" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="718" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A718" s="66" t="s">
         <v>722</v>
       </c>
@@ -21253,7 +21247,7 @@
       <c r="J718" s="68"/>
       <c r="K718" s="68"/>
     </row>
-    <row r="719" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="719" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A719" s="66"/>
       <c r="B719" s="67" t="s">
         <v>724</v>
@@ -21268,7 +21262,7 @@
       <c r="J719" s="68"/>
       <c r="K719" s="68"/>
     </row>
-    <row r="720" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="720" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A720" s="66"/>
       <c r="B720" s="69" t="s">
         <v>725</v>
@@ -21283,7 +21277,7 @@
       <c r="J720" s="68"/>
       <c r="K720" s="68"/>
     </row>
-    <row r="721" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="721" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A721" s="66"/>
       <c r="B721" s="69" t="s">
         <v>726</v>
@@ -21298,7 +21292,7 @@
       <c r="J721" s="68"/>
       <c r="K721" s="68"/>
     </row>
-    <row r="722" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="722" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A722" s="66"/>
       <c r="B722" s="69" t="s">
         <v>727</v>
@@ -21313,7 +21307,7 @@
       <c r="J722" s="68"/>
       <c r="K722" s="68"/>
     </row>
-    <row r="723" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="723" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A723" s="66"/>
       <c r="B723" s="67" t="s">
         <v>728</v>
@@ -21328,7 +21322,7 @@
       <c r="J723" s="68"/>
       <c r="K723" s="68"/>
     </row>
-    <row r="724" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="724" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A724" s="66"/>
       <c r="B724" s="69" t="s">
         <v>729</v>
@@ -21343,7 +21337,7 @@
       <c r="J724" s="68"/>
       <c r="K724" s="68"/>
     </row>
-    <row r="725" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="725" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A725" s="66"/>
       <c r="B725" s="69" t="s">
         <v>730</v>
@@ -21358,7 +21352,7 @@
       <c r="J725" s="68"/>
       <c r="K725" s="68"/>
     </row>
-    <row r="726" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="726" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A726" s="66"/>
       <c r="B726" s="69" t="s">
         <v>731</v>
@@ -21373,7 +21367,7 @@
       <c r="J726" s="68"/>
       <c r="K726" s="68"/>
     </row>
-    <row r="727" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="727" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A727" s="66"/>
       <c r="B727" s="67" t="s">
         <v>732</v>
@@ -21388,7 +21382,7 @@
       <c r="J727" s="68"/>
       <c r="K727" s="68"/>
     </row>
-    <row r="728" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="728" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A728" s="66"/>
       <c r="B728" s="69" t="s">
         <v>733</v>
@@ -21403,7 +21397,7 @@
       <c r="J728" s="68"/>
       <c r="K728" s="68"/>
     </row>
-    <row r="729" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="729" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A729" s="66"/>
       <c r="B729" s="69" t="s">
         <v>734</v>
@@ -21418,7 +21412,7 @@
       <c r="J729" s="68"/>
       <c r="K729" s="68"/>
     </row>
-    <row r="730" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="730" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A730" s="66"/>
       <c r="B730" s="69" t="s">
         <v>735</v>
@@ -21433,7 +21427,7 @@
       <c r="J730" s="68"/>
       <c r="K730" s="68"/>
     </row>
-    <row r="731" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="731" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A731" s="66"/>
       <c r="B731" s="69" t="s">
         <v>736</v>
@@ -21448,7 +21442,7 @@
       <c r="J731" s="68"/>
       <c r="K731" s="68"/>
     </row>
-    <row r="732" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="732" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A732" s="66"/>
       <c r="B732" s="67" t="s">
         <v>737</v>
@@ -21463,7 +21457,7 @@
       <c r="J732" s="68"/>
       <c r="K732" s="68"/>
     </row>
-    <row r="733" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="733" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A733" s="66"/>
       <c r="B733" s="67" t="s">
         <v>738</v>
@@ -21478,7 +21472,7 @@
       <c r="J733" s="68"/>
       <c r="K733" s="68"/>
     </row>
-    <row r="734" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="734" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A734" s="66"/>
       <c r="B734" s="69" t="s">
         <v>739</v>
@@ -21493,7 +21487,7 @@
       <c r="J734" s="68"/>
       <c r="K734" s="68"/>
     </row>
-    <row r="735" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="735" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A735" s="66"/>
       <c r="B735" s="69" t="s">
         <v>740</v>
@@ -21508,7 +21502,7 @@
       <c r="J735" s="68"/>
       <c r="K735" s="68"/>
     </row>
-    <row r="736" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="736" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A736" s="66" t="s">
         <v>741</v>
       </c>
@@ -21525,7 +21519,7 @@
       <c r="J736" s="68"/>
       <c r="K736" s="68"/>
     </row>
-    <row r="737" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="737" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A737" s="66"/>
       <c r="B737" s="67" t="s">
         <v>743</v>
@@ -21540,7 +21534,7 @@
       <c r="J737" s="68"/>
       <c r="K737" s="68"/>
     </row>
-    <row r="738" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="738" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A738" s="66"/>
       <c r="B738" s="69" t="s">
         <v>744</v>
@@ -21555,7 +21549,7 @@
       <c r="J738" s="68"/>
       <c r="K738" s="68"/>
     </row>
-    <row r="739" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="739" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A739" s="66"/>
       <c r="B739" s="69" t="s">
         <v>745</v>
@@ -21570,7 +21564,7 @@
       <c r="J739" s="68"/>
       <c r="K739" s="68"/>
     </row>
-    <row r="740" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="740" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A740" s="66"/>
       <c r="B740" s="69" t="s">
         <v>746</v>
@@ -21585,7 +21579,7 @@
       <c r="J740" s="68"/>
       <c r="K740" s="68"/>
     </row>
-    <row r="741" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="741" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A741" s="66"/>
       <c r="B741" s="67" t="s">
         <v>747</v>
@@ -21600,7 +21594,7 @@
       <c r="J741" s="68"/>
       <c r="K741" s="68"/>
     </row>
-    <row r="742" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="742" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A742" s="66"/>
       <c r="B742" s="69" t="s">
         <v>748</v>
@@ -21615,7 +21609,7 @@
       <c r="J742" s="68"/>
       <c r="K742" s="68"/>
     </row>
-    <row r="743" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="743" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A743" s="66"/>
       <c r="B743" s="69" t="s">
         <v>749</v>
@@ -21630,7 +21624,7 @@
       <c r="J743" s="68"/>
       <c r="K743" s="68"/>
     </row>
-    <row r="744" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="744" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A744" s="66"/>
       <c r="B744" s="69" t="s">
         <v>750</v>
@@ -21645,7 +21639,7 @@
       <c r="J744" s="68"/>
       <c r="K744" s="68"/>
     </row>
-    <row r="745" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="745" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A745" s="66"/>
       <c r="B745" s="69" t="s">
         <v>751</v>
@@ -21660,7 +21654,7 @@
       <c r="J745" s="68"/>
       <c r="K745" s="68"/>
     </row>
-    <row r="746" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="746" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A746" s="66"/>
       <c r="B746" s="67" t="s">
         <v>752</v>
@@ -21675,7 +21669,7 @@
       <c r="J746" s="68"/>
       <c r="K746" s="68"/>
     </row>
-    <row r="747" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="747" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A747" s="66"/>
       <c r="B747" s="69" t="s">
         <v>753</v>
@@ -21690,7 +21684,7 @@
       <c r="J747" s="68"/>
       <c r="K747" s="68"/>
     </row>
-    <row r="748" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="748" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A748" s="66"/>
       <c r="B748" s="69" t="s">
         <v>754</v>
@@ -21705,7 +21699,7 @@
       <c r="J748" s="68"/>
       <c r="K748" s="68"/>
     </row>
-    <row r="749" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="749" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A749" s="66"/>
       <c r="B749" s="69" t="s">
         <v>755</v>
@@ -21720,7 +21714,7 @@
       <c r="J749" s="68"/>
       <c r="K749" s="68"/>
     </row>
-    <row r="750" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="750" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A750" s="66"/>
       <c r="B750" s="69" t="s">
         <v>756</v>
@@ -21735,7 +21729,7 @@
       <c r="J750" s="68"/>
       <c r="K750" s="68"/>
     </row>
-    <row r="751" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="751" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A751" s="66"/>
       <c r="B751" s="69" t="s">
         <v>757</v>
@@ -21750,7 +21744,7 @@
       <c r="J751" s="68"/>
       <c r="K751" s="68"/>
     </row>
-    <row r="752" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="752" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A752" s="66" t="s">
         <v>758</v>
       </c>
@@ -21767,7 +21761,7 @@
       <c r="J752" s="68"/>
       <c r="K752" s="68"/>
     </row>
-    <row r="753" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="753" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A753" s="77"/>
       <c r="B753" s="69" t="s">
         <v>760</v>
@@ -21782,7 +21776,7 @@
       <c r="J753" s="68"/>
       <c r="K753" s="68"/>
     </row>
-    <row r="754" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="754" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A754" s="66"/>
       <c r="B754" s="67" t="s">
         <v>761</v>
@@ -21797,7 +21791,7 @@
       <c r="J754" s="68"/>
       <c r="K754" s="68"/>
     </row>
-    <row r="755" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="755" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A755" s="66"/>
       <c r="B755" s="67" t="s">
         <v>762</v>
@@ -21812,7 +21806,7 @@
       <c r="J755" s="68"/>
       <c r="K755" s="68"/>
     </row>
-    <row r="756" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="756" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A756" s="66"/>
       <c r="B756" s="69" t="s">
         <v>763</v>
@@ -21827,7 +21821,7 @@
       <c r="J756" s="68"/>
       <c r="K756" s="68"/>
     </row>
-    <row r="757" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="757" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A757" s="66"/>
       <c r="B757" s="69" t="s">
         <v>764</v>
@@ -21842,7 +21836,7 @@
       <c r="J757" s="68"/>
       <c r="K757" s="68"/>
     </row>
-    <row r="758" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="758" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A758" s="66"/>
       <c r="B758" s="69" t="s">
         <v>765</v>
@@ -21857,7 +21851,7 @@
       <c r="J758" s="68"/>
       <c r="K758" s="68"/>
     </row>
-    <row r="759" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="759" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A759" s="66"/>
       <c r="B759" s="69" t="s">
         <v>766</v>
@@ -21872,7 +21866,7 @@
       <c r="J759" s="68"/>
       <c r="K759" s="68"/>
     </row>
-    <row r="760" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="760" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A760" s="66"/>
       <c r="B760" s="69" t="s">
         <v>767</v>
@@ -21887,7 +21881,7 @@
       <c r="J760" s="68"/>
       <c r="K760" s="68"/>
     </row>
-    <row r="761" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="761" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A761" s="66"/>
       <c r="B761" s="69" t="s">
         <v>768</v>
@@ -21902,7 +21896,7 @@
       <c r="J761" s="68"/>
       <c r="K761" s="68"/>
     </row>
-    <row r="762" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="762" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A762" s="66"/>
       <c r="B762" s="69" t="s">
         <v>769</v>
@@ -21917,7 +21911,7 @@
       <c r="J762" s="68"/>
       <c r="K762" s="68"/>
     </row>
-    <row r="763" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="763" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A763" s="66"/>
       <c r="B763" s="69" t="s">
         <v>770</v>
@@ -21932,7 +21926,7 @@
       <c r="J763" s="68"/>
       <c r="K763" s="68"/>
     </row>
-    <row r="764" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="764" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A764" s="66"/>
       <c r="B764" s="69" t="s">
         <v>771</v>
@@ -21947,7 +21941,7 @@
       <c r="J764" s="68"/>
       <c r="K764" s="68"/>
     </row>
-    <row r="765" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="765" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A765" s="66"/>
       <c r="B765" s="69" t="s">
         <v>772</v>
@@ -21962,7 +21956,7 @@
       <c r="J765" s="68"/>
       <c r="K765" s="68"/>
     </row>
-    <row r="766" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="766" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A766" s="66"/>
       <c r="B766" s="69" t="s">
         <v>773</v>
@@ -21977,7 +21971,7 @@
       <c r="J766" s="68"/>
       <c r="K766" s="68"/>
     </row>
-    <row r="767" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="767" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A767" s="66"/>
       <c r="B767" s="69" t="s">
         <v>774</v>
@@ -21992,7 +21986,7 @@
       <c r="J767" s="68"/>
       <c r="K767" s="68"/>
     </row>
-    <row r="768" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="768" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A768" s="66"/>
       <c r="B768" s="67" t="s">
         <v>775</v>
@@ -22007,7 +22001,7 @@
       <c r="J768" s="68"/>
       <c r="K768" s="68"/>
     </row>
-    <row r="769" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="769" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A769" s="66"/>
       <c r="B769" s="69" t="s">
         <v>776</v>
@@ -22022,7 +22016,7 @@
       <c r="J769" s="68"/>
       <c r="K769" s="68"/>
     </row>
-    <row r="770" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="770" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A770" s="66"/>
       <c r="B770" s="69" t="s">
         <v>777</v>
@@ -22037,7 +22031,7 @@
       <c r="J770" s="68"/>
       <c r="K770" s="68"/>
     </row>
-    <row r="771" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="771" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A771" s="66"/>
       <c r="B771" s="67" t="s">
         <v>778</v>
@@ -22052,7 +22046,7 @@
       <c r="J771" s="68"/>
       <c r="K771" s="68"/>
     </row>
-    <row r="772" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="772" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A772" s="66"/>
       <c r="B772" s="69" t="s">
         <v>779</v>
@@ -22067,7 +22061,7 @@
       <c r="J772" s="68"/>
       <c r="K772" s="68"/>
     </row>
-    <row r="773" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="773" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A773" s="66"/>
       <c r="B773" s="69" t="s">
         <v>780</v>
@@ -22082,7 +22076,7 @@
       <c r="J773" s="68"/>
       <c r="K773" s="68"/>
     </row>
-    <row r="774" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="774" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A774" s="66"/>
       <c r="B774" s="69" t="s">
         <v>781</v>
@@ -22097,7 +22091,7 @@
       <c r="J774" s="68"/>
       <c r="K774" s="68"/>
     </row>
-    <row r="775" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="775" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A775" s="66"/>
       <c r="B775" s="67" t="s">
         <v>782</v>
@@ -22112,7 +22106,7 @@
       <c r="J775" s="68"/>
       <c r="K775" s="68"/>
     </row>
-    <row r="776" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="776" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A776" s="66"/>
       <c r="B776" s="69" t="s">
         <v>783</v>
@@ -22127,7 +22121,7 @@
       <c r="J776" s="68"/>
       <c r="K776" s="68"/>
     </row>
-    <row r="777" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="777" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A777" s="66"/>
       <c r="B777" s="69" t="s">
         <v>784</v>
@@ -22142,7 +22136,7 @@
       <c r="J777" s="68"/>
       <c r="K777" s="68"/>
     </row>
-    <row r="778" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="778" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A778" s="66"/>
       <c r="B778" s="69" t="s">
         <v>785</v>
@@ -22157,7 +22151,7 @@
       <c r="J778" s="68"/>
       <c r="K778" s="68"/>
     </row>
-    <row r="779" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="779" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A779" s="66"/>
       <c r="B779" s="67" t="s">
         <v>786</v>
@@ -22172,7 +22166,7 @@
       <c r="J779" s="68"/>
       <c r="K779" s="68"/>
     </row>
-    <row r="780" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="780" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A780" s="66" t="s">
         <v>787</v>
       </c>
@@ -22189,7 +22183,7 @@
       <c r="J780" s="68"/>
       <c r="K780" s="68"/>
     </row>
-    <row r="781" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="781" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A781" s="66"/>
       <c r="B781" s="67" t="s">
         <v>789</v>
@@ -22204,7 +22198,7 @@
       <c r="J781" s="68"/>
       <c r="K781" s="68"/>
     </row>
-    <row r="782" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="782" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A782" s="66"/>
       <c r="B782" s="69" t="s">
         <v>790</v>
@@ -22219,7 +22213,7 @@
       <c r="J782" s="68"/>
       <c r="K782" s="68"/>
     </row>
-    <row r="783" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="783" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A783" s="66"/>
       <c r="B783" s="69" t="s">
         <v>791</v>
@@ -22234,7 +22228,7 @@
       <c r="J783" s="68"/>
       <c r="K783" s="68"/>
     </row>
-    <row r="784" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="784" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A784" s="66"/>
       <c r="B784" s="69" t="s">
         <v>792</v>
@@ -22249,7 +22243,7 @@
       <c r="J784" s="68"/>
       <c r="K784" s="68"/>
     </row>
-    <row r="785" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="785" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A785" s="66"/>
       <c r="B785" s="69" t="s">
         <v>793</v>
@@ -22264,7 +22258,7 @@
       <c r="J785" s="68"/>
       <c r="K785" s="68"/>
     </row>
-    <row r="786" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="786" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A786" s="66"/>
       <c r="B786" s="69" t="s">
         <v>794</v>
@@ -22279,7 +22273,7 @@
       <c r="J786" s="68"/>
       <c r="K786" s="68"/>
     </row>
-    <row r="787" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="787" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A787" s="66"/>
       <c r="B787" s="69" t="s">
         <v>139</v>
@@ -22294,7 +22288,7 @@
       <c r="J787" s="68"/>
       <c r="K787" s="68"/>
     </row>
-    <row r="788" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="788" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A788" s="66"/>
       <c r="B788" s="69" t="s">
         <v>795</v>
@@ -22309,7 +22303,7 @@
       <c r="J788" s="68"/>
       <c r="K788" s="68"/>
     </row>
-    <row r="789" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="789" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A789" s="66"/>
       <c r="B789" s="69" t="s">
         <v>796</v>
@@ -22324,7 +22318,7 @@
       <c r="J789" s="68"/>
       <c r="K789" s="68"/>
     </row>
-    <row r="790" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="790" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A790" s="66"/>
       <c r="B790" s="69" t="s">
         <v>797</v>
@@ -22339,7 +22333,7 @@
       <c r="J790" s="68"/>
       <c r="K790" s="68"/>
     </row>
-    <row r="791" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="791" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A791" s="66"/>
       <c r="B791" s="69" t="s">
         <v>798</v>
@@ -22354,7 +22348,7 @@
       <c r="J791" s="68"/>
       <c r="K791" s="68"/>
     </row>
-    <row r="792" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="792" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A792" s="66"/>
       <c r="B792" s="67" t="s">
         <v>799</v>
@@ -22369,7 +22363,7 @@
       <c r="J792" s="68"/>
       <c r="K792" s="68"/>
     </row>
-    <row r="793" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="793" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A793" s="66"/>
       <c r="B793" s="69" t="s">
         <v>800</v>
@@ -22384,7 +22378,7 @@
       <c r="J793" s="68"/>
       <c r="K793" s="68"/>
     </row>
-    <row r="794" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="794" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A794" s="66"/>
       <c r="B794" s="69" t="s">
         <v>801</v>
@@ -22399,7 +22393,7 @@
       <c r="J794" s="68"/>
       <c r="K794" s="68"/>
     </row>
-    <row r="795" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="795" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A795" s="66"/>
       <c r="B795" s="67" t="s">
         <v>802</v>
@@ -22414,7 +22408,7 @@
       <c r="J795" s="68"/>
       <c r="K795" s="68"/>
     </row>
-    <row r="796" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="796" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A796" s="66"/>
       <c r="B796" s="67" t="s">
         <v>803</v>
@@ -22429,7 +22423,7 @@
       <c r="J796" s="68"/>
       <c r="K796" s="68"/>
     </row>
-    <row r="797" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="797" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A797" s="66"/>
       <c r="B797" s="67" t="s">
         <v>804</v>
@@ -22444,7 +22438,7 @@
       <c r="J797" s="68"/>
       <c r="K797" s="68"/>
     </row>
-    <row r="798" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="798" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A798" s="66"/>
       <c r="B798" s="69" t="s">
         <v>805</v>
@@ -22459,7 +22453,7 @@
       <c r="J798" s="68"/>
       <c r="K798" s="68"/>
     </row>
-    <row r="799" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="799" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A799" s="66" t="s">
         <v>806</v>
       </c>
@@ -22476,7 +22470,7 @@
       <c r="J799" s="68"/>
       <c r="K799" s="68"/>
     </row>
-    <row r="800" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="800" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A800" s="66"/>
       <c r="B800" s="67" t="s">
         <v>808</v>
@@ -22491,7 +22485,7 @@
       <c r="J800" s="68"/>
       <c r="K800" s="68"/>
     </row>
-    <row r="801" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="801" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A801" s="66"/>
       <c r="B801" s="69" t="s">
         <v>809</v>
@@ -22506,7 +22500,7 @@
       <c r="J801" s="68"/>
       <c r="K801" s="68"/>
     </row>
-    <row r="802" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="802" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A802" s="66"/>
       <c r="B802" s="69" t="s">
         <v>810</v>
@@ -22521,7 +22515,7 @@
       <c r="J802" s="68"/>
       <c r="K802" s="68"/>
     </row>
-    <row r="803" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="803" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A803" s="66"/>
       <c r="B803" s="69" t="s">
         <v>811</v>
@@ -22536,7 +22530,7 @@
       <c r="J803" s="68"/>
       <c r="K803" s="68"/>
     </row>
-    <row r="804" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="804" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A804" s="66"/>
       <c r="B804" s="69" t="s">
         <v>812</v>
@@ -22551,7 +22545,7 @@
       <c r="J804" s="68"/>
       <c r="K804" s="68"/>
     </row>
-    <row r="805" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="805" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A805" s="66"/>
       <c r="B805" s="67" t="s">
         <v>813</v>
@@ -22566,7 +22560,7 @@
       <c r="J805" s="68"/>
       <c r="K805" s="68"/>
     </row>
-    <row r="806" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="806" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A806" s="66"/>
       <c r="B806" s="69" t="s">
         <v>814</v>
@@ -22581,7 +22575,7 @@
       <c r="J806" s="68"/>
       <c r="K806" s="68"/>
     </row>
-    <row r="807" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="807" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A807" s="66"/>
       <c r="B807" s="69" t="s">
         <v>815</v>
@@ -22596,7 +22590,7 @@
       <c r="J807" s="68"/>
       <c r="K807" s="68"/>
     </row>
-    <row r="808" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="808" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A808" s="66"/>
       <c r="B808" s="69" t="s">
         <v>816</v>
@@ -22611,7 +22605,7 @@
       <c r="J808" s="68"/>
       <c r="K808" s="68"/>
     </row>
-    <row r="809" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="809" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A809" s="66"/>
       <c r="B809" s="69" t="s">
         <v>817</v>
@@ -22626,7 +22620,7 @@
       <c r="J809" s="68"/>
       <c r="K809" s="68"/>
     </row>
-    <row r="810" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="810" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A810" s="66"/>
       <c r="B810" s="69" t="s">
         <v>818</v>
@@ -22641,7 +22635,7 @@
       <c r="J810" s="68"/>
       <c r="K810" s="68"/>
     </row>
-    <row r="811" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="811" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A811" s="66"/>
       <c r="B811" s="67" t="s">
         <v>819</v>
@@ -22656,7 +22650,7 @@
       <c r="J811" s="68"/>
       <c r="K811" s="68"/>
     </row>
-    <row r="812" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="812" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A812" s="66"/>
       <c r="B812" s="69" t="s">
         <v>820</v>
@@ -22671,7 +22665,7 @@
       <c r="J812" s="68"/>
       <c r="K812" s="68"/>
     </row>
-    <row r="813" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="813" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A813" s="66"/>
       <c r="B813" s="69" t="s">
         <v>821</v>
@@ -22686,7 +22680,7 @@
       <c r="J813" s="68"/>
       <c r="K813" s="68"/>
     </row>
-    <row r="814" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="814" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A814" s="66"/>
       <c r="B814" s="69" t="s">
         <v>822</v>
@@ -22701,7 +22695,7 @@
       <c r="J814" s="68"/>
       <c r="K814" s="68"/>
     </row>
-    <row r="815" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="815" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A815" s="66"/>
       <c r="B815" s="69" t="s">
         <v>823</v>
@@ -22716,7 +22710,7 @@
       <c r="J815" s="68"/>
       <c r="K815" s="68"/>
     </row>
-    <row r="816" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="816" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A816" s="66"/>
       <c r="B816" s="69" t="s">
         <v>824</v>
@@ -22731,7 +22725,7 @@
       <c r="J816" s="68"/>
       <c r="K816" s="68"/>
     </row>
-    <row r="817" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="817" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A817" s="66"/>
       <c r="B817" s="69" t="s">
         <v>825</v>
@@ -22746,7 +22740,7 @@
       <c r="J817" s="68"/>
       <c r="K817" s="68"/>
     </row>
-    <row r="818" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="818" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A818" s="66" t="s">
         <v>826</v>
       </c>
@@ -22763,7 +22757,7 @@
       <c r="J818" s="68"/>
       <c r="K818" s="68"/>
     </row>
-    <row r="819" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="819" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A819" s="66"/>
       <c r="B819" s="69" t="s">
         <v>827</v>
@@ -22778,7 +22772,7 @@
       <c r="J819" s="68"/>
       <c r="K819" s="68"/>
     </row>
-    <row r="820" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="820" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A820" s="66"/>
       <c r="B820" s="69" t="s">
         <v>828</v>
@@ -22793,7 +22787,7 @@
       <c r="J820" s="68"/>
       <c r="K820" s="68"/>
     </row>
-    <row r="821" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="821" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A821" s="66"/>
       <c r="B821" s="69" t="s">
         <v>829</v>
@@ -22808,7 +22802,7 @@
       <c r="J821" s="68"/>
       <c r="K821" s="68"/>
     </row>
-    <row r="822" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="822" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A822" s="66"/>
       <c r="B822" s="69" t="s">
         <v>830</v>
@@ -22823,7 +22817,7 @@
       <c r="J822" s="68"/>
       <c r="K822" s="68"/>
     </row>
-    <row r="823" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="823" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A823" s="66"/>
       <c r="B823" s="67" t="s">
         <v>831</v>
@@ -22838,7 +22832,7 @@
       <c r="J823" s="68"/>
       <c r="K823" s="68"/>
     </row>
-    <row r="824" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="824" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A824" s="66"/>
       <c r="B824" s="69" t="s">
         <v>832</v>
@@ -22853,7 +22847,7 @@
       <c r="J824" s="68"/>
       <c r="K824" s="68"/>
     </row>
-    <row r="825" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="825" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A825" s="66"/>
       <c r="B825" s="69" t="s">
         <v>833</v>
@@ -22868,7 +22862,7 @@
       <c r="J825" s="68"/>
       <c r="K825" s="68"/>
     </row>
-    <row r="826" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="826" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A826" s="66"/>
       <c r="B826" s="69" t="s">
         <v>834</v>
@@ -22883,7 +22877,7 @@
       <c r="J826" s="68"/>
       <c r="K826" s="68"/>
     </row>
-    <row r="827" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="827" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A827" s="66"/>
       <c r="B827" s="69" t="s">
         <v>835</v>
@@ -22898,7 +22892,7 @@
       <c r="J827" s="68"/>
       <c r="K827" s="68"/>
     </row>
-    <row r="828" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="828" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A828" s="66" t="s">
         <v>836</v>
       </c>
@@ -22915,7 +22909,7 @@
       <c r="J828" s="68"/>
       <c r="K828" s="68"/>
     </row>
-    <row r="829" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="829" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A829" s="66"/>
       <c r="B829" s="66" t="s">
         <v>838</v>
@@ -22930,7 +22924,7 @@
       <c r="J829" s="68"/>
       <c r="K829" s="68"/>
     </row>
-    <row r="830" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="830" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A830" s="66"/>
       <c r="B830" s="66" t="s">
         <v>839</v>
@@ -22945,7 +22939,7 @@
       <c r="J830" s="68"/>
       <c r="K830" s="68"/>
     </row>
-    <row r="831" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="831" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A831" s="66"/>
       <c r="B831" s="66" t="s">
         <v>840</v>
@@ -22960,7 +22954,7 @@
       <c r="J831" s="68"/>
       <c r="K831" s="68"/>
     </row>
-    <row r="832" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="832" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A832" s="66"/>
       <c r="B832" s="66" t="s">
         <v>841</v>
@@ -22975,7 +22969,7 @@
       <c r="J832" s="68"/>
       <c r="K832" s="68"/>
     </row>
-    <row r="833" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="833" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A833" s="66"/>
       <c r="B833" s="66" t="s">
         <v>842</v>
@@ -22990,7 +22984,7 @@
       <c r="J833" s="68"/>
       <c r="K833" s="68"/>
     </row>
-    <row r="834" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="834" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A834" s="66"/>
       <c r="B834" s="66" t="s">
         <v>843</v>
@@ -23005,7 +22999,7 @@
       <c r="J834" s="68"/>
       <c r="K834" s="68"/>
     </row>
-    <row r="835" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="835" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A835" s="66"/>
       <c r="B835" s="66" t="s">
         <v>844</v>
@@ -23020,7 +23014,7 @@
       <c r="J835" s="68"/>
       <c r="K835" s="68"/>
     </row>
-    <row r="836" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="836" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A836" s="66"/>
       <c r="B836" s="66" t="s">
         <v>845</v>
@@ -23035,7 +23029,7 @@
       <c r="J836" s="68"/>
       <c r="K836" s="68"/>
     </row>
-    <row r="837" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="837" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A837" s="66"/>
       <c r="B837" s="66" t="s">
         <v>846</v>
@@ -23050,7 +23044,7 @@
       <c r="J837" s="68"/>
       <c r="K837" s="68"/>
     </row>
-    <row r="838" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="838" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A838" s="66"/>
       <c r="B838" s="66" t="s">
         <v>847</v>
@@ -23065,7 +23059,7 @@
       <c r="J838" s="68"/>
       <c r="K838" s="68"/>
     </row>
-    <row r="839" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="839" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A839" s="66"/>
       <c r="B839" s="66" t="s">
         <v>848</v>
@@ -23080,7 +23074,7 @@
       <c r="J839" s="68"/>
       <c r="K839" s="68"/>
     </row>
-    <row r="840" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="840" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A840" s="66"/>
       <c r="B840" s="66" t="s">
         <v>849</v>
@@ -23095,7 +23089,7 @@
       <c r="J840" s="68"/>
       <c r="K840" s="68"/>
     </row>
-    <row r="841" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="841" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A841" s="66"/>
       <c r="B841" s="66" t="s">
         <v>850</v>
@@ -23110,7 +23104,7 @@
       <c r="J841" s="68"/>
       <c r="K841" s="68"/>
     </row>
-    <row r="842" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="842" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A842" s="66"/>
       <c r="B842" s="66" t="s">
         <v>851</v>
@@ -23125,7 +23119,7 @@
       <c r="J842" s="68"/>
       <c r="K842" s="68"/>
     </row>
-    <row r="843" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="843" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A843" s="66"/>
       <c r="B843" s="66" t="s">
         <v>852</v>
@@ -23140,7 +23134,7 @@
       <c r="J843" s="68"/>
       <c r="K843" s="68"/>
     </row>
-    <row r="844" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="844" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A844" s="66"/>
       <c r="B844" s="66" t="s">
         <v>853</v>
@@ -23155,7 +23149,7 @@
       <c r="J844" s="68"/>
       <c r="K844" s="68"/>
     </row>
-    <row r="845" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="845" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A845" s="66"/>
       <c r="B845" s="66" t="s">
         <v>854</v>
@@ -23170,7 +23164,7 @@
       <c r="J845" s="68"/>
       <c r="K845" s="68"/>
     </row>
-    <row r="846" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="846" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A846" s="66" t="s">
         <v>855</v>
       </c>
@@ -23187,7 +23181,7 @@
       <c r="J846" s="68"/>
       <c r="K846" s="68"/>
     </row>
-    <row r="847" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="847" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A847" s="66"/>
       <c r="B847" s="69" t="s">
         <v>857</v>
@@ -23202,7 +23196,7 @@
       <c r="J847" s="68"/>
       <c r="K847" s="68"/>
     </row>
-    <row r="848" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="848" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A848" s="66"/>
       <c r="B848" s="69" t="s">
         <v>858</v>
@@ -23217,7 +23211,7 @@
       <c r="J848" s="68"/>
       <c r="K848" s="68"/>
     </row>
-    <row r="849" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="849" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A849" s="66"/>
       <c r="B849" s="69" t="s">
         <v>859</v>
@@ -23232,7 +23226,7 @@
       <c r="J849" s="68"/>
       <c r="K849" s="68"/>
     </row>
-    <row r="850" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="850" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A850" s="66"/>
       <c r="B850" s="69" t="s">
         <v>860</v>
@@ -23247,7 +23241,7 @@
       <c r="J850" s="68"/>
       <c r="K850" s="68"/>
     </row>
-    <row r="851" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="851" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A851" s="66"/>
       <c r="B851" s="69" t="s">
         <v>861</v>
@@ -23262,7 +23256,7 @@
       <c r="J851" s="68"/>
       <c r="K851" s="68"/>
     </row>
-    <row r="852" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="852" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A852" s="66"/>
       <c r="B852" s="69" t="s">
         <v>862</v>
@@ -23277,7 +23271,7 @@
       <c r="J852" s="68"/>
       <c r="K852" s="68"/>
     </row>
-    <row r="853" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="853" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A853" s="66"/>
       <c r="B853" s="69" t="s">
         <v>863</v>
@@ -23292,7 +23286,7 @@
       <c r="J853" s="68"/>
       <c r="K853" s="68"/>
     </row>
-    <row r="854" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="854" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A854" s="66"/>
       <c r="B854" s="69" t="s">
         <v>864</v>
@@ -23307,7 +23301,7 @@
       <c r="J854" s="68"/>
       <c r="K854" s="68"/>
     </row>
-    <row r="855" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="855" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A855" s="66"/>
       <c r="B855" s="69" t="s">
         <v>865</v>
@@ -23322,7 +23316,7 @@
       <c r="J855" s="68"/>
       <c r="K855" s="68"/>
     </row>
-    <row r="856" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="856" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A856" s="66"/>
       <c r="B856" s="69" t="s">
         <v>866</v>
@@ -23337,7 +23331,7 @@
       <c r="J856" s="68"/>
       <c r="K856" s="68"/>
     </row>
-    <row r="857" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="857" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A857" s="66"/>
       <c r="B857" s="69" t="s">
         <v>867</v>
@@ -23352,7 +23346,7 @@
       <c r="J857" s="68"/>
       <c r="K857" s="68"/>
     </row>
-    <row r="858" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="858" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A858" s="66"/>
       <c r="B858" s="69" t="s">
         <v>868</v>
@@ -23367,7 +23361,7 @@
       <c r="J858" s="68"/>
       <c r="K858" s="68"/>
     </row>
-    <row r="859" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="859" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A859" s="66"/>
       <c r="B859" s="69" t="s">
         <v>869</v>
@@ -23382,7 +23376,7 @@
       <c r="J859" s="68"/>
       <c r="K859" s="68"/>
     </row>
-    <row r="860" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="860" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A860" s="66"/>
       <c r="B860" s="69" t="s">
         <v>870</v>
@@ -23397,7 +23391,7 @@
       <c r="J860" s="68"/>
       <c r="K860" s="68"/>
     </row>
-    <row r="861" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="861" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A861" s="66"/>
       <c r="B861" s="69" t="s">
         <v>871</v>
@@ -23412,7 +23406,7 @@
       <c r="J861" s="68"/>
       <c r="K861" s="68"/>
     </row>
-    <row r="862" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="862" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A862" s="66"/>
       <c r="B862" s="69" t="s">
         <v>872</v>
@@ -23427,7 +23421,7 @@
       <c r="J862" s="68"/>
       <c r="K862" s="68"/>
     </row>
-    <row r="863" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="863" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A863" s="66"/>
       <c r="B863" s="69" t="s">
         <v>873</v>
@@ -23442,7 +23436,7 @@
       <c r="J863" s="68"/>
       <c r="K863" s="68"/>
     </row>
-    <row r="864" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="864" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A864" s="66"/>
       <c r="B864" s="69" t="s">
         <v>874</v>
@@ -23457,7 +23451,7 @@
       <c r="J864" s="68"/>
       <c r="K864" s="68"/>
     </row>
-    <row r="865" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="865" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A865" s="66"/>
       <c r="B865" s="69" t="s">
         <v>875</v>
@@ -23472,7 +23466,7 @@
       <c r="J865" s="68"/>
       <c r="K865" s="68"/>
     </row>
-    <row r="866" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="866" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A866" s="66"/>
       <c r="B866" s="69" t="s">
         <v>876</v>
@@ -23487,7 +23481,7 @@
       <c r="J866" s="68"/>
       <c r="K866" s="68"/>
     </row>
-    <row r="867" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="867" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A867" s="66"/>
       <c r="B867" s="69" t="s">
         <v>877</v>
@@ -23502,7 +23496,7 @@
       <c r="J867" s="68"/>
       <c r="K867" s="68"/>
     </row>
-    <row r="868" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="868" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A868" s="66"/>
       <c r="B868" s="69" t="s">
         <v>878</v>
@@ -23517,7 +23511,7 @@
       <c r="J868" s="68"/>
       <c r="K868" s="68"/>
     </row>
-    <row r="869" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="869" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A869" s="66"/>
       <c r="B869" s="69" t="s">
         <v>879</v>
@@ -23532,7 +23526,7 @@
       <c r="J869" s="68"/>
       <c r="K869" s="68"/>
     </row>
-    <row r="870" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="870" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A870" s="66"/>
       <c r="B870" s="69" t="s">
         <v>880</v>
@@ -23547,7 +23541,7 @@
       <c r="J870" s="68"/>
       <c r="K870" s="68"/>
     </row>
-    <row r="871" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="871" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A871" s="66" t="s">
         <v>881</v>
       </c>
@@ -23564,7 +23558,7 @@
       <c r="J871" s="68"/>
       <c r="K871" s="68"/>
     </row>
-    <row r="872" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="872" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A872" s="66"/>
       <c r="B872" s="66" t="s">
         <v>883</v>
@@ -23579,7 +23573,7 @@
       <c r="J872" s="68"/>
       <c r="K872" s="68"/>
     </row>
-    <row r="873" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="873" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A873" s="66"/>
       <c r="B873" s="66" t="s">
         <v>884</v>
@@ -23594,7 +23588,7 @@
       <c r="J873" s="68"/>
       <c r="K873" s="68"/>
     </row>
-    <row r="874" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="874" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A874" s="66"/>
       <c r="B874" s="66" t="s">
         <v>885</v>
@@ -23609,7 +23603,7 @@
       <c r="J874" s="68"/>
       <c r="K874" s="68"/>
     </row>
-    <row r="875" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="875" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A875" s="66"/>
       <c r="B875" s="66" t="s">
         <v>886</v>
@@ -23624,7 +23618,7 @@
       <c r="J875" s="68"/>
       <c r="K875" s="68"/>
     </row>
-    <row r="876" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="876" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A876" s="66"/>
       <c r="B876" s="66" t="s">
         <v>887</v>
@@ -23639,7 +23633,7 @@
       <c r="J876" s="68"/>
       <c r="K876" s="68"/>
     </row>
-    <row r="877" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="877" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A877" s="66"/>
       <c r="B877" s="66" t="s">
         <v>888</v>
@@ -23654,7 +23648,7 @@
       <c r="J877" s="68"/>
       <c r="K877" s="68"/>
     </row>
-    <row r="878" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="878" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A878" s="66"/>
       <c r="B878" s="66" t="s">
         <v>887</v>
@@ -23669,7 +23663,7 @@
       <c r="J878" s="68"/>
       <c r="K878" s="68"/>
     </row>
-    <row r="879" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="879" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A879" s="66"/>
       <c r="B879" s="66" t="s">
         <v>889</v>
@@ -23684,7 +23678,7 @@
       <c r="J879" s="68"/>
       <c r="K879" s="68"/>
     </row>
-    <row r="880" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="880" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A880" s="66"/>
       <c r="B880" s="66" t="s">
         <v>890</v>
@@ -23699,7 +23693,7 @@
       <c r="J880" s="68"/>
       <c r="K880" s="68"/>
     </row>
-    <row r="881" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="881" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A881" s="66"/>
       <c r="B881" s="66" t="s">
         <v>891</v>
@@ -23714,7 +23708,7 @@
       <c r="J881" s="68"/>
       <c r="K881" s="68"/>
     </row>
-    <row r="882" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="882" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A882" s="66"/>
       <c r="B882" s="66" t="s">
         <v>892</v>
@@ -23729,7 +23723,7 @@
       <c r="J882" s="68"/>
       <c r="K882" s="68"/>
     </row>
-    <row r="883" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="883" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A883" s="66"/>
       <c r="B883" s="66" t="s">
         <v>893</v>
@@ -23744,7 +23738,7 @@
       <c r="J883" s="68"/>
       <c r="K883" s="68"/>
     </row>
-    <row r="884" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="884" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A884" s="66"/>
       <c r="B884" s="66" t="s">
         <v>894</v>
@@ -23759,7 +23753,7 @@
       <c r="J884" s="68"/>
       <c r="K884" s="68"/>
     </row>
-    <row r="885" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="885" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A885" s="66"/>
       <c r="B885" s="66" t="s">
         <v>895</v>
@@ -23774,7 +23768,7 @@
       <c r="J885" s="68"/>
       <c r="K885" s="68"/>
     </row>
-    <row r="886" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="886" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A886" s="66"/>
       <c r="B886" s="66" t="s">
         <v>896</v>
@@ -23789,7 +23783,7 @@
       <c r="J886" s="68"/>
       <c r="K886" s="68"/>
     </row>
-    <row r="887" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="887" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A887" s="66"/>
       <c r="B887" s="66" t="s">
         <v>897</v>
@@ -23804,7 +23798,7 @@
       <c r="J887" s="68"/>
       <c r="K887" s="68"/>
     </row>
-    <row r="888" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="888" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A888" s="66"/>
       <c r="B888" s="66" t="s">
         <v>448</v>
@@ -23819,7 +23813,7 @@
       <c r="J888" s="68"/>
       <c r="K888" s="68"/>
     </row>
-    <row r="889" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="889" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A889" s="66"/>
       <c r="B889" s="66" t="s">
         <v>898</v>
@@ -23834,7 +23828,7 @@
       <c r="J889" s="68"/>
       <c r="K889" s="68"/>
     </row>
-    <row r="890" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="890" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A890" s="66"/>
       <c r="B890" s="73" t="s">
         <v>899</v>
@@ -23849,7 +23843,7 @@
       <c r="J890" s="68"/>
       <c r="K890" s="68"/>
     </row>
-    <row r="891" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="891" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A891" s="66"/>
       <c r="B891" s="79" t="s">
         <v>900</v>
@@ -23864,7 +23858,7 @@
       <c r="J891" s="68"/>
       <c r="K891" s="68"/>
     </row>
-    <row r="892" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="892" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A892" s="66"/>
       <c r="B892" s="66" t="s">
         <v>901</v>
@@ -23879,7 +23873,7 @@
       <c r="J892" s="68"/>
       <c r="K892" s="68"/>
     </row>
-    <row r="893" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="893" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A893" s="66"/>
       <c r="B893" s="66" t="s">
         <v>902</v>
@@ -23894,7 +23888,7 @@
       <c r="J893" s="68"/>
       <c r="K893" s="68"/>
     </row>
-    <row r="894" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="894" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A894" s="66"/>
       <c r="B894" s="66" t="s">
         <v>903</v>
@@ -23909,7 +23903,7 @@
       <c r="J894" s="68"/>
       <c r="K894" s="68"/>
     </row>
-    <row r="895" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="895" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A895" s="66"/>
       <c r="B895" s="66" t="s">
         <v>904</v>
@@ -23924,7 +23918,7 @@
       <c r="J895" s="68"/>
       <c r="K895" s="68"/>
     </row>
-    <row r="896" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="896" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A896" s="66"/>
       <c r="B896" s="66" t="s">
         <v>905</v>
@@ -23939,7 +23933,7 @@
       <c r="J896" s="68"/>
       <c r="K896" s="68"/>
     </row>
-    <row r="897" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="897" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A897" s="66"/>
       <c r="B897" s="66" t="s">
         <v>906</v>
@@ -23954,7 +23948,7 @@
       <c r="J897" s="68"/>
       <c r="K897" s="68"/>
     </row>
-    <row r="898" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="898" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A898" s="66"/>
       <c r="B898" s="66" t="s">
         <v>907</v>
@@ -23969,7 +23963,7 @@
       <c r="J898" s="68"/>
       <c r="K898" s="68"/>
     </row>
-    <row r="899" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="899" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A899" s="66"/>
       <c r="B899" s="66" t="s">
         <v>908</v>
@@ -23984,7 +23978,7 @@
       <c r="J899" s="68"/>
       <c r="K899" s="68"/>
     </row>
-    <row r="900" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="900" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A900" s="66"/>
       <c r="B900" s="66" t="s">
         <v>886</v>
@@ -23999,7 +23993,7 @@
       <c r="J900" s="68"/>
       <c r="K900" s="68"/>
     </row>
-    <row r="901" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="901" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A901" s="66"/>
       <c r="B901" s="66" t="s">
         <v>909</v>
@@ -24014,7 +24008,7 @@
       <c r="J901" s="68"/>
       <c r="K901" s="68"/>
     </row>
-    <row r="902" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="902" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A902" s="66"/>
       <c r="B902" s="66" t="s">
         <v>910</v>
@@ -24029,7 +24023,7 @@
       <c r="J902" s="68"/>
       <c r="K902" s="68"/>
     </row>
-    <row r="903" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="903" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A903" s="66"/>
       <c r="B903" s="66" t="s">
         <v>911</v>
@@ -24044,7 +24038,7 @@
       <c r="J903" s="68"/>
       <c r="K903" s="68"/>
     </row>
-    <row r="904" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="904" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A904" s="66"/>
       <c r="B904" s="66" t="s">
         <v>912</v>
@@ -24059,7 +24053,7 @@
       <c r="J904" s="68"/>
       <c r="K904" s="68"/>
     </row>
-    <row r="905" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="905" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A905" s="66"/>
       <c r="B905" s="66" t="s">
         <v>895</v>
@@ -24074,7 +24068,7 @@
       <c r="J905" s="68"/>
       <c r="K905" s="68"/>
     </row>
-    <row r="906" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="906" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A906" s="66"/>
       <c r="B906" s="66" t="s">
         <v>913</v>
@@ -24089,7 +24083,7 @@
       <c r="J906" s="68"/>
       <c r="K906" s="68"/>
     </row>
-    <row r="907" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="907" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A907" s="66" t="s">
         <v>914</v>
       </c>
@@ -24106,7 +24100,7 @@
       <c r="J907" s="68"/>
       <c r="K907" s="68"/>
     </row>
-    <row r="908" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="908" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A908" s="66"/>
       <c r="B908" s="66" t="s">
         <v>916</v>
@@ -24121,7 +24115,7 @@
       <c r="J908" s="68"/>
       <c r="K908" s="68"/>
     </row>
-    <row r="909" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="909" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A909" s="66"/>
       <c r="B909" s="66" t="s">
         <v>917</v>
@@ -24136,7 +24130,7 @@
       <c r="J909" s="68"/>
       <c r="K909" s="68"/>
     </row>
-    <row r="910" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="910" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A910" s="66"/>
       <c r="B910" s="66" t="s">
         <v>918</v>
@@ -24151,7 +24145,7 @@
       <c r="J910" s="68"/>
       <c r="K910" s="68"/>
     </row>
-    <row r="911" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="911" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A911" s="66"/>
       <c r="B911" s="66" t="s">
         <v>919</v>
@@ -24166,7 +24160,7 @@
       <c r="J911" s="68"/>
       <c r="K911" s="68"/>
     </row>
-    <row r="912" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="912" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A912" s="66"/>
       <c r="B912" s="66" t="s">
         <v>920</v>
@@ -24181,7 +24175,7 @@
       <c r="J912" s="68"/>
       <c r="K912" s="68"/>
     </row>
-    <row r="913" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="913" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A913" s="66"/>
       <c r="B913" s="66" t="s">
         <v>921</v>
@@ -24196,7 +24190,7 @@
       <c r="J913" s="68"/>
       <c r="K913" s="68"/>
     </row>
-    <row r="914" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="914" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A914" s="66"/>
       <c r="B914" s="66" t="s">
         <v>922</v>
@@ -24211,7 +24205,7 @@
       <c r="J914" s="68"/>
       <c r="K914" s="68"/>
     </row>
-    <row r="915" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="915" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A915" s="66"/>
       <c r="B915" s="66" t="s">
         <v>923</v>
@@ -24226,7 +24220,7 @@
       <c r="J915" s="68"/>
       <c r="K915" s="68"/>
     </row>
-    <row r="916" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="916" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A916" s="66"/>
       <c r="B916" s="66" t="s">
         <v>924</v>
@@ -24241,7 +24235,7 @@
       <c r="J916" s="68"/>
       <c r="K916" s="68"/>
     </row>
-    <row r="917" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="917" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A917" s="66"/>
       <c r="B917" s="66" t="s">
         <v>925</v>
@@ -24256,7 +24250,7 @@
       <c r="J917" s="68"/>
       <c r="K917" s="68"/>
     </row>
-    <row r="918" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="918" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A918" s="66"/>
       <c r="B918" s="66" t="s">
         <v>926</v>
@@ -24271,7 +24265,7 @@
       <c r="J918" s="68"/>
       <c r="K918" s="68"/>
     </row>
-    <row r="919" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="919" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A919" s="66"/>
       <c r="B919" s="66" t="s">
         <v>927</v>
@@ -24286,7 +24280,7 @@
       <c r="J919" s="68"/>
       <c r="K919" s="68"/>
     </row>
-    <row r="920" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="920" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A920" s="66"/>
       <c r="B920" s="66" t="s">
         <v>928</v>
@@ -24301,7 +24295,7 @@
       <c r="J920" s="68"/>
       <c r="K920" s="68"/>
     </row>
-    <row r="921" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="921" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A921" s="66"/>
       <c r="B921" s="66" t="s">
         <v>929</v>
@@ -24316,7 +24310,7 @@
       <c r="J921" s="68"/>
       <c r="K921" s="68"/>
     </row>
-    <row r="922" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="922" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A922" s="66"/>
       <c r="B922" s="66" t="s">
         <v>930</v>
@@ -24331,7 +24325,7 @@
       <c r="J922" s="68"/>
       <c r="K922" s="68"/>
     </row>
-    <row r="923" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="923" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A923" s="66"/>
       <c r="B923" s="66" t="s">
         <v>931</v>
@@ -24346,7 +24340,7 @@
       <c r="J923" s="68"/>
       <c r="K923" s="68"/>
     </row>
-    <row r="924" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="924" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A924" s="66"/>
       <c r="B924" s="66" t="s">
         <v>932</v>
@@ -24361,7 +24355,7 @@
       <c r="J924" s="68"/>
       <c r="K924" s="68"/>
     </row>
-    <row r="925" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="925" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A925" s="66"/>
       <c r="B925" s="66" t="s">
         <v>933</v>
@@ -24376,7 +24370,7 @@
       <c r="J925" s="68"/>
       <c r="K925" s="68"/>
     </row>
-    <row r="926" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="926" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A926" s="66"/>
       <c r="B926" s="66" t="s">
         <v>934</v>
@@ -24391,7 +24385,7 @@
       <c r="J926" s="68"/>
       <c r="K926" s="68"/>
     </row>
-    <row r="927" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="927" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A927" s="66"/>
       <c r="B927" s="66" t="s">
         <v>935</v>
@@ -24406,7 +24400,7 @@
       <c r="J927" s="68"/>
       <c r="K927" s="68"/>
     </row>
-    <row r="928" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="928" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A928" s="66"/>
       <c r="B928" s="66" t="s">
         <v>936</v>
@@ -24421,7 +24415,7 @@
       <c r="J928" s="68"/>
       <c r="K928" s="68"/>
     </row>
-    <row r="929" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="929" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A929" s="66"/>
       <c r="B929" s="66" t="s">
         <v>937</v>
@@ -24436,7 +24430,7 @@
       <c r="J929" s="68"/>
       <c r="K929" s="68"/>
     </row>
-    <row r="930" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="930" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A930" s="66"/>
       <c r="B930" s="66" t="s">
         <v>938</v>
@@ -24451,7 +24445,7 @@
       <c r="J930" s="68"/>
       <c r="K930" s="68"/>
     </row>
-    <row r="931" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="931" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A931" s="66"/>
       <c r="B931" s="66" t="s">
         <v>939</v>
@@ -24466,7 +24460,7 @@
       <c r="J931" s="68"/>
       <c r="K931" s="68"/>
     </row>
-    <row r="932" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="932" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A932" s="66"/>
       <c r="B932" s="66" t="s">
         <v>940</v>
@@ -24481,7 +24475,7 @@
       <c r="J932" s="68"/>
       <c r="K932" s="68"/>
     </row>
-    <row r="933" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="933" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A933" s="66"/>
       <c r="B933" s="66" t="s">
         <v>941</v>
@@ -24496,7 +24490,7 @@
       <c r="J933" s="68"/>
       <c r="K933" s="68"/>
     </row>
-    <row r="934" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="934" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A934" s="66"/>
       <c r="B934" s="66" t="s">
         <v>942</v>
@@ -24511,7 +24505,7 @@
       <c r="J934" s="68"/>
       <c r="K934" s="68"/>
     </row>
-    <row r="935" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="935" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A935" s="66"/>
       <c r="B935" s="66" t="s">
         <v>943</v>
@@ -24526,7 +24520,7 @@
       <c r="J935" s="68"/>
       <c r="K935" s="68"/>
     </row>
-    <row r="936" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="936" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A936" s="66"/>
       <c r="B936" s="66" t="s">
         <v>944</v>
@@ -24541,7 +24535,7 @@
       <c r="J936" s="68"/>
       <c r="K936" s="68"/>
     </row>
-    <row r="937" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="937" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A937" s="66"/>
       <c r="B937" s="66" t="s">
         <v>945</v>
@@ -24556,7 +24550,7 @@
       <c r="J937" s="68"/>
       <c r="K937" s="68"/>
     </row>
-    <row r="938" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="938" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A938" s="66"/>
       <c r="B938" s="66" t="s">
         <v>946</v>
@@ -24571,7 +24565,7 @@
       <c r="J938" s="68"/>
       <c r="K938" s="68"/>
     </row>
-    <row r="939" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="939" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A939" s="66"/>
       <c r="B939" s="66" t="s">
         <v>947</v>
@@ -24586,7 +24580,7 @@
       <c r="J939" s="68"/>
       <c r="K939" s="68"/>
     </row>
-    <row r="940" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="940" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A940" s="66"/>
       <c r="B940" s="66" t="s">
         <v>948</v>
@@ -24601,7 +24595,7 @@
       <c r="J940" s="68"/>
       <c r="K940" s="68"/>
     </row>
-    <row r="941" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="941" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A941" s="66"/>
       <c r="B941" s="66" t="s">
         <v>949</v>
@@ -24616,7 +24610,7 @@
       <c r="J941" s="68"/>
       <c r="K941" s="68"/>
     </row>
-    <row r="942" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="942" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A942" s="66" t="s">
         <v>950</v>
       </c>
@@ -24633,7 +24627,7 @@
       <c r="J942" s="68"/>
       <c r="K942" s="68"/>
     </row>
-    <row r="943" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="943" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A943" s="66"/>
       <c r="B943" s="67" t="s">
         <v>952</v>
@@ -24648,7 +24642,7 @@
       <c r="J943" s="68"/>
       <c r="K943" s="68"/>
     </row>
-    <row r="944" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="944" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A944" s="66"/>
       <c r="B944" s="67" t="s">
         <v>953</v>
@@ -24663,7 +24657,7 @@
       <c r="J944" s="68"/>
       <c r="K944" s="68"/>
     </row>
-    <row r="945" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="945" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A945" s="66"/>
       <c r="B945" s="66" t="s">
         <v>954</v>
@@ -24678,7 +24672,7 @@
       <c r="J945" s="68"/>
       <c r="K945" s="68"/>
     </row>
-    <row r="946" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="946" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A946" s="66"/>
       <c r="B946" s="66" t="s">
         <v>955</v>
@@ -24693,7 +24687,7 @@
       <c r="J946" s="68"/>
       <c r="K946" s="68"/>
     </row>
-    <row r="947" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="947" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A947" s="66"/>
       <c r="B947" s="66" t="s">
         <v>956</v>
@@ -24708,7 +24702,7 @@
       <c r="J947" s="68"/>
       <c r="K947" s="68"/>
     </row>
-    <row r="948" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="948" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A948" s="66"/>
       <c r="B948" s="66" t="s">
         <v>957</v>
@@ -24723,7 +24717,7 @@
       <c r="J948" s="68"/>
       <c r="K948" s="68"/>
     </row>
-    <row r="949" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="949" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A949" s="66"/>
       <c r="B949" s="66" t="s">
         <v>958</v>
@@ -24738,7 +24732,7 @@
       <c r="J949" s="68"/>
       <c r="K949" s="68"/>
     </row>
-    <row r="950" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="950" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A950" s="66"/>
       <c r="B950" s="66" t="s">
         <v>959</v>
@@ -24753,7 +24747,7 @@
       <c r="J950" s="68"/>
       <c r="K950" s="68"/>
     </row>
-    <row r="951" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="951" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A951" s="66" t="s">
         <v>960</v>
       </c>
@@ -24770,7 +24764,7 @@
       <c r="J951" s="68"/>
       <c r="K951" s="68"/>
     </row>
-    <row r="952" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="952" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A952" s="68"/>
       <c r="B952" s="80" t="s">
         <v>962</v>
@@ -24785,7 +24779,7 @@
       <c r="J952" s="68"/>
       <c r="K952" s="68"/>
     </row>
-    <row r="953" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="953" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A953" s="68"/>
       <c r="B953" s="69" t="s">
         <v>963</v>
@@ -24800,7 +24794,7 @@
       <c r="J953" s="68"/>
       <c r="K953" s="68"/>
     </row>
-    <row r="954" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="954" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A954" s="68"/>
       <c r="B954" s="69" t="s">
         <v>964</v>
@@ -24815,7 +24809,7 @@
       <c r="J954" s="68"/>
       <c r="K954" s="68"/>
     </row>
-    <row r="955" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="955" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A955" s="68"/>
       <c r="B955" s="69" t="s">
         <v>965</v>
@@ -24830,7 +24824,7 @@
       <c r="J955" s="68"/>
       <c r="K955" s="68"/>
     </row>
-    <row r="956" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="956" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A956" s="68"/>
       <c r="B956" s="69" t="s">
         <v>966</v>
@@ -24845,7 +24839,7 @@
       <c r="J956" s="68"/>
       <c r="K956" s="68"/>
     </row>
-    <row r="957" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="957" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A957" s="68"/>
       <c r="B957" s="67" t="s">
         <v>967</v>
@@ -24860,7 +24854,7 @@
       <c r="J957" s="68"/>
       <c r="K957" s="68"/>
     </row>
-    <row r="958" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="958" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A958" s="68"/>
       <c r="B958" s="69" t="s">
         <v>968</v>
@@ -24875,7 +24869,7 @@
       <c r="J958" s="68"/>
       <c r="K958" s="68"/>
     </row>
-    <row r="959" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="959" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A959" s="68"/>
       <c r="B959" s="69" t="s">
         <v>969</v>
@@ -24890,7 +24884,7 @@
       <c r="J959" s="68"/>
       <c r="K959" s="68"/>
     </row>
-    <row r="960" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="960" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A960" s="68"/>
       <c r="B960" s="69" t="s">
         <v>970</v>
@@ -24905,7 +24899,7 @@
       <c r="J960" s="68"/>
       <c r="K960" s="68"/>
     </row>
-    <row r="961" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="961" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A961" s="68"/>
       <c r="B961" s="69" t="s">
         <v>971</v>
@@ -24920,7 +24914,7 @@
       <c r="J961" s="68"/>
       <c r="K961" s="68"/>
     </row>
-    <row r="962" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="962" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A962" s="68"/>
       <c r="B962" s="69" t="s">
         <v>972</v>
@@ -24935,7 +24929,7 @@
       <c r="J962" s="68"/>
       <c r="K962" s="68"/>
     </row>
-    <row r="963" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="963" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A963" s="68"/>
       <c r="B963" s="69" t="s">
         <v>973</v>
@@ -24950,7 +24944,7 @@
       <c r="J963" s="68"/>
       <c r="K963" s="68"/>
     </row>
-    <row r="964" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="964" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A964" s="68"/>
       <c r="B964" s="67" t="s">
         <v>974</v>
@@ -24965,7 +24959,7 @@
       <c r="J964" s="68"/>
       <c r="K964" s="68"/>
     </row>
-    <row r="965" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="965" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A965" s="68"/>
       <c r="B965" s="69" t="s">
         <v>975</v>
@@ -24980,7 +24974,7 @@
       <c r="J965" s="68"/>
       <c r="K965" s="68"/>
     </row>
-    <row r="966" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="966" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A966" s="68"/>
       <c r="B966" s="69" t="s">
         <v>976</v>
@@ -24995,7 +24989,7 @@
       <c r="J966" s="68"/>
       <c r="K966" s="68"/>
     </row>
-    <row r="967" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="967" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A967" s="68"/>
       <c r="B967" s="69" t="s">
         <v>977</v>
@@ -25010,7 +25004,7 @@
       <c r="J967" s="68"/>
       <c r="K967" s="68"/>
     </row>
-    <row r="968" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="968" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A968" s="68"/>
       <c r="B968" s="69" t="s">
         <v>978</v>
@@ -25025,7 +25019,7 @@
       <c r="J968" s="68"/>
       <c r="K968" s="68"/>
     </row>
-    <row r="969" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="969" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A969" s="68"/>
       <c r="B969" s="69" t="s">
         <v>979</v>
@@ -25040,7 +25034,7 @@
       <c r="J969" s="68"/>
       <c r="K969" s="68"/>
     </row>
-    <row r="970" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="970" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A970" s="68"/>
       <c r="B970" s="69" t="s">
         <v>980</v>
@@ -25055,7 +25049,7 @@
       <c r="J970" s="68"/>
       <c r="K970" s="68"/>
     </row>
-    <row r="971" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="971" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A971" s="68"/>
       <c r="B971" s="67" t="s">
         <v>981</v>
@@ -25070,7 +25064,7 @@
       <c r="J971" s="68"/>
       <c r="K971" s="68"/>
     </row>
-    <row r="972" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="972" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A972" s="68"/>
       <c r="B972" s="69" t="s">
         <v>982</v>
@@ -25085,7 +25079,7 @@
       <c r="J972" s="68"/>
       <c r="K972" s="68"/>
     </row>
-    <row r="973" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="973" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A973" s="68"/>
       <c r="B973" s="69" t="s">
         <v>983</v>
@@ -25100,7 +25094,7 @@
       <c r="J973" s="68"/>
       <c r="K973" s="68"/>
     </row>
-    <row r="974" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="974" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A974" s="68"/>
       <c r="B974" s="69" t="s">
         <v>984</v>
@@ -25115,7 +25109,7 @@
       <c r="J974" s="68"/>
       <c r="K974" s="68"/>
     </row>
-    <row r="975" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="975" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A975" s="68"/>
       <c r="B975" s="69" t="s">
         <v>985</v>
@@ -25130,7 +25124,7 @@
       <c r="J975" s="68"/>
       <c r="K975" s="68"/>
     </row>
-    <row r="976" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="976" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A976" s="68"/>
       <c r="B976" s="69" t="s">
         <v>986</v>
@@ -25145,7 +25139,7 @@
       <c r="J976" s="68"/>
       <c r="K976" s="68"/>
     </row>
-    <row r="977" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="977" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A977" s="68"/>
       <c r="B977" s="69" t="s">
         <v>987</v>
@@ -25160,7 +25154,7 @@
       <c r="J977" s="68"/>
       <c r="K977" s="68"/>
     </row>
-    <row r="978" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="978" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A978" s="68"/>
       <c r="B978" s="69" t="s">
         <v>988</v>
@@ -25175,7 +25169,7 @@
       <c r="J978" s="68"/>
       <c r="K978" s="68"/>
     </row>
-    <row r="979" s="63" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" spans="1:11">
+    <row r="979" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" spans="1:11">
       <c r="A979" s="68"/>
       <c r="B979" s="69" t="s">
         <v>989</v>
@@ -25190,7 +25184,7 @@
       <c r="J979" s="68"/>
       <c r="K979" s="68"/>
     </row>
-    <row r="980" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:11">
+    <row r="980" s="63" customFormat="1" ht="14.25" customHeight="1" collapsed="1" spans="1:11">
       <c r="A980" s="68"/>
       <c r="B980" s="68"/>
       <c r="C980" s="68"/>
@@ -25235,10 +25229,10 @@
   <sheetPr/>
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="$A136:$XFD256"/>
+      <selection pane="bottomLeft" activeCell="I253" sqref="I253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26913,9 +26907,9 @@
   <dimension ref="A1:L1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1436" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A1139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1443" sqref="F1443"/>
+      <selection pane="bottomLeft" activeCell="B1207" sqref="B1207:B1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
